--- a/data/Author-Author Oct2013.xlsx
+++ b/data/Author-Author Oct2013.xlsx
@@ -3221,7 +3221,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D954"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A926" workbookViewId="0">
+      <selection activeCell="E934" sqref="E934"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3250,7 +3252,7 @@
         <v>463</v>
       </c>
       <c r="C2">
-        <f t="array" ref="C2">SUM(IF(Connections!A2:B1976=Authors!A2, 1, 0))+1</f>
+        <f t="array" ref="C2">SUM(IF(Connections!$A$2:$B$1976=Authors!A2, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D2">
@@ -3265,7 +3267,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <f t="array" ref="C3">SUM(IF(Connections!A3:B1977=Authors!A3, 1, 0))+1</f>
+        <f t="array" ref="C3">SUM(IF(Connections!$A$2:$B$1976=Authors!A3, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D3">
@@ -3280,7 +3282,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <f t="array" ref="C4">SUM(IF(Connections!A4:B1978=Authors!A4, 1, 0))+1</f>
+        <f t="array" ref="C4">SUM(IF(Connections!$A$2:$B$1976=Authors!A4, 1, 0))+1</f>
         <v>9</v>
       </c>
       <c r="D4">
@@ -3295,7 +3297,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <f t="array" ref="C5">SUM(IF(Connections!A5:B1979=Authors!A5, 1, 0))+1</f>
+        <f t="array" ref="C5">SUM(IF(Connections!$A$2:$B$1976=Authors!A5, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D5">
@@ -3310,7 +3312,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <f t="array" ref="C6">SUM(IF(Connections!A6:B1980=Authors!A6, 1, 0))+1</f>
+        <f t="array" ref="C6">SUM(IF(Connections!$A$2:$B$1976=Authors!A6, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D6">
@@ -3325,7 +3327,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <f t="array" ref="C7">SUM(IF(Connections!A7:B1981=Authors!A7, 1, 0))+1</f>
+        <f t="array" ref="C7">SUM(IF(Connections!$A$2:$B$1976=Authors!A7, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D7">
@@ -3340,7 +3342,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <f t="array" ref="C8">SUM(IF(Connections!A8:B1982=Authors!A8, 1, 0))+1</f>
+        <f t="array" ref="C8">SUM(IF(Connections!$A$2:$B$1976=Authors!A8, 1, 0))+1</f>
         <v>9</v>
       </c>
       <c r="D8">
@@ -3355,7 +3357,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <f t="array" ref="C9">SUM(IF(Connections!A9:B1983=Authors!A9, 1, 0))+1</f>
+        <f t="array" ref="C9">SUM(IF(Connections!$A$2:$B$1976=Authors!A9, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D9">
@@ -3370,7 +3372,7 @@
         <v>324</v>
       </c>
       <c r="C10">
-        <f t="array" ref="C10">SUM(IF(Connections!A10:B1984=Authors!A10, 1, 0))+1</f>
+        <f t="array" ref="C10">SUM(IF(Connections!$A$2:$B$1976=Authors!A10, 1, 0))+1</f>
         <v>12</v>
       </c>
       <c r="D10">
@@ -3385,7 +3387,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <f t="array" ref="C11">SUM(IF(Connections!A11:B1985=Authors!A11, 1, 0))+1</f>
+        <f t="array" ref="C11">SUM(IF(Connections!$A$2:$B$1976=Authors!A11, 1, 0))+1</f>
         <v>12</v>
       </c>
       <c r="D11">
@@ -3400,7 +3402,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <f t="array" ref="C12">SUM(IF(Connections!A12:B1986=Authors!A12, 1, 0))+1</f>
+        <f t="array" ref="C12">SUM(IF(Connections!$A$2:$B$1976=Authors!A12, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D12">
@@ -3415,7 +3417,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <f t="array" ref="C13">SUM(IF(Connections!A13:B1987=Authors!A13, 1, 0))+1</f>
+        <f t="array" ref="C13">SUM(IF(Connections!$A$2:$B$1976=Authors!A13, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D13">
@@ -3430,7 +3432,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <f t="array" ref="C14">SUM(IF(Connections!A14:B1988=Authors!A14, 1, 0))+1</f>
+        <f t="array" ref="C14">SUM(IF(Connections!$A$2:$B$1976=Authors!A14, 1, 0))+1</f>
         <v>7</v>
       </c>
       <c r="D14">
@@ -3445,7 +3447,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <f t="array" ref="C15">SUM(IF(Connections!A15:B1989=Authors!A15, 1, 0))+1</f>
+        <f t="array" ref="C15">SUM(IF(Connections!$A$2:$B$1976=Authors!A15, 1, 0))+1</f>
         <v>8</v>
       </c>
       <c r="D15">
@@ -3460,7 +3462,7 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <f t="array" ref="C16">SUM(IF(Connections!A16:B1990=Authors!A16, 1, 0))+1</f>
+        <f t="array" ref="C16">SUM(IF(Connections!$A$2:$B$1976=Authors!A16, 1, 0))+1</f>
         <v>23</v>
       </c>
       <c r="D16">
@@ -3475,7 +3477,7 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <f t="array" ref="C17">SUM(IF(Connections!A17:B1991=Authors!A17, 1, 0))+1</f>
+        <f t="array" ref="C17">SUM(IF(Connections!$A$2:$B$1976=Authors!A17, 1, 0))+1</f>
         <v>7</v>
       </c>
       <c r="D17">
@@ -3490,7 +3492,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <f t="array" ref="C18">SUM(IF(Connections!A18:B1992=Authors!A18, 1, 0))+1</f>
+        <f t="array" ref="C18">SUM(IF(Connections!$A$2:$B$1976=Authors!A18, 1, 0))+1</f>
         <v>12</v>
       </c>
       <c r="D18">
@@ -3505,7 +3507,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <f t="array" ref="C19">SUM(IF(Connections!A19:B1993=Authors!A19, 1, 0))+1</f>
+        <f t="array" ref="C19">SUM(IF(Connections!$A$2:$B$1976=Authors!A19, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D19">
@@ -3520,7 +3522,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <f t="array" ref="C20">SUM(IF(Connections!A20:B1994=Authors!A20, 1, 0))+1</f>
+        <f t="array" ref="C20">SUM(IF(Connections!$A$2:$B$1976=Authors!A20, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D20">
@@ -3535,7 +3537,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <f t="array" ref="C21">SUM(IF(Connections!A21:B1995=Authors!A21, 1, 0))+1</f>
+        <f t="array" ref="C21">SUM(IF(Connections!$A$2:$B$1976=Authors!A21, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D21">
@@ -3550,7 +3552,7 @@
         <v>62</v>
       </c>
       <c r="C22">
-        <f t="array" ref="C22">SUM(IF(Connections!A22:B1996=Authors!A22, 1, 0))+1</f>
+        <f t="array" ref="C22">SUM(IF(Connections!$A$2:$B$1976=Authors!A22, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D22">
@@ -3565,7 +3567,7 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <f t="array" ref="C23">SUM(IF(Connections!A23:B1997=Authors!A23, 1, 0))+1</f>
+        <f t="array" ref="C23">SUM(IF(Connections!$A$2:$B$1976=Authors!A23, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D23">
@@ -3580,7 +3582,7 @@
         <v>618</v>
       </c>
       <c r="C24">
-        <f t="array" ref="C24">SUM(IF(Connections!A24:B1998=Authors!A24, 1, 0))+1</f>
+        <f t="array" ref="C24">SUM(IF(Connections!$A$2:$B$1976=Authors!A24, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D24">
@@ -3595,7 +3597,7 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <f t="array" ref="C25">SUM(IF(Connections!A25:B1999=Authors!A25, 1, 0))+1</f>
+        <f t="array" ref="C25">SUM(IF(Connections!$A$2:$B$1976=Authors!A25, 1, 0))+1</f>
         <v>10</v>
       </c>
       <c r="D25">
@@ -3610,7 +3612,7 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <f t="array" ref="C26">SUM(IF(Connections!A26:B2000=Authors!A26, 1, 0))+1</f>
+        <f t="array" ref="C26">SUM(IF(Connections!$A$2:$B$1976=Authors!A26, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D26">
@@ -3625,7 +3627,7 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <f t="array" ref="C27">SUM(IF(Connections!A27:B2001=Authors!A27, 1, 0))+1</f>
+        <f t="array" ref="C27">SUM(IF(Connections!$A$2:$B$1976=Authors!A27, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D27">
@@ -3640,7 +3642,7 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <f t="array" ref="C28">SUM(IF(Connections!A28:B2002=Authors!A28, 1, 0))+1</f>
+        <f t="array" ref="C28">SUM(IF(Connections!$A$2:$B$1976=Authors!A28, 1, 0))+1</f>
         <v>14</v>
       </c>
       <c r="D28">
@@ -3655,7 +3657,7 @@
         <v>619</v>
       </c>
       <c r="C29">
-        <f t="array" ref="C29">SUM(IF(Connections!A29:B2003=Authors!A29, 1, 0))+1</f>
+        <f t="array" ref="C29">SUM(IF(Connections!$A$2:$B$1976=Authors!A29, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D29">
@@ -3670,7 +3672,7 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <f t="array" ref="C30">SUM(IF(Connections!A30:B2004=Authors!A30, 1, 0))+1</f>
+        <f t="array" ref="C30">SUM(IF(Connections!$A$2:$B$1976=Authors!A30, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D30">
@@ -3685,7 +3687,7 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <f t="array" ref="C31">SUM(IF(Connections!A31:B2005=Authors!A31, 1, 0))+1</f>
+        <f t="array" ref="C31">SUM(IF(Connections!$A$2:$B$1976=Authors!A31, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D31">
@@ -3700,7 +3702,7 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <f t="array" ref="C32">SUM(IF(Connections!A32:B2006=Authors!A32, 1, 0))+1</f>
+        <f t="array" ref="C32">SUM(IF(Connections!$A$2:$B$1976=Authors!A32, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D32">
@@ -3715,7 +3717,7 @@
         <v>468</v>
       </c>
       <c r="C33">
-        <f t="array" ref="C33">SUM(IF(Connections!A33:B2007=Authors!A33, 1, 0))+1</f>
+        <f t="array" ref="C33">SUM(IF(Connections!$A$2:$B$1976=Authors!A33, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D33">
@@ -3730,7 +3732,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <f t="array" ref="C34">SUM(IF(Connections!A34:B2008=Authors!A34, 1, 0))+1</f>
+        <f t="array" ref="C34">SUM(IF(Connections!$A$2:$B$1976=Authors!A34, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D34">
@@ -3745,7 +3747,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <f t="array" ref="C35">SUM(IF(Connections!A35:B2009=Authors!A35, 1, 0))+1</f>
+        <f t="array" ref="C35">SUM(IF(Connections!$A$2:$B$1976=Authors!A35, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D35">
@@ -3760,7 +3762,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <f t="array" ref="C36">SUM(IF(Connections!A36:B2010=Authors!A36, 1, 0))+1</f>
+        <f t="array" ref="C36">SUM(IF(Connections!$A$2:$B$1976=Authors!A36, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D36">
@@ -3775,7 +3777,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <f t="array" ref="C37">SUM(IF(Connections!A37:B2011=Authors!A37, 1, 0))+1</f>
+        <f t="array" ref="C37">SUM(IF(Connections!$A$2:$B$1976=Authors!A37, 1, 0))+1</f>
         <v>10</v>
       </c>
       <c r="D37">
@@ -3790,7 +3792,7 @@
         <v>330</v>
       </c>
       <c r="C38">
-        <f t="array" ref="C38">SUM(IF(Connections!A38:B2012=Authors!A38, 1, 0))+1</f>
+        <f t="array" ref="C38">SUM(IF(Connections!$A$2:$B$1976=Authors!A38, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D38">
@@ -3805,7 +3807,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <f t="array" ref="C39">SUM(IF(Connections!A39:B2013=Authors!A39, 1, 0))+1</f>
+        <f t="array" ref="C39">SUM(IF(Connections!$A$2:$B$1976=Authors!A39, 1, 0))+1</f>
         <v>10</v>
       </c>
       <c r="D39">
@@ -3820,7 +3822,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <f t="array" ref="C40">SUM(IF(Connections!A40:B2014=Authors!A40, 1, 0))+1</f>
+        <f t="array" ref="C40">SUM(IF(Connections!$A$2:$B$1976=Authors!A40, 1, 0))+1</f>
         <v>9</v>
       </c>
       <c r="D40">
@@ -3835,7 +3837,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <f t="array" ref="C41">SUM(IF(Connections!A41:B2015=Authors!A41, 1, 0))+1</f>
+        <f t="array" ref="C41">SUM(IF(Connections!$A$2:$B$1976=Authors!A41, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D41">
@@ -3850,7 +3852,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <f t="array" ref="C42">SUM(IF(Connections!A42:B2016=Authors!A42, 1, 0))+1</f>
+        <f t="array" ref="C42">SUM(IF(Connections!$A$2:$B$1976=Authors!A42, 1, 0))+1</f>
         <v>8</v>
       </c>
       <c r="D42">
@@ -3865,7 +3867,7 @@
         <v>248</v>
       </c>
       <c r="C43">
-        <f t="array" ref="C43">SUM(IF(Connections!A43:B2017=Authors!A43, 1, 0))+1</f>
+        <f t="array" ref="C43">SUM(IF(Connections!$A$2:$B$1976=Authors!A43, 1, 0))+1</f>
         <v>11</v>
       </c>
       <c r="D43">
@@ -3880,7 +3882,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <f t="array" ref="C44">SUM(IF(Connections!A44:B2018=Authors!A44, 1, 0))+1</f>
+        <f t="array" ref="C44">SUM(IF(Connections!$A$2:$B$1976=Authors!A44, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D44">
@@ -3895,7 +3897,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <f t="array" ref="C45">SUM(IF(Connections!A45:B2019=Authors!A45, 1, 0))+1</f>
+        <f t="array" ref="C45">SUM(IF(Connections!$A$2:$B$1976=Authors!A45, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D45">
@@ -3910,7 +3912,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <f t="array" ref="C46">SUM(IF(Connections!A46:B2020=Authors!A46, 1, 0))+1</f>
+        <f t="array" ref="C46">SUM(IF(Connections!$A$2:$B$1976=Authors!A46, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D46">
@@ -3925,7 +3927,7 @@
         <v>779</v>
       </c>
       <c r="C47">
-        <f t="array" ref="C47">SUM(IF(Connections!A47:B2021=Authors!A47, 1, 0))+1</f>
+        <f t="array" ref="C47">SUM(IF(Connections!$A$2:$B$1976=Authors!A47, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D47">
@@ -3940,7 +3942,7 @@
         <v>787</v>
       </c>
       <c r="C48">
-        <f t="array" ref="C48">SUM(IF(Connections!A48:B2022=Authors!A48, 1, 0))+1</f>
+        <f t="array" ref="C48">SUM(IF(Connections!$A$2:$B$1976=Authors!A48, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D48">
@@ -3955,7 +3957,7 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <f t="array" ref="C49">SUM(IF(Connections!A49:B2023=Authors!A49, 1, 0))+1</f>
+        <f t="array" ref="C49">SUM(IF(Connections!$A$2:$B$1976=Authors!A49, 1, 0))+1</f>
         <v>14</v>
       </c>
       <c r="D49">
@@ -3970,7 +3972,7 @@
         <v>49</v>
       </c>
       <c r="C50">
-        <f t="array" ref="C50">SUM(IF(Connections!A50:B2024=Authors!A50, 1, 0))+1</f>
+        <f t="array" ref="C50">SUM(IF(Connections!$A$2:$B$1976=Authors!A50, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D50">
@@ -3985,8 +3987,8 @@
         <v>50</v>
       </c>
       <c r="C51">
-        <f t="array" ref="C51">SUM(IF(Connections!A51:B2025=Authors!A51, 1, 0))+1</f>
-        <v>8</v>
+        <f t="array" ref="C51">SUM(IF(Connections!$A$2:$B$1976=Authors!A51, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -4000,7 +4002,7 @@
         <v>51</v>
       </c>
       <c r="C52">
-        <f t="array" ref="C52">SUM(IF(Connections!A52:B2026=Authors!A52, 1, 0))+1</f>
+        <f t="array" ref="C52">SUM(IF(Connections!$A$2:$B$1976=Authors!A52, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D52">
@@ -4015,7 +4017,7 @@
         <v>52</v>
       </c>
       <c r="C53">
-        <f t="array" ref="C53">SUM(IF(Connections!A53:B2027=Authors!A53, 1, 0))+1</f>
+        <f t="array" ref="C53">SUM(IF(Connections!$A$2:$B$1976=Authors!A53, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D53">
@@ -4030,7 +4032,7 @@
         <v>914</v>
       </c>
       <c r="C54">
-        <f t="array" ref="C54">SUM(IF(Connections!A54:B2028=Authors!A54, 1, 0))+1</f>
+        <f t="array" ref="C54">SUM(IF(Connections!$A$2:$B$1976=Authors!A54, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D54">
@@ -4045,7 +4047,7 @@
         <v>55</v>
       </c>
       <c r="C55">
-        <f t="array" ref="C55">SUM(IF(Connections!A55:B2029=Authors!A55, 1, 0))+1</f>
+        <f t="array" ref="C55">SUM(IF(Connections!$A$2:$B$1976=Authors!A55, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D55">
@@ -4060,7 +4062,7 @@
         <v>56</v>
       </c>
       <c r="C56">
-        <f t="array" ref="C56">SUM(IF(Connections!A56:B2030=Authors!A56, 1, 0))+1</f>
+        <f t="array" ref="C56">SUM(IF(Connections!$A$2:$B$1976=Authors!A56, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D56">
@@ -4075,7 +4077,7 @@
         <v>624</v>
       </c>
       <c r="C57">
-        <f t="array" ref="C57">SUM(IF(Connections!A57:B2031=Authors!A57, 1, 0))+1</f>
+        <f t="array" ref="C57">SUM(IF(Connections!$A$2:$B$1976=Authors!A57, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D57">
@@ -4090,7 +4092,7 @@
         <v>864</v>
       </c>
       <c r="C58">
-        <f t="array" ref="C58">SUM(IF(Connections!A58:B2032=Authors!A58, 1, 0))+1</f>
+        <f t="array" ref="C58">SUM(IF(Connections!$A$2:$B$1976=Authors!A58, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D58">
@@ -4105,7 +4107,7 @@
         <v>59</v>
       </c>
       <c r="C59">
-        <f t="array" ref="C59">SUM(IF(Connections!A59:B2033=Authors!A59, 1, 0))+1</f>
+        <f t="array" ref="C59">SUM(IF(Connections!$A$2:$B$1976=Authors!A59, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D59">
@@ -4120,7 +4122,7 @@
         <v>333</v>
       </c>
       <c r="C60">
-        <f t="array" ref="C60">SUM(IF(Connections!A60:B2034=Authors!A60, 1, 0))+1</f>
+        <f t="array" ref="C60">SUM(IF(Connections!$A$2:$B$1976=Authors!A60, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D60">
@@ -4135,7 +4137,7 @@
         <v>61</v>
       </c>
       <c r="C61">
-        <f t="array" ref="C61">SUM(IF(Connections!A61:B2035=Authors!A61, 1, 0))+1</f>
+        <f t="array" ref="C61">SUM(IF(Connections!$A$2:$B$1976=Authors!A61, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D61">
@@ -4150,7 +4152,7 @@
         <v>364</v>
       </c>
       <c r="C62">
-        <f t="array" ref="C62">SUM(IF(Connections!A62:B2036=Authors!A62, 1, 0))+1</f>
+        <f t="array" ref="C62">SUM(IF(Connections!$A$2:$B$1976=Authors!A62, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D62">
@@ -4165,7 +4167,7 @@
         <v>63</v>
       </c>
       <c r="C63">
-        <f t="array" ref="C63">SUM(IF(Connections!A63:B2037=Authors!A63, 1, 0))+1</f>
+        <f t="array" ref="C63">SUM(IF(Connections!$A$2:$B$1976=Authors!A63, 1, 0))+1</f>
         <v>8</v>
       </c>
       <c r="D63">
@@ -4180,7 +4182,7 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <f t="array" ref="C64">SUM(IF(Connections!A64:B2038=Authors!A64, 1, 0))+1</f>
+        <f t="array" ref="C64">SUM(IF(Connections!$A$2:$B$1976=Authors!A64, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D64">
@@ -4195,7 +4197,7 @@
         <v>65</v>
       </c>
       <c r="C65">
-        <f t="array" ref="C65">SUM(IF(Connections!A65:B2039=Authors!A65, 1, 0))+1</f>
+        <f t="array" ref="C65">SUM(IF(Connections!$A$2:$B$1976=Authors!A65, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D65">
@@ -4210,7 +4212,7 @@
         <v>66</v>
       </c>
       <c r="C66">
-        <f t="array" ref="C66">SUM(IF(Connections!A66:B2040=Authors!A66, 1, 0))+1</f>
+        <f t="array" ref="C66">SUM(IF(Connections!$A$2:$B$1976=Authors!A66, 1, 0))+1</f>
         <v>9</v>
       </c>
       <c r="D66">
@@ -4225,8 +4227,8 @@
         <v>474</v>
       </c>
       <c r="C67">
-        <f t="array" ref="C67">SUM(IF(Connections!A67:B2041=Authors!A67, 1, 0))+1</f>
-        <v>8</v>
+        <f t="array" ref="C67">SUM(IF(Connections!$A$2:$B$1976=Authors!A67, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -4240,7 +4242,7 @@
         <v>68</v>
       </c>
       <c r="C68">
-        <f t="array" ref="C68">SUM(IF(Connections!A68:B2042=Authors!A68, 1, 0))+1</f>
+        <f t="array" ref="C68">SUM(IF(Connections!$A$2:$B$1976=Authors!A68, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D68">
@@ -4255,7 +4257,7 @@
         <v>69</v>
       </c>
       <c r="C69">
-        <f t="array" ref="C69">SUM(IF(Connections!A69:B2043=Authors!A69, 1, 0))+1</f>
+        <f t="array" ref="C69">SUM(IF(Connections!$A$2:$B$1976=Authors!A69, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D69">
@@ -4270,7 +4272,7 @@
         <v>70</v>
       </c>
       <c r="C70">
-        <f t="array" ref="C70">SUM(IF(Connections!A70:B2044=Authors!A70, 1, 0))+1</f>
+        <f t="array" ref="C70">SUM(IF(Connections!$A$2:$B$1976=Authors!A70, 1, 0))+1</f>
         <v>10</v>
       </c>
       <c r="D70">
@@ -4285,7 +4287,7 @@
         <v>71</v>
       </c>
       <c r="C71">
-        <f t="array" ref="C71">SUM(IF(Connections!A71:B2045=Authors!A71, 1, 0))+1</f>
+        <f t="array" ref="C71">SUM(IF(Connections!$A$2:$B$1976=Authors!A71, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D71">
@@ -4300,7 +4302,7 @@
         <v>501</v>
       </c>
       <c r="C72">
-        <f t="array" ref="C72">SUM(IF(Connections!A72:B2046=Authors!A72, 1, 0))+1</f>
+        <f t="array" ref="C72">SUM(IF(Connections!$A$2:$B$1976=Authors!A72, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D72">
@@ -4315,7 +4317,7 @@
         <v>72</v>
       </c>
       <c r="C73">
-        <f t="array" ref="C73">SUM(IF(Connections!A73:B2047=Authors!A73, 1, 0))+1</f>
+        <f t="array" ref="C73">SUM(IF(Connections!$A$2:$B$1976=Authors!A73, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D73">
@@ -4330,7 +4332,7 @@
         <v>73</v>
       </c>
       <c r="C74">
-        <f t="array" ref="C74">SUM(IF(Connections!A74:B2048=Authors!A74, 1, 0))+1</f>
+        <f t="array" ref="C74">SUM(IF(Connections!$A$2:$B$1976=Authors!A74, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D74">
@@ -4345,7 +4347,7 @@
         <v>74</v>
       </c>
       <c r="C75">
-        <f t="array" ref="C75">SUM(IF(Connections!A75:B2049=Authors!A75, 1, 0))+1</f>
+        <f t="array" ref="C75">SUM(IF(Connections!$A$2:$B$1976=Authors!A75, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D75">
@@ -4360,7 +4362,7 @@
         <v>75</v>
       </c>
       <c r="C76">
-        <f t="array" ref="C76">SUM(IF(Connections!A76:B2050=Authors!A76, 1, 0))+1</f>
+        <f t="array" ref="C76">SUM(IF(Connections!$A$2:$B$1976=Authors!A76, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D76">
@@ -4375,7 +4377,7 @@
         <v>76</v>
       </c>
       <c r="C77">
-        <f t="array" ref="C77">SUM(IF(Connections!A77:B2051=Authors!A77, 1, 0))+1</f>
+        <f t="array" ref="C77">SUM(IF(Connections!$A$2:$B$1976=Authors!A77, 1, 0))+1</f>
         <v>10</v>
       </c>
       <c r="D77">
@@ -4390,7 +4392,7 @@
         <v>77</v>
       </c>
       <c r="C78">
-        <f t="array" ref="C78">SUM(IF(Connections!A78:B2052=Authors!A78, 1, 0))+1</f>
+        <f t="array" ref="C78">SUM(IF(Connections!$A$2:$B$1976=Authors!A78, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D78">
@@ -4405,7 +4407,7 @@
         <v>78</v>
       </c>
       <c r="C79">
-        <f t="array" ref="C79">SUM(IF(Connections!A79:B2053=Authors!A79, 1, 0))+1</f>
+        <f t="array" ref="C79">SUM(IF(Connections!$A$2:$B$1976=Authors!A79, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D79">
@@ -4420,7 +4422,7 @@
         <v>79</v>
       </c>
       <c r="C80">
-        <f t="array" ref="C80">SUM(IF(Connections!A80:B2054=Authors!A80, 1, 0))+1</f>
+        <f t="array" ref="C80">SUM(IF(Connections!$A$2:$B$1976=Authors!A80, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D80">
@@ -4435,7 +4437,7 @@
         <v>337</v>
       </c>
       <c r="C81">
-        <f t="array" ref="C81">SUM(IF(Connections!A81:B2055=Authors!A81, 1, 0))+1</f>
+        <f t="array" ref="C81">SUM(IF(Connections!$A$2:$B$1976=Authors!A81, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D81">
@@ -4450,7 +4452,7 @@
         <v>81</v>
       </c>
       <c r="C82">
-        <f t="array" ref="C82">SUM(IF(Connections!A82:B2056=Authors!A82, 1, 0))+1</f>
+        <f t="array" ref="C82">SUM(IF(Connections!$A$2:$B$1976=Authors!A82, 1, 0))+1</f>
         <v>8</v>
       </c>
       <c r="D82">
@@ -4465,7 +4467,7 @@
         <v>612</v>
       </c>
       <c r="C83">
-        <f t="array" ref="C83">SUM(IF(Connections!A83:B2057=Authors!A83, 1, 0))+1</f>
+        <f t="array" ref="C83">SUM(IF(Connections!$A$2:$B$1976=Authors!A83, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D83">
@@ -4480,7 +4482,7 @@
         <v>83</v>
       </c>
       <c r="C84">
-        <f t="array" ref="C84">SUM(IF(Connections!A84:B2058=Authors!A84, 1, 0))+1</f>
+        <f t="array" ref="C84">SUM(IF(Connections!$A$2:$B$1976=Authors!A84, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D84">
@@ -4495,7 +4497,7 @@
         <v>84</v>
       </c>
       <c r="C85">
-        <f t="array" ref="C85">SUM(IF(Connections!A85:B2059=Authors!A85, 1, 0))+1</f>
+        <f t="array" ref="C85">SUM(IF(Connections!$A$2:$B$1976=Authors!A85, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D85">
@@ -4510,7 +4512,7 @@
         <v>85</v>
       </c>
       <c r="C86">
-        <f t="array" ref="C86">SUM(IF(Connections!A86:B2060=Authors!A86, 1, 0))+1</f>
+        <f t="array" ref="C86">SUM(IF(Connections!$A$2:$B$1976=Authors!A86, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D86">
@@ -4525,7 +4527,7 @@
         <v>86</v>
       </c>
       <c r="C87">
-        <f t="array" ref="C87">SUM(IF(Connections!A87:B2061=Authors!A87, 1, 0))+1</f>
+        <f t="array" ref="C87">SUM(IF(Connections!$A$2:$B$1976=Authors!A87, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D87">
@@ -4540,7 +4542,7 @@
         <v>338</v>
       </c>
       <c r="C88">
-        <f t="array" ref="C88">SUM(IF(Connections!A88:B2062=Authors!A88, 1, 0))+1</f>
+        <f t="array" ref="C88">SUM(IF(Connections!$A$2:$B$1976=Authors!A88, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D88">
@@ -4555,7 +4557,7 @@
         <v>87</v>
       </c>
       <c r="C89">
-        <f t="array" ref="C89">SUM(IF(Connections!A89:B2063=Authors!A89, 1, 0))+1</f>
+        <f t="array" ref="C89">SUM(IF(Connections!$A$2:$B$1976=Authors!A89, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D89">
@@ -4570,7 +4572,7 @@
         <v>88</v>
       </c>
       <c r="C90">
-        <f t="array" ref="C90">SUM(IF(Connections!A90:B2064=Authors!A90, 1, 0))+1</f>
+        <f t="array" ref="C90">SUM(IF(Connections!$A$2:$B$1976=Authors!A90, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D90">
@@ -4585,7 +4587,7 @@
         <v>408</v>
       </c>
       <c r="C91">
-        <f t="array" ref="C91">SUM(IF(Connections!A91:B2065=Authors!A91, 1, 0))+1</f>
+        <f t="array" ref="C91">SUM(IF(Connections!$A$2:$B$1976=Authors!A91, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D91">
@@ -4600,7 +4602,7 @@
         <v>89</v>
       </c>
       <c r="C92">
-        <f t="array" ref="C92">SUM(IF(Connections!A92:B2066=Authors!A92, 1, 0))+1</f>
+        <f t="array" ref="C92">SUM(IF(Connections!$A$2:$B$1976=Authors!A92, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D92">
@@ -4615,7 +4617,7 @@
         <v>90</v>
       </c>
       <c r="C93">
-        <f t="array" ref="C93">SUM(IF(Connections!A93:B2067=Authors!A93, 1, 0))+1</f>
+        <f t="array" ref="C93">SUM(IF(Connections!$A$2:$B$1976=Authors!A93, 1, 0))+1</f>
         <v>8</v>
       </c>
       <c r="D93">
@@ -4630,7 +4632,7 @@
         <v>92</v>
       </c>
       <c r="C94">
-        <f t="array" ref="C94">SUM(IF(Connections!A94:B2068=Authors!A94, 1, 0))+1</f>
+        <f t="array" ref="C94">SUM(IF(Connections!$A$2:$B$1976=Authors!A94, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D94">
@@ -4645,7 +4647,7 @@
         <v>93</v>
       </c>
       <c r="C95">
-        <f t="array" ref="C95">SUM(IF(Connections!A95:B2069=Authors!A95, 1, 0))+1</f>
+        <f t="array" ref="C95">SUM(IF(Connections!$A$2:$B$1976=Authors!A95, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D95">
@@ -4660,7 +4662,7 @@
         <v>94</v>
       </c>
       <c r="C96">
-        <f t="array" ref="C96">SUM(IF(Connections!A96:B2070=Authors!A96, 1, 0))+1</f>
+        <f t="array" ref="C96">SUM(IF(Connections!$A$2:$B$1976=Authors!A96, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D96">
@@ -4675,7 +4677,7 @@
         <v>631</v>
       </c>
       <c r="C97">
-        <f t="array" ref="C97">SUM(IF(Connections!A97:B2071=Authors!A97, 1, 0))+1</f>
+        <f t="array" ref="C97">SUM(IF(Connections!$A$2:$B$1976=Authors!A97, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D97">
@@ -4690,7 +4692,7 @@
         <v>96</v>
       </c>
       <c r="C98">
-        <f t="array" ref="C98">SUM(IF(Connections!A98:B2072=Authors!A98, 1, 0))+1</f>
+        <f t="array" ref="C98">SUM(IF(Connections!$A$2:$B$1976=Authors!A98, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D98">
@@ -4705,7 +4707,7 @@
         <v>97</v>
       </c>
       <c r="C99">
-        <f t="array" ref="C99">SUM(IF(Connections!A99:B2073=Authors!A99, 1, 0))+1</f>
+        <f t="array" ref="C99">SUM(IF(Connections!$A$2:$B$1976=Authors!A99, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D99">
@@ -4720,7 +4722,7 @@
         <v>98</v>
       </c>
       <c r="C100">
-        <f t="array" ref="C100">SUM(IF(Connections!A100:B2074=Authors!A100, 1, 0))+1</f>
+        <f t="array" ref="C100">SUM(IF(Connections!$A$2:$B$1976=Authors!A100, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D100">
@@ -4735,7 +4737,7 @@
         <v>99</v>
       </c>
       <c r="C101">
-        <f t="array" ref="C101">SUM(IF(Connections!A101:B2075=Authors!A101, 1, 0))+1</f>
+        <f t="array" ref="C101">SUM(IF(Connections!$A$2:$B$1976=Authors!A101, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D101">
@@ -4750,7 +4752,7 @@
         <v>100</v>
       </c>
       <c r="C102">
-        <f t="array" ref="C102">SUM(IF(Connections!A102:B2076=Authors!A102, 1, 0))+1</f>
+        <f t="array" ref="C102">SUM(IF(Connections!$A$2:$B$1976=Authors!A102, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D102">
@@ -4765,8 +4767,8 @@
         <v>800</v>
       </c>
       <c r="C103">
-        <f t="array" ref="C103">SUM(IF(Connections!A103:B2077=Authors!A103, 1, 0))+1</f>
-        <v>12</v>
+        <f t="array" ref="C103">SUM(IF(Connections!$A$2:$B$1976=Authors!A103, 1, 0))+1</f>
+        <v>13</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -4780,7 +4782,7 @@
         <v>174</v>
       </c>
       <c r="C104">
-        <f t="array" ref="C104">SUM(IF(Connections!A104:B2078=Authors!A104, 1, 0))+1</f>
+        <f t="array" ref="C104">SUM(IF(Connections!$A$2:$B$1976=Authors!A104, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D104">
@@ -4795,7 +4797,7 @@
         <v>103</v>
       </c>
       <c r="C105">
-        <f t="array" ref="C105">SUM(IF(Connections!A105:B2079=Authors!A105, 1, 0))+1</f>
+        <f t="array" ref="C105">SUM(IF(Connections!$A$2:$B$1976=Authors!A105, 1, 0))+1</f>
         <v>8</v>
       </c>
       <c r="D105">
@@ -4810,7 +4812,7 @@
         <v>104</v>
       </c>
       <c r="C106">
-        <f t="array" ref="C106">SUM(IF(Connections!A106:B2080=Authors!A106, 1, 0))+1</f>
+        <f t="array" ref="C106">SUM(IF(Connections!$A$2:$B$1976=Authors!A106, 1, 0))+1</f>
         <v>8</v>
       </c>
       <c r="D106">
@@ -4825,7 +4827,7 @@
         <v>106</v>
       </c>
       <c r="C107">
-        <f t="array" ref="C107">SUM(IF(Connections!A107:B2081=Authors!A107, 1, 0))+1</f>
+        <f t="array" ref="C107">SUM(IF(Connections!$A$2:$B$1976=Authors!A107, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D107">
@@ -4840,7 +4842,7 @@
         <v>107</v>
       </c>
       <c r="C108">
-        <f t="array" ref="C108">SUM(IF(Connections!A108:B2082=Authors!A108, 1, 0))+1</f>
+        <f t="array" ref="C108">SUM(IF(Connections!$A$2:$B$1976=Authors!A108, 1, 0))+1</f>
         <v>8</v>
       </c>
       <c r="D108">
@@ -4855,7 +4857,7 @@
         <v>108</v>
       </c>
       <c r="C109">
-        <f t="array" ref="C109">SUM(IF(Connections!A109:B2083=Authors!A109, 1, 0))+1</f>
+        <f t="array" ref="C109">SUM(IF(Connections!$A$2:$B$1976=Authors!A109, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D109">
@@ -4870,7 +4872,7 @@
         <v>109</v>
       </c>
       <c r="C110">
-        <f t="array" ref="C110">SUM(IF(Connections!A110:B2084=Authors!A110, 1, 0))+1</f>
+        <f t="array" ref="C110">SUM(IF(Connections!$A$2:$B$1976=Authors!A110, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D110">
@@ -4885,7 +4887,7 @@
         <v>110</v>
       </c>
       <c r="C111">
-        <f t="array" ref="C111">SUM(IF(Connections!A111:B2085=Authors!A111, 1, 0))+1</f>
+        <f t="array" ref="C111">SUM(IF(Connections!$A$2:$B$1976=Authors!A111, 1, 0))+1</f>
         <v>16</v>
       </c>
       <c r="D111">
@@ -4900,8 +4902,8 @@
         <v>111</v>
       </c>
       <c r="C112">
-        <f t="array" ref="C112">SUM(IF(Connections!A112:B2086=Authors!A112, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C112">SUM(IF(Connections!$A$2:$B$1976=Authors!A112, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -4915,7 +4917,7 @@
         <v>634</v>
       </c>
       <c r="C113">
-        <f t="array" ref="C113">SUM(IF(Connections!A113:B2087=Authors!A113, 1, 0))+1</f>
+        <f t="array" ref="C113">SUM(IF(Connections!$A$2:$B$1976=Authors!A113, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D113">
@@ -4930,7 +4932,7 @@
         <v>112</v>
       </c>
       <c r="C114">
-        <f t="array" ref="C114">SUM(IF(Connections!A114:B2088=Authors!A114, 1, 0))+1</f>
+        <f t="array" ref="C114">SUM(IF(Connections!$A$2:$B$1976=Authors!A114, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D114">
@@ -4945,7 +4947,7 @@
         <v>113</v>
       </c>
       <c r="C115">
-        <f t="array" ref="C115">SUM(IF(Connections!A115:B2089=Authors!A115, 1, 0))+1</f>
+        <f t="array" ref="C115">SUM(IF(Connections!$A$2:$B$1976=Authors!A115, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D115">
@@ -4960,7 +4962,7 @@
         <v>114</v>
       </c>
       <c r="C116">
-        <f t="array" ref="C116">SUM(IF(Connections!A116:B2090=Authors!A116, 1, 0))+1</f>
+        <f t="array" ref="C116">SUM(IF(Connections!$A$2:$B$1976=Authors!A116, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D116">
@@ -4975,8 +4977,8 @@
         <v>115</v>
       </c>
       <c r="C117">
-        <f t="array" ref="C117">SUM(IF(Connections!A117:B2091=Authors!A117, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C117">SUM(IF(Connections!$A$2:$B$1976=Authors!A117, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -4990,7 +4992,7 @@
         <v>116</v>
       </c>
       <c r="C118">
-        <f t="array" ref="C118">SUM(IF(Connections!A118:B2092=Authors!A118, 1, 0))+1</f>
+        <f t="array" ref="C118">SUM(IF(Connections!$A$2:$B$1976=Authors!A118, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D118">
@@ -5005,8 +5007,8 @@
         <v>117</v>
       </c>
       <c r="C119">
-        <f t="array" ref="C119">SUM(IF(Connections!A119:B2093=Authors!A119, 1, 0))+1</f>
-        <v>7</v>
+        <f t="array" ref="C119">SUM(IF(Connections!$A$2:$B$1976=Authors!A119, 1, 0))+1</f>
+        <v>8</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -5020,7 +5022,7 @@
         <v>118</v>
       </c>
       <c r="C120">
-        <f t="array" ref="C120">SUM(IF(Connections!A120:B2094=Authors!A120, 1, 0))+1</f>
+        <f t="array" ref="C120">SUM(IF(Connections!$A$2:$B$1976=Authors!A120, 1, 0))+1</f>
         <v>14</v>
       </c>
       <c r="D120">
@@ -5035,7 +5037,7 @@
         <v>119</v>
       </c>
       <c r="C121">
-        <f t="array" ref="C121">SUM(IF(Connections!A121:B2095=Authors!A121, 1, 0))+1</f>
+        <f t="array" ref="C121">SUM(IF(Connections!$A$2:$B$1976=Authors!A121, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D121">
@@ -5050,7 +5052,7 @@
         <v>120</v>
       </c>
       <c r="C122">
-        <f t="array" ref="C122">SUM(IF(Connections!A122:B2096=Authors!A122, 1, 0))+1</f>
+        <f t="array" ref="C122">SUM(IF(Connections!$A$2:$B$1976=Authors!A122, 1, 0))+1</f>
         <v>9</v>
       </c>
       <c r="D122">
@@ -5065,7 +5067,7 @@
         <v>121</v>
       </c>
       <c r="C123">
-        <f t="array" ref="C123">SUM(IF(Connections!A123:B2097=Authors!A123, 1, 0))+1</f>
+        <f t="array" ref="C123">SUM(IF(Connections!$A$2:$B$1976=Authors!A123, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D123">
@@ -5080,7 +5082,7 @@
         <v>122</v>
       </c>
       <c r="C124">
-        <f t="array" ref="C124">SUM(IF(Connections!A124:B2098=Authors!A124, 1, 0))+1</f>
+        <f t="array" ref="C124">SUM(IF(Connections!$A$2:$B$1976=Authors!A124, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D124">
@@ -5095,7 +5097,7 @@
         <v>123</v>
       </c>
       <c r="C125">
-        <f t="array" ref="C125">SUM(IF(Connections!A125:B2099=Authors!A125, 1, 0))+1</f>
+        <f t="array" ref="C125">SUM(IF(Connections!$A$2:$B$1976=Authors!A125, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D125">
@@ -5110,8 +5112,8 @@
         <v>200</v>
       </c>
       <c r="C126">
-        <f t="array" ref="C126">SUM(IF(Connections!A126:B2100=Authors!A126, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C126">SUM(IF(Connections!$A$2:$B$1976=Authors!A126, 1, 0))+1</f>
+        <v>6</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -5125,7 +5127,7 @@
         <v>410</v>
       </c>
       <c r="C127">
-        <f t="array" ref="C127">SUM(IF(Connections!A127:B2101=Authors!A127, 1, 0))+1</f>
+        <f t="array" ref="C127">SUM(IF(Connections!$A$2:$B$1976=Authors!A127, 1, 0))+1</f>
         <v>9</v>
       </c>
       <c r="D127">
@@ -5140,7 +5142,7 @@
         <v>125</v>
       </c>
       <c r="C128">
-        <f t="array" ref="C128">SUM(IF(Connections!A128:B2102=Authors!A128, 1, 0))+1</f>
+        <f t="array" ref="C128">SUM(IF(Connections!$A$2:$B$1976=Authors!A128, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D128">
@@ -5155,7 +5157,7 @@
         <v>126</v>
       </c>
       <c r="C129">
-        <f t="array" ref="C129">SUM(IF(Connections!A129:B2103=Authors!A129, 1, 0))+1</f>
+        <f t="array" ref="C129">SUM(IF(Connections!$A$2:$B$1976=Authors!A129, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D129">
@@ -5170,7 +5172,7 @@
         <v>127</v>
       </c>
       <c r="C130">
-        <f t="array" ref="C130">SUM(IF(Connections!A130:B2104=Authors!A130, 1, 0))+1</f>
+        <f t="array" ref="C130">SUM(IF(Connections!$A$2:$B$1976=Authors!A130, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D130">
@@ -5185,8 +5187,8 @@
         <v>129</v>
       </c>
       <c r="C131">
-        <f t="array" ref="C131">SUM(IF(Connections!A131:B2105=Authors!A131, 1, 0))+1</f>
-        <v>7</v>
+        <f t="array" ref="C131">SUM(IF(Connections!$A$2:$B$1976=Authors!A131, 1, 0))+1</f>
+        <v>8</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -5200,7 +5202,7 @@
         <v>130</v>
       </c>
       <c r="C132">
-        <f t="array" ref="C132">SUM(IF(Connections!A132:B2106=Authors!A132, 1, 0))+1</f>
+        <f t="array" ref="C132">SUM(IF(Connections!$A$2:$B$1976=Authors!A132, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D132">
@@ -5215,7 +5217,7 @@
         <v>131</v>
       </c>
       <c r="C133">
-        <f t="array" ref="C133">SUM(IF(Connections!A133:B2107=Authors!A133, 1, 0))+1</f>
+        <f t="array" ref="C133">SUM(IF(Connections!$A$2:$B$1976=Authors!A133, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D133">
@@ -5230,7 +5232,7 @@
         <v>132</v>
       </c>
       <c r="C134">
-        <f t="array" ref="C134">SUM(IF(Connections!A134:B2108=Authors!A134, 1, 0))+1</f>
+        <f t="array" ref="C134">SUM(IF(Connections!$A$2:$B$1976=Authors!A134, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D134">
@@ -5245,7 +5247,7 @@
         <v>133</v>
       </c>
       <c r="C135">
-        <f t="array" ref="C135">SUM(IF(Connections!A135:B2109=Authors!A135, 1, 0))+1</f>
+        <f t="array" ref="C135">SUM(IF(Connections!$A$2:$B$1976=Authors!A135, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D135">
@@ -5260,7 +5262,7 @@
         <v>134</v>
       </c>
       <c r="C136">
-        <f t="array" ref="C136">SUM(IF(Connections!A136:B2110=Authors!A136, 1, 0))+1</f>
+        <f t="array" ref="C136">SUM(IF(Connections!$A$2:$B$1976=Authors!A136, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D136">
@@ -5275,7 +5277,7 @@
         <v>135</v>
       </c>
       <c r="C137">
-        <f t="array" ref="C137">SUM(IF(Connections!A137:B2111=Authors!A137, 1, 0))+1</f>
+        <f t="array" ref="C137">SUM(IF(Connections!$A$2:$B$1976=Authors!A137, 1, 0))+1</f>
         <v>8</v>
       </c>
       <c r="D137">
@@ -5290,7 +5292,7 @@
         <v>136</v>
       </c>
       <c r="C138">
-        <f t="array" ref="C138">SUM(IF(Connections!A138:B2112=Authors!A138, 1, 0))+1</f>
+        <f t="array" ref="C138">SUM(IF(Connections!$A$2:$B$1976=Authors!A138, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D138">
@@ -5305,7 +5307,7 @@
         <v>138</v>
       </c>
       <c r="C139">
-        <f t="array" ref="C139">SUM(IF(Connections!A139:B2113=Authors!A139, 1, 0))+1</f>
+        <f t="array" ref="C139">SUM(IF(Connections!$A$2:$B$1976=Authors!A139, 1, 0))+1</f>
         <v>11</v>
       </c>
       <c r="D139">
@@ -5320,7 +5322,7 @@
         <v>808</v>
       </c>
       <c r="C140">
-        <f t="array" ref="C140">SUM(IF(Connections!A140:B2114=Authors!A140, 1, 0))+1</f>
+        <f t="array" ref="C140">SUM(IF(Connections!$A$2:$B$1976=Authors!A140, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D140">
@@ -5335,7 +5337,7 @@
         <v>140</v>
       </c>
       <c r="C141">
-        <f t="array" ref="C141">SUM(IF(Connections!A141:B2115=Authors!A141, 1, 0))+1</f>
+        <f t="array" ref="C141">SUM(IF(Connections!$A$2:$B$1976=Authors!A141, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D141">
@@ -5350,7 +5352,7 @@
         <v>141</v>
       </c>
       <c r="C142">
-        <f t="array" ref="C142">SUM(IF(Connections!A142:B2116=Authors!A142, 1, 0))+1</f>
+        <f t="array" ref="C142">SUM(IF(Connections!$A$2:$B$1976=Authors!A142, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D142">
@@ -5365,7 +5367,7 @@
         <v>540</v>
       </c>
       <c r="C143">
-        <f t="array" ref="C143">SUM(IF(Connections!A143:B2117=Authors!A143, 1, 0))+1</f>
+        <f t="array" ref="C143">SUM(IF(Connections!$A$2:$B$1976=Authors!A143, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D143">
@@ -5380,7 +5382,7 @@
         <v>142</v>
       </c>
       <c r="C144">
-        <f t="array" ref="C144">SUM(IF(Connections!A144:B2118=Authors!A144, 1, 0))+1</f>
+        <f t="array" ref="C144">SUM(IF(Connections!$A$2:$B$1976=Authors!A144, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D144">
@@ -5395,7 +5397,7 @@
         <v>143</v>
       </c>
       <c r="C145">
-        <f t="array" ref="C145">SUM(IF(Connections!A145:B2119=Authors!A145, 1, 0))+1</f>
+        <f t="array" ref="C145">SUM(IF(Connections!$A$2:$B$1976=Authors!A145, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D145">
@@ -5410,7 +5412,7 @@
         <v>27</v>
       </c>
       <c r="C146">
-        <f t="array" ref="C146">SUM(IF(Connections!A146:B2120=Authors!A146, 1, 0))+1</f>
+        <f t="array" ref="C146">SUM(IF(Connections!$A$2:$B$1976=Authors!A146, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D146">
@@ -5425,7 +5427,7 @@
         <v>144</v>
       </c>
       <c r="C147">
-        <f t="array" ref="C147">SUM(IF(Connections!A147:B2121=Authors!A147, 1, 0))+1</f>
+        <f t="array" ref="C147">SUM(IF(Connections!$A$2:$B$1976=Authors!A147, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D147">
@@ -5440,7 +5442,7 @@
         <v>146</v>
       </c>
       <c r="C148">
-        <f t="array" ref="C148">SUM(IF(Connections!A148:B2122=Authors!A148, 1, 0))+1</f>
+        <f t="array" ref="C148">SUM(IF(Connections!$A$2:$B$1976=Authors!A148, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D148">
@@ -5455,8 +5457,8 @@
         <v>147</v>
       </c>
       <c r="C149">
-        <f t="array" ref="C149">SUM(IF(Connections!A149:B2123=Authors!A149, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C149">SUM(IF(Connections!$A$2:$B$1976=Authors!A149, 1, 0))+1</f>
+        <v>6</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -5470,7 +5472,7 @@
         <v>148</v>
       </c>
       <c r="C150">
-        <f t="array" ref="C150">SUM(IF(Connections!A150:B2124=Authors!A150, 1, 0))+1</f>
+        <f t="array" ref="C150">SUM(IF(Connections!$A$2:$B$1976=Authors!A150, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D150">
@@ -5485,8 +5487,8 @@
         <v>149</v>
       </c>
       <c r="C151">
-        <f t="array" ref="C151">SUM(IF(Connections!A151:B2125=Authors!A151, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C151">SUM(IF(Connections!$A$2:$B$1976=Authors!A151, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -5500,8 +5502,8 @@
         <v>347</v>
       </c>
       <c r="C152">
-        <f t="array" ref="C152">SUM(IF(Connections!A152:B2126=Authors!A152, 1, 0))+1</f>
-        <v>13</v>
+        <f t="array" ref="C152">SUM(IF(Connections!$A$2:$B$1976=Authors!A152, 1, 0))+1</f>
+        <v>14</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -5515,8 +5517,8 @@
         <v>151</v>
       </c>
       <c r="C153">
-        <f t="array" ref="C153">SUM(IF(Connections!A153:B2127=Authors!A153, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C153">SUM(IF(Connections!$A$2:$B$1976=Authors!A153, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -5530,7 +5532,7 @@
         <v>152</v>
       </c>
       <c r="C154">
-        <f t="array" ref="C154">SUM(IF(Connections!A154:B2128=Authors!A154, 1, 0))+1</f>
+        <f t="array" ref="C154">SUM(IF(Connections!$A$2:$B$1976=Authors!A154, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D154">
@@ -5545,8 +5547,8 @@
         <v>153</v>
       </c>
       <c r="C155">
-        <f t="array" ref="C155">SUM(IF(Connections!A155:B2129=Authors!A155, 1, 0))+1</f>
-        <v>20</v>
+        <f t="array" ref="C155">SUM(IF(Connections!$A$2:$B$1976=Authors!A155, 1, 0))+1</f>
+        <v>21</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -5560,7 +5562,7 @@
         <v>154</v>
       </c>
       <c r="C156">
-        <f t="array" ref="C156">SUM(IF(Connections!A156:B2130=Authors!A156, 1, 0))+1</f>
+        <f t="array" ref="C156">SUM(IF(Connections!$A$2:$B$1976=Authors!A156, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D156">
@@ -5575,8 +5577,8 @@
         <v>155</v>
       </c>
       <c r="C157">
-        <f t="array" ref="C157">SUM(IF(Connections!A157:B2131=Authors!A157, 1, 0))+1</f>
-        <v>10</v>
+        <f t="array" ref="C157">SUM(IF(Connections!$A$2:$B$1976=Authors!A157, 1, 0))+1</f>
+        <v>11</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -5590,7 +5592,7 @@
         <v>156</v>
       </c>
       <c r="C158">
-        <f t="array" ref="C158">SUM(IF(Connections!A158:B2132=Authors!A158, 1, 0))+1</f>
+        <f t="array" ref="C158">SUM(IF(Connections!$A$2:$B$1976=Authors!A158, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D158">
@@ -5605,7 +5607,7 @@
         <v>157</v>
       </c>
       <c r="C159">
-        <f t="array" ref="C159">SUM(IF(Connections!A159:B2133=Authors!A159, 1, 0))+1</f>
+        <f t="array" ref="C159">SUM(IF(Connections!$A$2:$B$1976=Authors!A159, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D159">
@@ -5620,7 +5622,7 @@
         <v>158</v>
       </c>
       <c r="C160">
-        <f t="array" ref="C160">SUM(IF(Connections!A160:B2134=Authors!A160, 1, 0))+1</f>
+        <f t="array" ref="C160">SUM(IF(Connections!$A$2:$B$1976=Authors!A160, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D160">
@@ -5635,7 +5637,7 @@
         <v>159</v>
       </c>
       <c r="C161">
-        <f t="array" ref="C161">SUM(IF(Connections!A161:B2135=Authors!A161, 1, 0))+1</f>
+        <f t="array" ref="C161">SUM(IF(Connections!$A$2:$B$1976=Authors!A161, 1, 0))+1</f>
         <v>20</v>
       </c>
       <c r="D161">
@@ -5650,8 +5652,8 @@
         <v>160</v>
       </c>
       <c r="C162">
-        <f t="array" ref="C162">SUM(IF(Connections!A162:B2136=Authors!A162, 1, 0))+1</f>
-        <v>4</v>
+        <f t="array" ref="C162">SUM(IF(Connections!$A$2:$B$1976=Authors!A162, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -5665,7 +5667,7 @@
         <v>161</v>
       </c>
       <c r="C163">
-        <f t="array" ref="C163">SUM(IF(Connections!A163:B2137=Authors!A163, 1, 0))+1</f>
+        <f t="array" ref="C163">SUM(IF(Connections!$A$2:$B$1976=Authors!A163, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D163">
@@ -5680,7 +5682,7 @@
         <v>162</v>
       </c>
       <c r="C164">
-        <f t="array" ref="C164">SUM(IF(Connections!A164:B2138=Authors!A164, 1, 0))+1</f>
+        <f t="array" ref="C164">SUM(IF(Connections!$A$2:$B$1976=Authors!A164, 1, 0))+1</f>
         <v>7</v>
       </c>
       <c r="D164">
@@ -5695,7 +5697,7 @@
         <v>163</v>
       </c>
       <c r="C165">
-        <f t="array" ref="C165">SUM(IF(Connections!A165:B2139=Authors!A165, 1, 0))+1</f>
+        <f t="array" ref="C165">SUM(IF(Connections!$A$2:$B$1976=Authors!A165, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D165">
@@ -5710,7 +5712,7 @@
         <v>164</v>
       </c>
       <c r="C166">
-        <f t="array" ref="C166">SUM(IF(Connections!A166:B2140=Authors!A166, 1, 0))+1</f>
+        <f t="array" ref="C166">SUM(IF(Connections!$A$2:$B$1976=Authors!A166, 1, 0))+1</f>
         <v>16</v>
       </c>
       <c r="D166">
@@ -5725,7 +5727,7 @@
         <v>166</v>
       </c>
       <c r="C167">
-        <f t="array" ref="C167">SUM(IF(Connections!A167:B2141=Authors!A167, 1, 0))+1</f>
+        <f t="array" ref="C167">SUM(IF(Connections!$A$2:$B$1976=Authors!A167, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D167">
@@ -5740,8 +5742,8 @@
         <v>167</v>
       </c>
       <c r="C168">
-        <f t="array" ref="C168">SUM(IF(Connections!A168:B2142=Authors!A168, 1, 0))+1</f>
-        <v>28</v>
+        <f t="array" ref="C168">SUM(IF(Connections!$A$2:$B$1976=Authors!A168, 1, 0))+1</f>
+        <v>29</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -5755,7 +5757,7 @@
         <v>168</v>
       </c>
       <c r="C169">
-        <f t="array" ref="C169">SUM(IF(Connections!A169:B2143=Authors!A169, 1, 0))+1</f>
+        <f t="array" ref="C169">SUM(IF(Connections!$A$2:$B$1976=Authors!A169, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D169">
@@ -5770,7 +5772,7 @@
         <v>169</v>
       </c>
       <c r="C170">
-        <f t="array" ref="C170">SUM(IF(Connections!A170:B2144=Authors!A170, 1, 0))+1</f>
+        <f t="array" ref="C170">SUM(IF(Connections!$A$2:$B$1976=Authors!A170, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D170">
@@ -5785,7 +5787,7 @@
         <v>170</v>
       </c>
       <c r="C171">
-        <f t="array" ref="C171">SUM(IF(Connections!A171:B2145=Authors!A171, 1, 0))+1</f>
+        <f t="array" ref="C171">SUM(IF(Connections!$A$2:$B$1976=Authors!A171, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D171">
@@ -5800,7 +5802,7 @@
         <v>171</v>
       </c>
       <c r="C172">
-        <f t="array" ref="C172">SUM(IF(Connections!A172:B2146=Authors!A172, 1, 0))+1</f>
+        <f t="array" ref="C172">SUM(IF(Connections!$A$2:$B$1976=Authors!A172, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D172">
@@ -5815,7 +5817,7 @@
         <v>644</v>
       </c>
       <c r="C173">
-        <f t="array" ref="C173">SUM(IF(Connections!A173:B2147=Authors!A173, 1, 0))+1</f>
+        <f t="array" ref="C173">SUM(IF(Connections!$A$2:$B$1976=Authors!A173, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D173">
@@ -5830,7 +5832,7 @@
         <v>173</v>
       </c>
       <c r="C174">
-        <f t="array" ref="C174">SUM(IF(Connections!A174:B2148=Authors!A174, 1, 0))+1</f>
+        <f t="array" ref="C174">SUM(IF(Connections!$A$2:$B$1976=Authors!A174, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D174">
@@ -5845,8 +5847,8 @@
         <v>102</v>
       </c>
       <c r="C175">
-        <f t="array" ref="C175">SUM(IF(Connections!A175:B2149=Authors!A175, 1, 0))+1</f>
-        <v>20</v>
+        <f t="array" ref="C175">SUM(IF(Connections!$A$2:$B$1976=Authors!A175, 1, 0))+1</f>
+        <v>21</v>
       </c>
       <c r="D175">
         <v>1</v>
@@ -5860,7 +5862,7 @@
         <v>175</v>
       </c>
       <c r="C176">
-        <f t="array" ref="C176">SUM(IF(Connections!A176:B2150=Authors!A176, 1, 0))+1</f>
+        <f t="array" ref="C176">SUM(IF(Connections!$A$2:$B$1976=Authors!A176, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D176">
@@ -5875,7 +5877,7 @@
         <v>176</v>
       </c>
       <c r="C177">
-        <f t="array" ref="C177">SUM(IF(Connections!A177:B2151=Authors!A177, 1, 0))+1</f>
+        <f t="array" ref="C177">SUM(IF(Connections!$A$2:$B$1976=Authors!A177, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D177">
@@ -5890,7 +5892,7 @@
         <v>177</v>
       </c>
       <c r="C178">
-        <f t="array" ref="C178">SUM(IF(Connections!A178:B2152=Authors!A178, 1, 0))+1</f>
+        <f t="array" ref="C178">SUM(IF(Connections!$A$2:$B$1976=Authors!A178, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D178">
@@ -5905,7 +5907,7 @@
         <v>178</v>
       </c>
       <c r="C179">
-        <f t="array" ref="C179">SUM(IF(Connections!A179:B2153=Authors!A179, 1, 0))+1</f>
+        <f t="array" ref="C179">SUM(IF(Connections!$A$2:$B$1976=Authors!A179, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D179">
@@ -5920,7 +5922,7 @@
         <v>179</v>
       </c>
       <c r="C180">
-        <f t="array" ref="C180">SUM(IF(Connections!A180:B2154=Authors!A180, 1, 0))+1</f>
+        <f t="array" ref="C180">SUM(IF(Connections!$A$2:$B$1976=Authors!A180, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D180">
@@ -5935,7 +5937,7 @@
         <v>817</v>
       </c>
       <c r="C181">
-        <f t="array" ref="C181">SUM(IF(Connections!A181:B2155=Authors!A181, 1, 0))+1</f>
+        <f t="array" ref="C181">SUM(IF(Connections!$A$2:$B$1976=Authors!A181, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D181">
@@ -5950,7 +5952,7 @@
         <v>181</v>
       </c>
       <c r="C182">
-        <f t="array" ref="C182">SUM(IF(Connections!A182:B2156=Authors!A182, 1, 0))+1</f>
+        <f t="array" ref="C182">SUM(IF(Connections!$A$2:$B$1976=Authors!A182, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D182">
@@ -5965,7 +5967,7 @@
         <v>182</v>
       </c>
       <c r="C183">
-        <f t="array" ref="C183">SUM(IF(Connections!A183:B2157=Authors!A183, 1, 0))+1</f>
+        <f t="array" ref="C183">SUM(IF(Connections!$A$2:$B$1976=Authors!A183, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D183">
@@ -5980,7 +5982,7 @@
         <v>532</v>
       </c>
       <c r="C184">
-        <f t="array" ref="C184">SUM(IF(Connections!A184:B2158=Authors!A184, 1, 0))+1</f>
+        <f t="array" ref="C184">SUM(IF(Connections!$A$2:$B$1976=Authors!A184, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D184">
@@ -5995,8 +5997,8 @@
         <v>270</v>
       </c>
       <c r="C185">
-        <f t="array" ref="C185">SUM(IF(Connections!A185:B2159=Authors!A185, 1, 0))+1</f>
-        <v>8</v>
+        <f t="array" ref="C185">SUM(IF(Connections!$A$2:$B$1976=Authors!A185, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -6010,7 +6012,7 @@
         <v>183</v>
       </c>
       <c r="C186">
-        <f t="array" ref="C186">SUM(IF(Connections!A186:B2160=Authors!A186, 1, 0))+1</f>
+        <f t="array" ref="C186">SUM(IF(Connections!$A$2:$B$1976=Authors!A186, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D186">
@@ -6025,7 +6027,7 @@
         <v>184</v>
       </c>
       <c r="C187">
-        <f t="array" ref="C187">SUM(IF(Connections!A187:B2161=Authors!A187, 1, 0))+1</f>
+        <f t="array" ref="C187">SUM(IF(Connections!$A$2:$B$1976=Authors!A187, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D187">
@@ -6040,7 +6042,7 @@
         <v>185</v>
       </c>
       <c r="C188">
-        <f t="array" ref="C188">SUM(IF(Connections!A188:B2162=Authors!A188, 1, 0))+1</f>
+        <f t="array" ref="C188">SUM(IF(Connections!$A$2:$B$1976=Authors!A188, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D188">
@@ -6055,7 +6057,7 @@
         <v>186</v>
       </c>
       <c r="C189">
-        <f t="array" ref="C189">SUM(IF(Connections!A189:B2163=Authors!A189, 1, 0))+1</f>
+        <f t="array" ref="C189">SUM(IF(Connections!$A$2:$B$1976=Authors!A189, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D189">
@@ -6070,8 +6072,8 @@
         <v>187</v>
       </c>
       <c r="C190">
-        <f t="array" ref="C190">SUM(IF(Connections!A190:B2164=Authors!A190, 1, 0))+1</f>
-        <v>4</v>
+        <f t="array" ref="C190">SUM(IF(Connections!$A$2:$B$1976=Authors!A190, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -6085,7 +6087,7 @@
         <v>188</v>
       </c>
       <c r="C191">
-        <f t="array" ref="C191">SUM(IF(Connections!A191:B2165=Authors!A191, 1, 0))+1</f>
+        <f t="array" ref="C191">SUM(IF(Connections!$A$2:$B$1976=Authors!A191, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D191">
@@ -6100,7 +6102,7 @@
         <v>839</v>
       </c>
       <c r="C192">
-        <f t="array" ref="C192">SUM(IF(Connections!A192:B2166=Authors!A192, 1, 0))+1</f>
+        <f t="array" ref="C192">SUM(IF(Connections!$A$2:$B$1976=Authors!A192, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D192">
@@ -6115,7 +6117,7 @@
         <v>189</v>
       </c>
       <c r="C193">
-        <f t="array" ref="C193">SUM(IF(Connections!A193:B2167=Authors!A193, 1, 0))+1</f>
+        <f t="array" ref="C193">SUM(IF(Connections!$A$2:$B$1976=Authors!A193, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D193">
@@ -6130,7 +6132,7 @@
         <v>819</v>
       </c>
       <c r="C194">
-        <f t="array" ref="C194">SUM(IF(Connections!A194:B2168=Authors!A194, 1, 0))+1</f>
+        <f t="array" ref="C194">SUM(IF(Connections!$A$2:$B$1976=Authors!A194, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D194">
@@ -6145,7 +6147,7 @@
         <v>191</v>
       </c>
       <c r="C195">
-        <f t="array" ref="C195">SUM(IF(Connections!A195:B2169=Authors!A195, 1, 0))+1</f>
+        <f t="array" ref="C195">SUM(IF(Connections!$A$2:$B$1976=Authors!A195, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D195">
@@ -6160,7 +6162,7 @@
         <v>193</v>
       </c>
       <c r="C196">
-        <f t="array" ref="C196">SUM(IF(Connections!A196:B2170=Authors!A196, 1, 0))+1</f>
+        <f t="array" ref="C196">SUM(IF(Connections!$A$2:$B$1976=Authors!A196, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D196">
@@ -6175,7 +6177,7 @@
         <v>194</v>
       </c>
       <c r="C197">
-        <f t="array" ref="C197">SUM(IF(Connections!A197:B2171=Authors!A197, 1, 0))+1</f>
+        <f t="array" ref="C197">SUM(IF(Connections!$A$2:$B$1976=Authors!A197, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D197">
@@ -6190,7 +6192,7 @@
         <v>351</v>
       </c>
       <c r="C198">
-        <f t="array" ref="C198">SUM(IF(Connections!A198:B2172=Authors!A198, 1, 0))+1</f>
+        <f t="array" ref="C198">SUM(IF(Connections!$A$2:$B$1976=Authors!A198, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D198">
@@ -6205,7 +6207,7 @@
         <v>196</v>
       </c>
       <c r="C199">
-        <f t="array" ref="C199">SUM(IF(Connections!A199:B2173=Authors!A199, 1, 0))+1</f>
+        <f t="array" ref="C199">SUM(IF(Connections!$A$2:$B$1976=Authors!A199, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D199">
@@ -6220,8 +6222,8 @@
         <v>197</v>
       </c>
       <c r="C200">
-        <f t="array" ref="C200">SUM(IF(Connections!A200:B2174=Authors!A200, 1, 0))+1</f>
-        <v>17</v>
+        <f t="array" ref="C200">SUM(IF(Connections!$A$2:$B$1976=Authors!A200, 1, 0))+1</f>
+        <v>18</v>
       </c>
       <c r="D200">
         <v>1</v>
@@ -6235,7 +6237,7 @@
         <v>198</v>
       </c>
       <c r="C201">
-        <f t="array" ref="C201">SUM(IF(Connections!A201:B2175=Authors!A201, 1, 0))+1</f>
+        <f t="array" ref="C201">SUM(IF(Connections!$A$2:$B$1976=Authors!A201, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D201">
@@ -6250,7 +6252,7 @@
         <v>199</v>
       </c>
       <c r="C202">
-        <f t="array" ref="C202">SUM(IF(Connections!A202:B2176=Authors!A202, 1, 0))+1</f>
+        <f t="array" ref="C202">SUM(IF(Connections!$A$2:$B$1976=Authors!A202, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D202">
@@ -6265,7 +6267,7 @@
         <v>416</v>
       </c>
       <c r="C203">
-        <f t="array" ref="C203">SUM(IF(Connections!A203:B2177=Authors!A203, 1, 0))+1</f>
+        <f t="array" ref="C203">SUM(IF(Connections!$A$2:$B$1976=Authors!A203, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D203">
@@ -6280,7 +6282,7 @@
         <v>241</v>
       </c>
       <c r="C204">
-        <f t="array" ref="C204">SUM(IF(Connections!A204:B2178=Authors!A204, 1, 0))+1</f>
+        <f t="array" ref="C204">SUM(IF(Connections!$A$2:$B$1976=Authors!A204, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D204">
@@ -6295,7 +6297,7 @@
         <v>201</v>
       </c>
       <c r="C205">
-        <f t="array" ref="C205">SUM(IF(Connections!A205:B2179=Authors!A205, 1, 0))+1</f>
+        <f t="array" ref="C205">SUM(IF(Connections!$A$2:$B$1976=Authors!A205, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D205">
@@ -6310,8 +6312,8 @@
         <v>202</v>
       </c>
       <c r="C206">
-        <f t="array" ref="C206">SUM(IF(Connections!A206:B2180=Authors!A206, 1, 0))+1</f>
-        <v>8</v>
+        <f t="array" ref="C206">SUM(IF(Connections!$A$2:$B$1976=Authors!A206, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -6325,7 +6327,7 @@
         <v>203</v>
       </c>
       <c r="C207">
-        <f t="array" ref="C207">SUM(IF(Connections!A207:B2181=Authors!A207, 1, 0))+1</f>
+        <f t="array" ref="C207">SUM(IF(Connections!$A$2:$B$1976=Authors!A207, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D207">
@@ -6340,7 +6342,7 @@
         <v>204</v>
       </c>
       <c r="C208">
-        <f t="array" ref="C208">SUM(IF(Connections!A208:B2182=Authors!A208, 1, 0))+1</f>
+        <f t="array" ref="C208">SUM(IF(Connections!$A$2:$B$1976=Authors!A208, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D208">
@@ -6355,7 +6357,7 @@
         <v>205</v>
       </c>
       <c r="C209">
-        <f t="array" ref="C209">SUM(IF(Connections!A209:B2183=Authors!A209, 1, 0))+1</f>
+        <f t="array" ref="C209">SUM(IF(Connections!$A$2:$B$1976=Authors!A209, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D209">
@@ -6370,7 +6372,7 @@
         <v>539</v>
       </c>
       <c r="C210">
-        <f t="array" ref="C210">SUM(IF(Connections!A210:B2184=Authors!A210, 1, 0))+1</f>
+        <f t="array" ref="C210">SUM(IF(Connections!$A$2:$B$1976=Authors!A210, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D210">
@@ -6385,8 +6387,8 @@
         <v>822</v>
       </c>
       <c r="C211">
-        <f t="array" ref="C211">SUM(IF(Connections!A211:B2185=Authors!A211, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C211">SUM(IF(Connections!$A$2:$B$1976=Authors!A211, 1, 0))+1</f>
+        <v>2</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -6400,7 +6402,7 @@
         <v>278</v>
       </c>
       <c r="C212">
-        <f t="array" ref="C212">SUM(IF(Connections!A212:B2186=Authors!A212, 1, 0))+1</f>
+        <f t="array" ref="C212">SUM(IF(Connections!$A$2:$B$1976=Authors!A212, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D212">
@@ -6415,7 +6417,7 @@
         <v>210</v>
       </c>
       <c r="C213">
-        <f t="array" ref="C213">SUM(IF(Connections!A213:B2187=Authors!A213, 1, 0))+1</f>
+        <f t="array" ref="C213">SUM(IF(Connections!$A$2:$B$1976=Authors!A213, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D213">
@@ -6430,7 +6432,7 @@
         <v>211</v>
       </c>
       <c r="C214">
-        <f t="array" ref="C214">SUM(IF(Connections!A214:B2188=Authors!A214, 1, 0))+1</f>
+        <f t="array" ref="C214">SUM(IF(Connections!$A$2:$B$1976=Authors!A214, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D214">
@@ -6445,7 +6447,7 @@
         <v>453</v>
       </c>
       <c r="C215">
-        <f t="array" ref="C215">SUM(IF(Connections!A215:B2189=Authors!A215, 1, 0))+1</f>
+        <f t="array" ref="C215">SUM(IF(Connections!$A$2:$B$1976=Authors!A215, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D215">
@@ -6460,7 +6462,7 @@
         <v>213</v>
       </c>
       <c r="C216">
-        <f t="array" ref="C216">SUM(IF(Connections!A216:B2190=Authors!A216, 1, 0))+1</f>
+        <f t="array" ref="C216">SUM(IF(Connections!$A$2:$B$1976=Authors!A216, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D216">
@@ -6475,7 +6477,7 @@
         <v>214</v>
       </c>
       <c r="C217">
-        <f t="array" ref="C217">SUM(IF(Connections!A217:B2191=Authors!A217, 1, 0))+1</f>
+        <f t="array" ref="C217">SUM(IF(Connections!$A$2:$B$1976=Authors!A217, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D217">
@@ -6490,8 +6492,8 @@
         <v>215</v>
       </c>
       <c r="C218">
-        <f t="array" ref="C218">SUM(IF(Connections!A218:B2192=Authors!A218, 1, 0))+1</f>
-        <v>4</v>
+        <f t="array" ref="C218">SUM(IF(Connections!$A$2:$B$1976=Authors!A218, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -6505,8 +6507,8 @@
         <v>216</v>
       </c>
       <c r="C219">
-        <f t="array" ref="C219">SUM(IF(Connections!A219:B2193=Authors!A219, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C219">SUM(IF(Connections!$A$2:$B$1976=Authors!A219, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -6520,8 +6522,8 @@
         <v>217</v>
       </c>
       <c r="C220">
-        <f t="array" ref="C220">SUM(IF(Connections!A220:B2194=Authors!A220, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C220">SUM(IF(Connections!$A$2:$B$1976=Authors!A220, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -6535,8 +6537,8 @@
         <v>31</v>
       </c>
       <c r="C221">
-        <f t="array" ref="C221">SUM(IF(Connections!A221:B2195=Authors!A221, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C221">SUM(IF(Connections!$A$2:$B$1976=Authors!A221, 1, 0))+1</f>
+        <v>7</v>
       </c>
       <c r="D221">
         <v>1</v>
@@ -6550,7 +6552,7 @@
         <v>220</v>
       </c>
       <c r="C222">
-        <f t="array" ref="C222">SUM(IF(Connections!A222:B2196=Authors!A222, 1, 0))+1</f>
+        <f t="array" ref="C222">SUM(IF(Connections!$A$2:$B$1976=Authors!A222, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D222">
@@ -6565,7 +6567,7 @@
         <v>635</v>
       </c>
       <c r="C223">
-        <f t="array" ref="C223">SUM(IF(Connections!A223:B2197=Authors!A223, 1, 0))+1</f>
+        <f t="array" ref="C223">SUM(IF(Connections!$A$2:$B$1976=Authors!A223, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D223">
@@ -6580,7 +6582,7 @@
         <v>221</v>
       </c>
       <c r="C224">
-        <f t="array" ref="C224">SUM(IF(Connections!A224:B2198=Authors!A224, 1, 0))+1</f>
+        <f t="array" ref="C224">SUM(IF(Connections!$A$2:$B$1976=Authors!A224, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D224">
@@ -6595,7 +6597,7 @@
         <v>222</v>
       </c>
       <c r="C225">
-        <f t="array" ref="C225">SUM(IF(Connections!A225:B2199=Authors!A225, 1, 0))+1</f>
+        <f t="array" ref="C225">SUM(IF(Connections!$A$2:$B$1976=Authors!A225, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D225">
@@ -6610,7 +6612,7 @@
         <v>655</v>
       </c>
       <c r="C226">
-        <f t="array" ref="C226">SUM(IF(Connections!A226:B2200=Authors!A226, 1, 0))+1</f>
+        <f t="array" ref="C226">SUM(IF(Connections!$A$2:$B$1976=Authors!A226, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D226">
@@ -6625,7 +6627,7 @@
         <v>224</v>
       </c>
       <c r="C227">
-        <f t="array" ref="C227">SUM(IF(Connections!A227:B2201=Authors!A227, 1, 0))+1</f>
+        <f t="array" ref="C227">SUM(IF(Connections!$A$2:$B$1976=Authors!A227, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D227">
@@ -6640,8 +6642,8 @@
         <v>225</v>
       </c>
       <c r="C228">
-        <f t="array" ref="C228">SUM(IF(Connections!A228:B2202=Authors!A228, 1, 0))+1</f>
-        <v>15</v>
+        <f t="array" ref="C228">SUM(IF(Connections!$A$2:$B$1976=Authors!A228, 1, 0))+1</f>
+        <v>16</v>
       </c>
       <c r="D228">
         <v>1</v>
@@ -6655,7 +6657,7 @@
         <v>226</v>
       </c>
       <c r="C229">
-        <f t="array" ref="C229">SUM(IF(Connections!A229:B2203=Authors!A229, 1, 0))+1</f>
+        <f t="array" ref="C229">SUM(IF(Connections!$A$2:$B$1976=Authors!A229, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D229">
@@ -6670,7 +6672,7 @@
         <v>227</v>
       </c>
       <c r="C230">
-        <f t="array" ref="C230">SUM(IF(Connections!A230:B2204=Authors!A230, 1, 0))+1</f>
+        <f t="array" ref="C230">SUM(IF(Connections!$A$2:$B$1976=Authors!A230, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D230">
@@ -6685,7 +6687,7 @@
         <v>228</v>
       </c>
       <c r="C231">
-        <f t="array" ref="C231">SUM(IF(Connections!A231:B2205=Authors!A231, 1, 0))+1</f>
+        <f t="array" ref="C231">SUM(IF(Connections!$A$2:$B$1976=Authors!A231, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D231">
@@ -6700,7 +6702,7 @@
         <v>229</v>
       </c>
       <c r="C232">
-        <f t="array" ref="C232">SUM(IF(Connections!A232:B2206=Authors!A232, 1, 0))+1</f>
+        <f t="array" ref="C232">SUM(IF(Connections!$A$2:$B$1976=Authors!A232, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D232">
@@ -6715,7 +6717,7 @@
         <v>826</v>
       </c>
       <c r="C233">
-        <f t="array" ref="C233">SUM(IF(Connections!A233:B2207=Authors!A233, 1, 0))+1</f>
+        <f t="array" ref="C233">SUM(IF(Connections!$A$2:$B$1976=Authors!A233, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D233">
@@ -6730,7 +6732,7 @@
         <v>559</v>
       </c>
       <c r="C234">
-        <f t="array" ref="C234">SUM(IF(Connections!A234:B2208=Authors!A234, 1, 0))+1</f>
+        <f t="array" ref="C234">SUM(IF(Connections!$A$2:$B$1976=Authors!A234, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D234">
@@ -6745,7 +6747,7 @@
         <v>232</v>
       </c>
       <c r="C235">
-        <f t="array" ref="C235">SUM(IF(Connections!A235:B2209=Authors!A235, 1, 0))+1</f>
+        <f t="array" ref="C235">SUM(IF(Connections!$A$2:$B$1976=Authors!A235, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D235">
@@ -6760,7 +6762,7 @@
         <v>233</v>
       </c>
       <c r="C236">
-        <f t="array" ref="C236">SUM(IF(Connections!A236:B2210=Authors!A236, 1, 0))+1</f>
+        <f t="array" ref="C236">SUM(IF(Connections!$A$2:$B$1976=Authors!A236, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D236">
@@ -6775,7 +6777,7 @@
         <v>824</v>
       </c>
       <c r="C237">
-        <f t="array" ref="C237">SUM(IF(Connections!A237:B2211=Authors!A237, 1, 0))+1</f>
+        <f t="array" ref="C237">SUM(IF(Connections!$A$2:$B$1976=Authors!A237, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D237">
@@ -6790,7 +6792,7 @@
         <v>234</v>
       </c>
       <c r="C238">
-        <f t="array" ref="C238">SUM(IF(Connections!A238:B2212=Authors!A238, 1, 0))+1</f>
+        <f t="array" ref="C238">SUM(IF(Connections!$A$2:$B$1976=Authors!A238, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D238">
@@ -6805,8 +6807,8 @@
         <v>827</v>
       </c>
       <c r="C239">
-        <f t="array" ref="C239">SUM(IF(Connections!A239:B2213=Authors!A239, 1, 0))+1</f>
-        <v>6</v>
+        <f t="array" ref="C239">SUM(IF(Connections!$A$2:$B$1976=Authors!A239, 1, 0))+1</f>
+        <v>8</v>
       </c>
       <c r="D239">
         <v>1</v>
@@ -6820,7 +6822,7 @@
         <v>236</v>
       </c>
       <c r="C240">
-        <f t="array" ref="C240">SUM(IF(Connections!A240:B2214=Authors!A240, 1, 0))+1</f>
+        <f t="array" ref="C240">SUM(IF(Connections!$A$2:$B$1976=Authors!A240, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D240">
@@ -6835,7 +6837,7 @@
         <v>498</v>
       </c>
       <c r="C241">
-        <f t="array" ref="C241">SUM(IF(Connections!A241:B2215=Authors!A241, 1, 0))+1</f>
+        <f t="array" ref="C241">SUM(IF(Connections!$A$2:$B$1976=Authors!A241, 1, 0))+1</f>
         <v>11</v>
       </c>
       <c r="D241">
@@ -6850,7 +6852,7 @@
         <v>238</v>
       </c>
       <c r="C242">
-        <f t="array" ref="C242">SUM(IF(Connections!A242:B2216=Authors!A242, 1, 0))+1</f>
+        <f t="array" ref="C242">SUM(IF(Connections!$A$2:$B$1976=Authors!A242, 1, 0))+1</f>
         <v>7</v>
       </c>
       <c r="D242">
@@ -6865,8 +6867,8 @@
         <v>239</v>
       </c>
       <c r="C243">
-        <f t="array" ref="C243">SUM(IF(Connections!A243:B2217=Authors!A243, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C243">SUM(IF(Connections!$A$2:$B$1976=Authors!A243, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D243">
         <v>1</v>
@@ -6880,7 +6882,7 @@
         <v>240</v>
       </c>
       <c r="C244">
-        <f t="array" ref="C244">SUM(IF(Connections!A244:B2218=Authors!A244, 1, 0))+1</f>
+        <f t="array" ref="C244">SUM(IF(Connections!$A$2:$B$1976=Authors!A244, 1, 0))+1</f>
         <v>8</v>
       </c>
       <c r="D244">
@@ -6895,7 +6897,7 @@
         <v>242</v>
       </c>
       <c r="C245">
-        <f t="array" ref="C245">SUM(IF(Connections!A245:B2219=Authors!A245, 1, 0))+1</f>
+        <f t="array" ref="C245">SUM(IF(Connections!$A$2:$B$1976=Authors!A245, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D245">
@@ -6910,7 +6912,7 @@
         <v>407</v>
       </c>
       <c r="C246">
-        <f t="array" ref="C246">SUM(IF(Connections!A246:B2220=Authors!A246, 1, 0))+1</f>
+        <f t="array" ref="C246">SUM(IF(Connections!$A$2:$B$1976=Authors!A246, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D246">
@@ -6925,8 +6927,8 @@
         <v>243</v>
       </c>
       <c r="C247">
-        <f t="array" ref="C247">SUM(IF(Connections!A247:B2221=Authors!A247, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C247">SUM(IF(Connections!$A$2:$B$1976=Authors!A247, 1, 0))+1</f>
+        <v>6</v>
       </c>
       <c r="D247">
         <v>1</v>
@@ -6940,7 +6942,7 @@
         <v>244</v>
       </c>
       <c r="C248">
-        <f t="array" ref="C248">SUM(IF(Connections!A248:B2222=Authors!A248, 1, 0))+1</f>
+        <f t="array" ref="C248">SUM(IF(Connections!$A$2:$B$1976=Authors!A248, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D248">
@@ -6955,8 +6957,8 @@
         <v>245</v>
       </c>
       <c r="C249">
-        <f t="array" ref="C249">SUM(IF(Connections!A249:B2223=Authors!A249, 1, 0))+1</f>
-        <v>16</v>
+        <f t="array" ref="C249">SUM(IF(Connections!$A$2:$B$1976=Authors!A249, 1, 0))+1</f>
+        <v>18</v>
       </c>
       <c r="D249">
         <v>1</v>
@@ -6970,7 +6972,7 @@
         <v>246</v>
       </c>
       <c r="C250">
-        <f t="array" ref="C250">SUM(IF(Connections!A250:B2224=Authors!A250, 1, 0))+1</f>
+        <f t="array" ref="C250">SUM(IF(Connections!$A$2:$B$1976=Authors!A250, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D250">
@@ -6985,8 +6987,8 @@
         <v>43</v>
       </c>
       <c r="C251">
-        <f t="array" ref="C251">SUM(IF(Connections!A251:B2225=Authors!A251, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C251">SUM(IF(Connections!$A$2:$B$1976=Authors!A251, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D251">
         <v>1</v>
@@ -7000,8 +7002,8 @@
         <v>249</v>
       </c>
       <c r="C252">
-        <f t="array" ref="C252">SUM(IF(Connections!A252:B2226=Authors!A252, 1, 0))+1</f>
-        <v>8</v>
+        <f t="array" ref="C252">SUM(IF(Connections!$A$2:$B$1976=Authors!A252, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D252">
         <v>1</v>
@@ -7015,7 +7017,7 @@
         <v>250</v>
       </c>
       <c r="C253">
-        <f t="array" ref="C253">SUM(IF(Connections!A253:B2227=Authors!A253, 1, 0))+1</f>
+        <f t="array" ref="C253">SUM(IF(Connections!$A$2:$B$1976=Authors!A253, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D253">
@@ -7030,7 +7032,7 @@
         <v>251</v>
       </c>
       <c r="C254">
-        <f t="array" ref="C254">SUM(IF(Connections!A254:B2228=Authors!A254, 1, 0))+1</f>
+        <f t="array" ref="C254">SUM(IF(Connections!$A$2:$B$1976=Authors!A254, 1, 0))+1</f>
         <v>9</v>
       </c>
       <c r="D254">
@@ -7045,7 +7047,7 @@
         <v>252</v>
       </c>
       <c r="C255">
-        <f t="array" ref="C255">SUM(IF(Connections!A255:B2229=Authors!A255, 1, 0))+1</f>
+        <f t="array" ref="C255">SUM(IF(Connections!$A$2:$B$1976=Authors!A255, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D255">
@@ -7060,8 +7062,8 @@
         <v>253</v>
       </c>
       <c r="C256">
-        <f t="array" ref="C256">SUM(IF(Connections!A256:B2230=Authors!A256, 1, 0))+1</f>
-        <v>4</v>
+        <f t="array" ref="C256">SUM(IF(Connections!$A$2:$B$1976=Authors!A256, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D256">
         <v>1</v>
@@ -7075,8 +7077,8 @@
         <v>254</v>
       </c>
       <c r="C257">
-        <f t="array" ref="C257">SUM(IF(Connections!A257:B2231=Authors!A257, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C257">SUM(IF(Connections!$A$2:$B$1976=Authors!A257, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D257">
         <v>1</v>
@@ -7090,8 +7092,8 @@
         <v>255</v>
       </c>
       <c r="C258">
-        <f t="array" ref="C258">SUM(IF(Connections!A258:B2232=Authors!A258, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C258">SUM(IF(Connections!$A$2:$B$1976=Authors!A258, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D258">
         <v>1</v>
@@ -7105,8 +7107,8 @@
         <v>660</v>
       </c>
       <c r="C259">
-        <f t="array" ref="C259">SUM(IF(Connections!A259:B2233=Authors!A259, 1, 0))+1</f>
-        <v>6</v>
+        <f t="array" ref="C259">SUM(IF(Connections!$A$2:$B$1976=Authors!A259, 1, 0))+1</f>
+        <v>7</v>
       </c>
       <c r="D259">
         <v>1</v>
@@ -7120,8 +7122,8 @@
         <v>257</v>
       </c>
       <c r="C260">
-        <f t="array" ref="C260">SUM(IF(Connections!A260:B2234=Authors!A260, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C260">SUM(IF(Connections!$A$2:$B$1976=Authors!A260, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D260">
         <v>1</v>
@@ -7135,7 +7137,7 @@
         <v>258</v>
       </c>
       <c r="C261">
-        <f t="array" ref="C261">SUM(IF(Connections!A261:B2235=Authors!A261, 1, 0))+1</f>
+        <f t="array" ref="C261">SUM(IF(Connections!$A$2:$B$1976=Authors!A261, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D261">
@@ -7150,8 +7152,8 @@
         <v>259</v>
       </c>
       <c r="C262">
-        <f t="array" ref="C262">SUM(IF(Connections!A262:B2236=Authors!A262, 1, 0))+1</f>
-        <v>11</v>
+        <f t="array" ref="C262">SUM(IF(Connections!$A$2:$B$1976=Authors!A262, 1, 0))+1</f>
+        <v>12</v>
       </c>
       <c r="D262">
         <v>1</v>
@@ -7165,8 +7167,8 @@
         <v>260</v>
       </c>
       <c r="C263">
-        <f t="array" ref="C263">SUM(IF(Connections!A263:B2237=Authors!A263, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C263">SUM(IF(Connections!$A$2:$B$1976=Authors!A263, 1, 0))+1</f>
+        <v>2</v>
       </c>
       <c r="D263">
         <v>1</v>
@@ -7180,8 +7182,8 @@
         <v>261</v>
       </c>
       <c r="C264">
-        <f t="array" ref="C264">SUM(IF(Connections!A264:B2238=Authors!A264, 1, 0))+1</f>
-        <v>16</v>
+        <f t="array" ref="C264">SUM(IF(Connections!$A$2:$B$1976=Authors!A264, 1, 0))+1</f>
+        <v>18</v>
       </c>
       <c r="D264">
         <v>1</v>
@@ -7195,7 +7197,7 @@
         <v>263</v>
       </c>
       <c r="C265">
-        <f t="array" ref="C265">SUM(IF(Connections!A265:B2239=Authors!A265, 1, 0))+1</f>
+        <f t="array" ref="C265">SUM(IF(Connections!$A$2:$B$1976=Authors!A265, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D265">
@@ -7210,7 +7212,7 @@
         <v>206</v>
       </c>
       <c r="C266">
-        <f t="array" ref="C266">SUM(IF(Connections!A266:B2240=Authors!A266, 1, 0))+1</f>
+        <f t="array" ref="C266">SUM(IF(Connections!$A$2:$B$1976=Authors!A266, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D266">
@@ -7225,7 +7227,7 @@
         <v>265</v>
       </c>
       <c r="C267">
-        <f t="array" ref="C267">SUM(IF(Connections!A267:B2241=Authors!A267, 1, 0))+1</f>
+        <f t="array" ref="C267">SUM(IF(Connections!$A$2:$B$1976=Authors!A267, 1, 0))+1</f>
         <v>8</v>
       </c>
       <c r="D267">
@@ -7240,7 +7242,7 @@
         <v>266</v>
       </c>
       <c r="C268">
-        <f t="array" ref="C268">SUM(IF(Connections!A268:B2242=Authors!A268, 1, 0))+1</f>
+        <f t="array" ref="C268">SUM(IF(Connections!$A$2:$B$1976=Authors!A268, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D268">
@@ -7255,7 +7257,7 @@
         <v>267</v>
       </c>
       <c r="C269">
-        <f t="array" ref="C269">SUM(IF(Connections!A269:B2243=Authors!A269, 1, 0))+1</f>
+        <f t="array" ref="C269">SUM(IF(Connections!$A$2:$B$1976=Authors!A269, 1, 0))+1</f>
         <v>8</v>
       </c>
       <c r="D269">
@@ -7270,7 +7272,7 @@
         <v>268</v>
       </c>
       <c r="C270">
-        <f t="array" ref="C270">SUM(IF(Connections!A270:B2244=Authors!A270, 1, 0))+1</f>
+        <f t="array" ref="C270">SUM(IF(Connections!$A$2:$B$1976=Authors!A270, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D270">
@@ -7285,7 +7287,7 @@
         <v>269</v>
       </c>
       <c r="C271">
-        <f t="array" ref="C271">SUM(IF(Connections!A271:B2245=Authors!A271, 1, 0))+1</f>
+        <f t="array" ref="C271">SUM(IF(Connections!$A$2:$B$1976=Authors!A271, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D271">
@@ -7300,7 +7302,7 @@
         <v>207</v>
       </c>
       <c r="C272">
-        <f t="array" ref="C272">SUM(IF(Connections!A272:B2246=Authors!A272, 1, 0))+1</f>
+        <f t="array" ref="C272">SUM(IF(Connections!$A$2:$B$1976=Authors!A272, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D272">
@@ -7315,8 +7317,8 @@
         <v>273</v>
       </c>
       <c r="C273">
-        <f t="array" ref="C273">SUM(IF(Connections!A273:B2247=Authors!A273, 1, 0))+1</f>
-        <v>12</v>
+        <f t="array" ref="C273">SUM(IF(Connections!$A$2:$B$1976=Authors!A273, 1, 0))+1</f>
+        <v>13</v>
       </c>
       <c r="D273">
         <v>1</v>
@@ -7330,7 +7332,7 @@
         <v>274</v>
       </c>
       <c r="C274">
-        <f t="array" ref="C274">SUM(IF(Connections!A274:B2248=Authors!A274, 1, 0))+1</f>
+        <f t="array" ref="C274">SUM(IF(Connections!$A$2:$B$1976=Authors!A274, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D274">
@@ -7345,7 +7347,7 @@
         <v>275</v>
       </c>
       <c r="C275">
-        <f t="array" ref="C275">SUM(IF(Connections!A275:B2249=Authors!A275, 1, 0))+1</f>
+        <f t="array" ref="C275">SUM(IF(Connections!$A$2:$B$1976=Authors!A275, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D275">
@@ -7360,8 +7362,8 @@
         <v>276</v>
       </c>
       <c r="C276">
-        <f t="array" ref="C276">SUM(IF(Connections!A276:B2250=Authors!A276, 1, 0))+1</f>
-        <v>6</v>
+        <f t="array" ref="C276">SUM(IF(Connections!$A$2:$B$1976=Authors!A276, 1, 0))+1</f>
+        <v>8</v>
       </c>
       <c r="D276">
         <v>1</v>
@@ -7375,7 +7377,7 @@
         <v>277</v>
       </c>
       <c r="C277">
-        <f t="array" ref="C277">SUM(IF(Connections!A277:B2251=Authors!A277, 1, 0))+1</f>
+        <f t="array" ref="C277">SUM(IF(Connections!$A$2:$B$1976=Authors!A277, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D277">
@@ -7390,7 +7392,7 @@
         <v>209</v>
       </c>
       <c r="C278">
-        <f t="array" ref="C278">SUM(IF(Connections!A278:B2252=Authors!A278, 1, 0))+1</f>
+        <f t="array" ref="C278">SUM(IF(Connections!$A$2:$B$1976=Authors!A278, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D278">
@@ -7405,8 +7407,8 @@
         <v>279</v>
       </c>
       <c r="C279">
-        <f t="array" ref="C279">SUM(IF(Connections!A279:B2253=Authors!A279, 1, 0))+1</f>
-        <v>13</v>
+        <f t="array" ref="C279">SUM(IF(Connections!$A$2:$B$1976=Authors!A279, 1, 0))+1</f>
+        <v>14</v>
       </c>
       <c r="D279">
         <v>1</v>
@@ -7420,7 +7422,7 @@
         <v>280</v>
       </c>
       <c r="C280">
-        <f t="array" ref="C280">SUM(IF(Connections!A280:B2254=Authors!A280, 1, 0))+1</f>
+        <f t="array" ref="C280">SUM(IF(Connections!$A$2:$B$1976=Authors!A280, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D280">
@@ -7435,7 +7437,7 @@
         <v>281</v>
       </c>
       <c r="C281">
-        <f t="array" ref="C281">SUM(IF(Connections!A281:B2255=Authors!A281, 1, 0))+1</f>
+        <f t="array" ref="C281">SUM(IF(Connections!$A$2:$B$1976=Authors!A281, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D281">
@@ -7450,8 +7452,8 @@
         <v>282</v>
       </c>
       <c r="C282">
-        <f t="array" ref="C282">SUM(IF(Connections!A282:B2256=Authors!A282, 1, 0))+1</f>
-        <v>6</v>
+        <f t="array" ref="C282">SUM(IF(Connections!$A$2:$B$1976=Authors!A282, 1, 0))+1</f>
+        <v>7</v>
       </c>
       <c r="D282">
         <v>1</v>
@@ -7465,7 +7467,7 @@
         <v>283</v>
       </c>
       <c r="C283">
-        <f t="array" ref="C283">SUM(IF(Connections!A283:B2257=Authors!A283, 1, 0))+1</f>
+        <f t="array" ref="C283">SUM(IF(Connections!$A$2:$B$1976=Authors!A283, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D283">
@@ -7480,7 +7482,7 @@
         <v>284</v>
       </c>
       <c r="C284">
-        <f t="array" ref="C284">SUM(IF(Connections!A284:B2258=Authors!A284, 1, 0))+1</f>
+        <f t="array" ref="C284">SUM(IF(Connections!$A$2:$B$1976=Authors!A284, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D284">
@@ -7495,7 +7497,7 @@
         <v>310</v>
       </c>
       <c r="C285">
-        <f t="array" ref="C285">SUM(IF(Connections!A285:B2259=Authors!A285, 1, 0))+1</f>
+        <f t="array" ref="C285">SUM(IF(Connections!$A$2:$B$1976=Authors!A285, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D285">
@@ -7510,7 +7512,7 @@
         <v>286</v>
       </c>
       <c r="C286">
-        <f t="array" ref="C286">SUM(IF(Connections!A286:B2260=Authors!A286, 1, 0))+1</f>
+        <f t="array" ref="C286">SUM(IF(Connections!$A$2:$B$1976=Authors!A286, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D286">
@@ -7525,7 +7527,7 @@
         <v>637</v>
       </c>
       <c r="C287">
-        <f t="array" ref="C287">SUM(IF(Connections!A287:B2261=Authors!A287, 1, 0))+1</f>
+        <f t="array" ref="C287">SUM(IF(Connections!$A$2:$B$1976=Authors!A287, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D287">
@@ -7540,8 +7542,8 @@
         <v>287</v>
       </c>
       <c r="C288">
-        <f t="array" ref="C288">SUM(IF(Connections!A288:B2262=Authors!A288, 1, 0))+1</f>
-        <v>9</v>
+        <f t="array" ref="C288">SUM(IF(Connections!$A$2:$B$1976=Authors!A288, 1, 0))+1</f>
+        <v>10</v>
       </c>
       <c r="D288">
         <v>1</v>
@@ -7555,7 +7557,7 @@
         <v>288</v>
       </c>
       <c r="C289">
-        <f t="array" ref="C289">SUM(IF(Connections!A289:B2263=Authors!A289, 1, 0))+1</f>
+        <f t="array" ref="C289">SUM(IF(Connections!$A$2:$B$1976=Authors!A289, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D289">
@@ -7570,7 +7572,7 @@
         <v>289</v>
       </c>
       <c r="C290">
-        <f t="array" ref="C290">SUM(IF(Connections!A290:B2264=Authors!A290, 1, 0))+1</f>
+        <f t="array" ref="C290">SUM(IF(Connections!$A$2:$B$1976=Authors!A290, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D290">
@@ -7585,7 +7587,7 @@
         <v>290</v>
       </c>
       <c r="C291">
-        <f t="array" ref="C291">SUM(IF(Connections!A291:B2265=Authors!A291, 1, 0))+1</f>
+        <f t="array" ref="C291">SUM(IF(Connections!$A$2:$B$1976=Authors!A291, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D291">
@@ -7600,7 +7602,7 @@
         <v>291</v>
       </c>
       <c r="C292">
-        <f t="array" ref="C292">SUM(IF(Connections!A292:B2266=Authors!A292, 1, 0))+1</f>
+        <f t="array" ref="C292">SUM(IF(Connections!$A$2:$B$1976=Authors!A292, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D292">
@@ -7615,7 +7617,7 @@
         <v>292</v>
       </c>
       <c r="C293">
-        <f t="array" ref="C293">SUM(IF(Connections!A293:B2267=Authors!A293, 1, 0))+1</f>
+        <f t="array" ref="C293">SUM(IF(Connections!$A$2:$B$1976=Authors!A293, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D293">
@@ -7630,8 +7632,8 @@
         <v>293</v>
       </c>
       <c r="C294">
-        <f t="array" ref="C294">SUM(IF(Connections!A294:B2268=Authors!A294, 1, 0))+1</f>
-        <v>10</v>
+        <f t="array" ref="C294">SUM(IF(Connections!$A$2:$B$1976=Authors!A294, 1, 0))+1</f>
+        <v>11</v>
       </c>
       <c r="D294">
         <v>1</v>
@@ -7645,8 +7647,8 @@
         <v>294</v>
       </c>
       <c r="C295">
-        <f t="array" ref="C295">SUM(IF(Connections!A295:B2269=Authors!A295, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C295">SUM(IF(Connections!$A$2:$B$1976=Authors!A295, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D295">
         <v>1</v>
@@ -7660,7 +7662,7 @@
         <v>509</v>
       </c>
       <c r="C296">
-        <f t="array" ref="C296">SUM(IF(Connections!A296:B2270=Authors!A296, 1, 0))+1</f>
+        <f t="array" ref="C296">SUM(IF(Connections!$A$2:$B$1976=Authors!A296, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D296">
@@ -7675,7 +7677,7 @@
         <v>834</v>
       </c>
       <c r="C297">
-        <f t="array" ref="C297">SUM(IF(Connections!A297:B2271=Authors!A297, 1, 0))+1</f>
+        <f t="array" ref="C297">SUM(IF(Connections!$A$2:$B$1976=Authors!A297, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D297">
@@ -7690,8 +7692,8 @@
         <v>297</v>
       </c>
       <c r="C298">
-        <f t="array" ref="C298">SUM(IF(Connections!A298:B2272=Authors!A298, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C298">SUM(IF(Connections!$A$2:$B$1976=Authors!A298, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D298">
         <v>1</v>
@@ -7705,7 +7707,7 @@
         <v>212</v>
       </c>
       <c r="C299">
-        <f t="array" ref="C299">SUM(IF(Connections!A299:B2273=Authors!A299, 1, 0))+1</f>
+        <f t="array" ref="C299">SUM(IF(Connections!$A$2:$B$1976=Authors!A299, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D299">
@@ -7720,7 +7722,7 @@
         <v>298</v>
       </c>
       <c r="C300">
-        <f t="array" ref="C300">SUM(IF(Connections!A300:B2274=Authors!A300, 1, 0))+1</f>
+        <f t="array" ref="C300">SUM(IF(Connections!$A$2:$B$1976=Authors!A300, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D300">
@@ -7735,8 +7737,8 @@
         <v>299</v>
       </c>
       <c r="C301">
-        <f t="array" ref="C301">SUM(IF(Connections!A301:B2275=Authors!A301, 1, 0))+1</f>
-        <v>7</v>
+        <f t="array" ref="C301">SUM(IF(Connections!$A$2:$B$1976=Authors!A301, 1, 0))+1</f>
+        <v>8</v>
       </c>
       <c r="D301">
         <v>1</v>
@@ -7750,7 +7752,7 @@
         <v>300</v>
       </c>
       <c r="C302">
-        <f t="array" ref="C302">SUM(IF(Connections!A302:B2276=Authors!A302, 1, 0))+1</f>
+        <f t="array" ref="C302">SUM(IF(Connections!$A$2:$B$1976=Authors!A302, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D302">
@@ -7765,7 +7767,7 @@
         <v>301</v>
       </c>
       <c r="C303">
-        <f t="array" ref="C303">SUM(IF(Connections!A303:B2277=Authors!A303, 1, 0))+1</f>
+        <f t="array" ref="C303">SUM(IF(Connections!$A$2:$B$1976=Authors!A303, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D303">
@@ -7780,7 +7782,7 @@
         <v>687</v>
       </c>
       <c r="C304">
-        <f t="array" ref="C304">SUM(IF(Connections!A304:B2278=Authors!A304, 1, 0))+1</f>
+        <f t="array" ref="C304">SUM(IF(Connections!$A$2:$B$1976=Authors!A304, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D304">
@@ -7795,7 +7797,7 @@
         <v>303</v>
       </c>
       <c r="C305">
-        <f t="array" ref="C305">SUM(IF(Connections!A305:B2279=Authors!A305, 1, 0))+1</f>
+        <f t="array" ref="C305">SUM(IF(Connections!$A$2:$B$1976=Authors!A305, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D305">
@@ -7810,7 +7812,7 @@
         <v>304</v>
       </c>
       <c r="C306">
-        <f t="array" ref="C306">SUM(IF(Connections!A306:B2280=Authors!A306, 1, 0))+1</f>
+        <f t="array" ref="C306">SUM(IF(Connections!$A$2:$B$1976=Authors!A306, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D306">
@@ -7825,7 +7827,7 @@
         <v>305</v>
       </c>
       <c r="C307">
-        <f t="array" ref="C307">SUM(IF(Connections!A307:B2281=Authors!A307, 1, 0))+1</f>
+        <f t="array" ref="C307">SUM(IF(Connections!$A$2:$B$1976=Authors!A307, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D307">
@@ -7840,7 +7842,7 @@
         <v>306</v>
       </c>
       <c r="C308">
-        <f t="array" ref="C308">SUM(IF(Connections!A308:B2282=Authors!A308, 1, 0))+1</f>
+        <f t="array" ref="C308">SUM(IF(Connections!$A$2:$B$1976=Authors!A308, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D308">
@@ -7855,8 +7857,8 @@
         <v>307</v>
       </c>
       <c r="C309">
-        <f t="array" ref="C309">SUM(IF(Connections!A309:B2283=Authors!A309, 1, 0))+1</f>
-        <v>15</v>
+        <f t="array" ref="C309">SUM(IF(Connections!$A$2:$B$1976=Authors!A309, 1, 0))+1</f>
+        <v>16</v>
       </c>
       <c r="D309">
         <v>1</v>
@@ -7870,7 +7872,7 @@
         <v>308</v>
       </c>
       <c r="C310">
-        <f t="array" ref="C310">SUM(IF(Connections!A310:B2284=Authors!A310, 1, 0))+1</f>
+        <f t="array" ref="C310">SUM(IF(Connections!$A$2:$B$1976=Authors!A310, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D310">
@@ -7885,7 +7887,7 @@
         <v>309</v>
       </c>
       <c r="C311">
-        <f t="array" ref="C311">SUM(IF(Connections!A311:B2285=Authors!A311, 1, 0))+1</f>
+        <f t="array" ref="C311">SUM(IF(Connections!$A$2:$B$1976=Authors!A311, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D311">
@@ -7900,7 +7902,7 @@
         <v>766</v>
       </c>
       <c r="C312">
-        <f t="array" ref="C312">SUM(IF(Connections!A312:B2286=Authors!A312, 1, 0))+1</f>
+        <f t="array" ref="C312">SUM(IF(Connections!$A$2:$B$1976=Authors!A312, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D312">
@@ -7915,8 +7917,8 @@
         <v>767</v>
       </c>
       <c r="C313">
-        <f t="array" ref="C313">SUM(IF(Connections!A313:B2287=Authors!A313, 1, 0))+1</f>
-        <v>8</v>
+        <f t="array" ref="C313">SUM(IF(Connections!$A$2:$B$1976=Authors!A313, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D313">
         <v>1</v>
@@ -7930,7 +7932,7 @@
         <v>247</v>
       </c>
       <c r="C314">
-        <f t="array" ref="C314">SUM(IF(Connections!A314:B2288=Authors!A314, 1, 0))+1</f>
+        <f t="array" ref="C314">SUM(IF(Connections!$A$2:$B$1976=Authors!A314, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D314">
@@ -7945,7 +7947,7 @@
         <v>311</v>
       </c>
       <c r="C315">
-        <f t="array" ref="C315">SUM(IF(Connections!A315:B2289=Authors!A315, 1, 0))+1</f>
+        <f t="array" ref="C315">SUM(IF(Connections!$A$2:$B$1976=Authors!A315, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D315">
@@ -7960,7 +7962,7 @@
         <v>802</v>
       </c>
       <c r="C316">
-        <f t="array" ref="C316">SUM(IF(Connections!A316:B2290=Authors!A316, 1, 0))+1</f>
+        <f t="array" ref="C316">SUM(IF(Connections!$A$2:$B$1976=Authors!A316, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D316">
@@ -7975,7 +7977,7 @@
         <v>313</v>
       </c>
       <c r="C317">
-        <f t="array" ref="C317">SUM(IF(Connections!A317:B2291=Authors!A317, 1, 0))+1</f>
+        <f t="array" ref="C317">SUM(IF(Connections!$A$2:$B$1976=Authors!A317, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D317">
@@ -7990,8 +7992,8 @@
         <v>314</v>
       </c>
       <c r="C318">
-        <f t="array" ref="C318">SUM(IF(Connections!A318:B2292=Authors!A318, 1, 0))+1</f>
-        <v>11</v>
+        <f t="array" ref="C318">SUM(IF(Connections!$A$2:$B$1976=Authors!A318, 1, 0))+1</f>
+        <v>12</v>
       </c>
       <c r="D318">
         <v>1</v>
@@ -8005,8 +8007,8 @@
         <v>315</v>
       </c>
       <c r="C319">
-        <f t="array" ref="C319">SUM(IF(Connections!A319:B2293=Authors!A319, 1, 0))+1</f>
-        <v>6</v>
+        <f t="array" ref="C319">SUM(IF(Connections!$A$2:$B$1976=Authors!A319, 1, 0))+1</f>
+        <v>7</v>
       </c>
       <c r="D319">
         <v>1</v>
@@ -8020,8 +8022,8 @@
         <v>231</v>
       </c>
       <c r="C320">
-        <f t="array" ref="C320">SUM(IF(Connections!A320:B2294=Authors!A320, 1, 0))+1</f>
-        <v>8</v>
+        <f t="array" ref="C320">SUM(IF(Connections!$A$2:$B$1976=Authors!A320, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D320">
         <v>1</v>
@@ -8035,7 +8037,7 @@
         <v>317</v>
       </c>
       <c r="C321">
-        <f t="array" ref="C321">SUM(IF(Connections!A321:B2295=Authors!A321, 1, 0))+1</f>
+        <f t="array" ref="C321">SUM(IF(Connections!$A$2:$B$1976=Authors!A321, 1, 0))+1</f>
         <v>13</v>
       </c>
       <c r="D321">
@@ -8050,8 +8052,8 @@
         <v>318</v>
       </c>
       <c r="C322">
-        <f t="array" ref="C322">SUM(IF(Connections!A322:B2296=Authors!A322, 1, 0))+1</f>
-        <v>11</v>
+        <f t="array" ref="C322">SUM(IF(Connections!$A$2:$B$1976=Authors!A322, 1, 0))+1</f>
+        <v>12</v>
       </c>
       <c r="D322">
         <v>1</v>
@@ -8065,7 +8067,7 @@
         <v>319</v>
       </c>
       <c r="C323">
-        <f t="array" ref="C323">SUM(IF(Connections!A323:B2297=Authors!A323, 1, 0))+1</f>
+        <f t="array" ref="C323">SUM(IF(Connections!$A$2:$B$1976=Authors!A323, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D323">
@@ -8080,7 +8082,7 @@
         <v>430</v>
       </c>
       <c r="C324">
-        <f t="array" ref="C324">SUM(IF(Connections!A324:B2298=Authors!A324, 1, 0))+1</f>
+        <f t="array" ref="C324">SUM(IF(Connections!$A$2:$B$1976=Authors!A324, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D324">
@@ -8095,8 +8097,8 @@
         <v>856</v>
       </c>
       <c r="C325">
-        <f t="array" ref="C325">SUM(IF(Connections!A325:B2299=Authors!A325, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C325">SUM(IF(Connections!$A$2:$B$1976=Authors!A325, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D325">
         <v>1</v>
@@ -8110,7 +8112,7 @@
         <v>321</v>
       </c>
       <c r="C326">
-        <f t="array" ref="C326">SUM(IF(Connections!A326:B2300=Authors!A326, 1, 0))+1</f>
+        <f t="array" ref="C326">SUM(IF(Connections!$A$2:$B$1976=Authors!A326, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D326">
@@ -8125,7 +8127,7 @@
         <v>322</v>
       </c>
       <c r="C327">
-        <f t="array" ref="C327">SUM(IF(Connections!A327:B2301=Authors!A327, 1, 0))+1</f>
+        <f t="array" ref="C327">SUM(IF(Connections!$A$2:$B$1976=Authors!A327, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D327">
@@ -8140,7 +8142,7 @@
         <v>323</v>
       </c>
       <c r="C328">
-        <f t="array" ref="C328">SUM(IF(Connections!A328:B2302=Authors!A328, 1, 0))+1</f>
+        <f t="array" ref="C328">SUM(IF(Connections!$A$2:$B$1976=Authors!A328, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D328">
@@ -8155,8 +8157,8 @@
         <v>8</v>
       </c>
       <c r="C329">
-        <f t="array" ref="C329">SUM(IF(Connections!A329:B2303=Authors!A329, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C329">SUM(IF(Connections!$A$2:$B$1976=Authors!A329, 1, 0))+1</f>
+        <v>10</v>
       </c>
       <c r="D329">
         <v>1</v>
@@ -8170,7 +8172,7 @@
         <v>325</v>
       </c>
       <c r="C330">
-        <f t="array" ref="C330">SUM(IF(Connections!A330:B2304=Authors!A330, 1, 0))+1</f>
+        <f t="array" ref="C330">SUM(IF(Connections!$A$2:$B$1976=Authors!A330, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D330">
@@ -8185,7 +8187,7 @@
         <v>326</v>
       </c>
       <c r="C331">
-        <f t="array" ref="C331">SUM(IF(Connections!A331:B2305=Authors!A331, 1, 0))+1</f>
+        <f t="array" ref="C331">SUM(IF(Connections!$A$2:$B$1976=Authors!A331, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D331">
@@ -8200,8 +8202,8 @@
         <v>327</v>
       </c>
       <c r="C332">
-        <f t="array" ref="C332">SUM(IF(Connections!A332:B2306=Authors!A332, 1, 0))+1</f>
-        <v>6</v>
+        <f t="array" ref="C332">SUM(IF(Connections!$A$2:$B$1976=Authors!A332, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D332">
         <v>1</v>
@@ -8215,7 +8217,7 @@
         <v>837</v>
       </c>
       <c r="C333">
-        <f t="array" ref="C333">SUM(IF(Connections!A333:B2307=Authors!A333, 1, 0))+1</f>
+        <f t="array" ref="C333">SUM(IF(Connections!$A$2:$B$1976=Authors!A333, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D333">
@@ -8230,8 +8232,8 @@
         <v>38</v>
       </c>
       <c r="C334">
-        <f t="array" ref="C334">SUM(IF(Connections!A334:B2308=Authors!A334, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C334">SUM(IF(Connections!$A$2:$B$1976=Authors!A334, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D334">
         <v>1</v>
@@ -8245,7 +8247,7 @@
         <v>331</v>
       </c>
       <c r="C335">
-        <f t="array" ref="C335">SUM(IF(Connections!A335:B2309=Authors!A335, 1, 0))+1</f>
+        <f t="array" ref="C335">SUM(IF(Connections!$A$2:$B$1976=Authors!A335, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D335">
@@ -8260,8 +8262,8 @@
         <v>190</v>
       </c>
       <c r="C336">
-        <f t="array" ref="C336">SUM(IF(Connections!A336:B2310=Authors!A336, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C336">SUM(IF(Connections!$A$2:$B$1976=Authors!A336, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D336">
         <v>1</v>
@@ -8275,8 +8277,8 @@
         <v>60</v>
       </c>
       <c r="C337">
-        <f t="array" ref="C337">SUM(IF(Connections!A337:B2311=Authors!A337, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C337">SUM(IF(Connections!$A$2:$B$1976=Authors!A337, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D337">
         <v>1</v>
@@ -8290,7 +8292,7 @@
         <v>334</v>
       </c>
       <c r="C338">
-        <f t="array" ref="C338">SUM(IF(Connections!A338:B2312=Authors!A338, 1, 0))+1</f>
+        <f t="array" ref="C338">SUM(IF(Connections!$A$2:$B$1976=Authors!A338, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D338">
@@ -8305,7 +8307,7 @@
         <v>335</v>
       </c>
       <c r="C339">
-        <f t="array" ref="C339">SUM(IF(Connections!A339:B2313=Authors!A339, 1, 0))+1</f>
+        <f t="array" ref="C339">SUM(IF(Connections!$A$2:$B$1976=Authors!A339, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D339">
@@ -8320,7 +8322,7 @@
         <v>336</v>
       </c>
       <c r="C340">
-        <f t="array" ref="C340">SUM(IF(Connections!A340:B2314=Authors!A340, 1, 0))+1</f>
+        <f t="array" ref="C340">SUM(IF(Connections!$A$2:$B$1976=Authors!A340, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D340">
@@ -8335,7 +8337,7 @@
         <v>80</v>
       </c>
       <c r="C341">
-        <f t="array" ref="C341">SUM(IF(Connections!A341:B2315=Authors!A341, 1, 0))+1</f>
+        <f t="array" ref="C341">SUM(IF(Connections!$A$2:$B$1976=Authors!A341, 1, 0))+1</f>
         <v>8</v>
       </c>
       <c r="D341">
@@ -8350,7 +8352,7 @@
         <v>219</v>
       </c>
       <c r="C342">
-        <f t="array" ref="C342">SUM(IF(Connections!A342:B2316=Authors!A342, 1, 0))+1</f>
+        <f t="array" ref="C342">SUM(IF(Connections!$A$2:$B$1976=Authors!A342, 1, 0))+1</f>
         <v>9</v>
       </c>
       <c r="D342">
@@ -8365,7 +8367,7 @@
         <v>339</v>
       </c>
       <c r="C343">
-        <f t="array" ref="C343">SUM(IF(Connections!A343:B2317=Authors!A343, 1, 0))+1</f>
+        <f t="array" ref="C343">SUM(IF(Connections!$A$2:$B$1976=Authors!A343, 1, 0))+1</f>
         <v>9</v>
       </c>
       <c r="D343">
@@ -8380,7 +8382,7 @@
         <v>340</v>
       </c>
       <c r="C344">
-        <f t="array" ref="C344">SUM(IF(Connections!A344:B2318=Authors!A344, 1, 0))+1</f>
+        <f t="array" ref="C344">SUM(IF(Connections!$A$2:$B$1976=Authors!A344, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D344">
@@ -8395,7 +8397,7 @@
         <v>620</v>
       </c>
       <c r="C345">
-        <f t="array" ref="C345">SUM(IF(Connections!A345:B2319=Authors!A345, 1, 0))+1</f>
+        <f t="array" ref="C345">SUM(IF(Connections!$A$2:$B$1976=Authors!A345, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D345">
@@ -8410,7 +8412,7 @@
         <v>342</v>
       </c>
       <c r="C346">
-        <f t="array" ref="C346">SUM(IF(Connections!A346:B2320=Authors!A346, 1, 0))+1</f>
+        <f t="array" ref="C346">SUM(IF(Connections!$A$2:$B$1976=Authors!A346, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D346">
@@ -8425,7 +8427,7 @@
         <v>343</v>
       </c>
       <c r="C347">
-        <f t="array" ref="C347">SUM(IF(Connections!A347:B2321=Authors!A347, 1, 0))+1</f>
+        <f t="array" ref="C347">SUM(IF(Connections!$A$2:$B$1976=Authors!A347, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D347">
@@ -8440,7 +8442,7 @@
         <v>344</v>
       </c>
       <c r="C348">
-        <f t="array" ref="C348">SUM(IF(Connections!A348:B2322=Authors!A348, 1, 0))+1</f>
+        <f t="array" ref="C348">SUM(IF(Connections!$A$2:$B$1976=Authors!A348, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D348">
@@ -8455,7 +8457,7 @@
         <v>419</v>
       </c>
       <c r="C349">
-        <f t="array" ref="C349">SUM(IF(Connections!A349:B2323=Authors!A349, 1, 0))+1</f>
+        <f t="array" ref="C349">SUM(IF(Connections!$A$2:$B$1976=Authors!A349, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D349">
@@ -8470,7 +8472,7 @@
         <v>345</v>
       </c>
       <c r="C350">
-        <f t="array" ref="C350">SUM(IF(Connections!A350:B2324=Authors!A350, 1, 0))+1</f>
+        <f t="array" ref="C350">SUM(IF(Connections!$A$2:$B$1976=Authors!A350, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D350">
@@ -8485,7 +8487,7 @@
         <v>346</v>
       </c>
       <c r="C351">
-        <f t="array" ref="C351">SUM(IF(Connections!A351:B2325=Authors!A351, 1, 0))+1</f>
+        <f t="array" ref="C351">SUM(IF(Connections!$A$2:$B$1976=Authors!A351, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D351">
@@ -8500,7 +8502,7 @@
         <v>150</v>
       </c>
       <c r="C352">
-        <f t="array" ref="C352">SUM(IF(Connections!A352:B2326=Authors!A352, 1, 0))+1</f>
+        <f t="array" ref="C352">SUM(IF(Connections!$A$2:$B$1976=Authors!A352, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D352">
@@ -8515,7 +8517,7 @@
         <v>348</v>
       </c>
       <c r="C353">
-        <f t="array" ref="C353">SUM(IF(Connections!A353:B2327=Authors!A353, 1, 0))+1</f>
+        <f t="array" ref="C353">SUM(IF(Connections!$A$2:$B$1976=Authors!A353, 1, 0))+1</f>
         <v>7</v>
       </c>
       <c r="D353">
@@ -8530,8 +8532,8 @@
         <v>349</v>
       </c>
       <c r="C354">
-        <f t="array" ref="C354">SUM(IF(Connections!A354:B2328=Authors!A354, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C354">SUM(IF(Connections!$A$2:$B$1976=Authors!A354, 1, 0))+1</f>
+        <v>7</v>
       </c>
       <c r="D354">
         <v>1</v>
@@ -8545,8 +8547,8 @@
         <v>350</v>
       </c>
       <c r="C355">
-        <f t="array" ref="C355">SUM(IF(Connections!A355:B2329=Authors!A355, 1, 0))+1</f>
-        <v>7</v>
+        <f t="array" ref="C355">SUM(IF(Connections!$A$2:$B$1976=Authors!A355, 1, 0))+1</f>
+        <v>8</v>
       </c>
       <c r="D355">
         <v>1</v>
@@ -8560,7 +8562,7 @@
         <v>195</v>
       </c>
       <c r="C356">
-        <f t="array" ref="C356">SUM(IF(Connections!A356:B2330=Authors!A356, 1, 0))+1</f>
+        <f t="array" ref="C356">SUM(IF(Connections!$A$2:$B$1976=Authors!A356, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D356">
@@ -8575,7 +8577,7 @@
         <v>352</v>
       </c>
       <c r="C357">
-        <f t="array" ref="C357">SUM(IF(Connections!A357:B2331=Authors!A357, 1, 0))+1</f>
+        <f t="array" ref="C357">SUM(IF(Connections!$A$2:$B$1976=Authors!A357, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D357">
@@ -8590,7 +8592,7 @@
         <v>353</v>
       </c>
       <c r="C358">
-        <f t="array" ref="C358">SUM(IF(Connections!A358:B2332=Authors!A358, 1, 0))+1</f>
+        <f t="array" ref="C358">SUM(IF(Connections!$A$2:$B$1976=Authors!A358, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D358">
@@ -8605,7 +8607,7 @@
         <v>354</v>
       </c>
       <c r="C359">
-        <f t="array" ref="C359">SUM(IF(Connections!A359:B2333=Authors!A359, 1, 0))+1</f>
+        <f t="array" ref="C359">SUM(IF(Connections!$A$2:$B$1976=Authors!A359, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D359">
@@ -8620,7 +8622,7 @@
         <v>357</v>
       </c>
       <c r="C360">
-        <f t="array" ref="C360">SUM(IF(Connections!A360:B2334=Authors!A360, 1, 0))+1</f>
+        <f t="array" ref="C360">SUM(IF(Connections!$A$2:$B$1976=Authors!A360, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D360">
@@ -8635,8 +8637,8 @@
         <v>358</v>
       </c>
       <c r="C361">
-        <f t="array" ref="C361">SUM(IF(Connections!A361:B2335=Authors!A361, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C361">SUM(IF(Connections!$A$2:$B$1976=Authors!A361, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D361">
         <v>1</v>
@@ -8650,8 +8652,8 @@
         <v>230</v>
       </c>
       <c r="C362">
-        <f t="array" ref="C362">SUM(IF(Connections!A362:B2336=Authors!A362, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C362">SUM(IF(Connections!$A$2:$B$1976=Authors!A362, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D362">
         <v>1</v>
@@ -8665,7 +8667,7 @@
         <v>320</v>
       </c>
       <c r="C363">
-        <f t="array" ref="C363">SUM(IF(Connections!A363:B2337=Authors!A363, 1, 0))+1</f>
+        <f t="array" ref="C363">SUM(IF(Connections!$A$2:$B$1976=Authors!A363, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D363">
@@ -8680,8 +8682,8 @@
         <v>843</v>
       </c>
       <c r="C364">
-        <f t="array" ref="C364">SUM(IF(Connections!A364:B2338=Authors!A364, 1, 0))+1</f>
-        <v>4</v>
+        <f t="array" ref="C364">SUM(IF(Connections!$A$2:$B$1976=Authors!A364, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D364">
         <v>1</v>
@@ -8695,7 +8697,7 @@
         <v>680</v>
       </c>
       <c r="C365">
-        <f t="array" ref="C365">SUM(IF(Connections!A365:B2339=Authors!A365, 1, 0))+1</f>
+        <f t="array" ref="C365">SUM(IF(Connections!$A$2:$B$1976=Authors!A365, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D365">
@@ -8710,7 +8712,7 @@
         <v>361</v>
       </c>
       <c r="C366">
-        <f t="array" ref="C366">SUM(IF(Connections!A366:B2340=Authors!A366, 1, 0))+1</f>
+        <f t="array" ref="C366">SUM(IF(Connections!$A$2:$B$1976=Authors!A366, 1, 0))+1</f>
         <v>16</v>
       </c>
       <c r="D366">
@@ -8725,8 +8727,8 @@
         <v>363</v>
       </c>
       <c r="C367">
-        <f t="array" ref="C367">SUM(IF(Connections!A367:B2341=Authors!A367, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C367">SUM(IF(Connections!$A$2:$B$1976=Authors!A367, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D367">
         <v>1</v>
@@ -8740,7 +8742,7 @@
         <v>296</v>
       </c>
       <c r="C368">
-        <f t="array" ref="C368">SUM(IF(Connections!A368:B2342=Authors!A368, 1, 0))+1</f>
+        <f t="array" ref="C368">SUM(IF(Connections!$A$2:$B$1976=Authors!A368, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D368">
@@ -8755,7 +8757,7 @@
         <v>365</v>
       </c>
       <c r="C369">
-        <f t="array" ref="C369">SUM(IF(Connections!A369:B2343=Authors!A369, 1, 0))+1</f>
+        <f t="array" ref="C369">SUM(IF(Connections!$A$2:$B$1976=Authors!A369, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D369">
@@ -8770,8 +8772,8 @@
         <v>845</v>
       </c>
       <c r="C370">
-        <f t="array" ref="C370">SUM(IF(Connections!A370:B2344=Authors!A370, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C370">SUM(IF(Connections!$A$2:$B$1976=Authors!A370, 1, 0))+1</f>
+        <v>6</v>
       </c>
       <c r="D370">
         <v>1</v>
@@ -8785,7 +8787,7 @@
         <v>367</v>
       </c>
       <c r="C371">
-        <f t="array" ref="C371">SUM(IF(Connections!A371:B2345=Authors!A371, 1, 0))+1</f>
+        <f t="array" ref="C371">SUM(IF(Connections!$A$2:$B$1976=Authors!A371, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D371">
@@ -8800,7 +8802,7 @@
         <v>681</v>
       </c>
       <c r="C372">
-        <f t="array" ref="C372">SUM(IF(Connections!A372:B2346=Authors!A372, 1, 0))+1</f>
+        <f t="array" ref="C372">SUM(IF(Connections!$A$2:$B$1976=Authors!A372, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D372">
@@ -8815,7 +8817,7 @@
         <v>369</v>
       </c>
       <c r="C373">
-        <f t="array" ref="C373">SUM(IF(Connections!A373:B2347=Authors!A373, 1, 0))+1</f>
+        <f t="array" ref="C373">SUM(IF(Connections!$A$2:$B$1976=Authors!A373, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D373">
@@ -8830,7 +8832,7 @@
         <v>522</v>
       </c>
       <c r="C374">
-        <f t="array" ref="C374">SUM(IF(Connections!A374:B2348=Authors!A374, 1, 0))+1</f>
+        <f t="array" ref="C374">SUM(IF(Connections!$A$2:$B$1976=Authors!A374, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D374">
@@ -8845,7 +8847,7 @@
         <v>371</v>
       </c>
       <c r="C375">
-        <f t="array" ref="C375">SUM(IF(Connections!A375:B2349=Authors!A375, 1, 0))+1</f>
+        <f t="array" ref="C375">SUM(IF(Connections!$A$2:$B$1976=Authors!A375, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D375">
@@ -8860,7 +8862,7 @@
         <v>372</v>
       </c>
       <c r="C376">
-        <f t="array" ref="C376">SUM(IF(Connections!A376:B2350=Authors!A376, 1, 0))+1</f>
+        <f t="array" ref="C376">SUM(IF(Connections!$A$2:$B$1976=Authors!A376, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D376">
@@ -8875,7 +8877,7 @@
         <v>523</v>
       </c>
       <c r="C377">
-        <f t="array" ref="C377">SUM(IF(Connections!A377:B2351=Authors!A377, 1, 0))+1</f>
+        <f t="array" ref="C377">SUM(IF(Connections!$A$2:$B$1976=Authors!A377, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D377">
@@ -8890,7 +8892,7 @@
         <v>373</v>
       </c>
       <c r="C378">
-        <f t="array" ref="C378">SUM(IF(Connections!A378:B2352=Authors!A378, 1, 0))+1</f>
+        <f t="array" ref="C378">SUM(IF(Connections!$A$2:$B$1976=Authors!A378, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D378">
@@ -8905,7 +8907,7 @@
         <v>710</v>
       </c>
       <c r="C379">
-        <f t="array" ref="C379">SUM(IF(Connections!A379:B2353=Authors!A379, 1, 0))+1</f>
+        <f t="array" ref="C379">SUM(IF(Connections!$A$2:$B$1976=Authors!A379, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D379">
@@ -8920,7 +8922,7 @@
         <v>516</v>
       </c>
       <c r="C380">
-        <f t="array" ref="C380">SUM(IF(Connections!A380:B2354=Authors!A380, 1, 0))+1</f>
+        <f t="array" ref="C380">SUM(IF(Connections!$A$2:$B$1976=Authors!A380, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D380">
@@ -8935,7 +8937,7 @@
         <v>374</v>
       </c>
       <c r="C381">
-        <f t="array" ref="C381">SUM(IF(Connections!A381:B2355=Authors!A381, 1, 0))+1</f>
+        <f t="array" ref="C381">SUM(IF(Connections!$A$2:$B$1976=Authors!A381, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D381">
@@ -8950,7 +8952,7 @@
         <v>375</v>
       </c>
       <c r="C382">
-        <f t="array" ref="C382">SUM(IF(Connections!A382:B2356=Authors!A382, 1, 0))+1</f>
+        <f t="array" ref="C382">SUM(IF(Connections!$A$2:$B$1976=Authors!A382, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D382">
@@ -8965,7 +8967,7 @@
         <v>377</v>
       </c>
       <c r="C383">
-        <f t="array" ref="C383">SUM(IF(Connections!A383:B2357=Authors!A383, 1, 0))+1</f>
+        <f t="array" ref="C383">SUM(IF(Connections!$A$2:$B$1976=Authors!A383, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D383">
@@ -8980,7 +8982,7 @@
         <v>378</v>
       </c>
       <c r="C384">
-        <f t="array" ref="C384">SUM(IF(Connections!A384:B2358=Authors!A384, 1, 0))+1</f>
+        <f t="array" ref="C384">SUM(IF(Connections!$A$2:$B$1976=Authors!A384, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D384">
@@ -8995,7 +8997,7 @@
         <v>379</v>
       </c>
       <c r="C385">
-        <f t="array" ref="C385">SUM(IF(Connections!A385:B2359=Authors!A385, 1, 0))+1</f>
+        <f t="array" ref="C385">SUM(IF(Connections!$A$2:$B$1976=Authors!A385, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D385">
@@ -9010,7 +9012,7 @@
         <v>524</v>
       </c>
       <c r="C386">
-        <f t="array" ref="C386">SUM(IF(Connections!A386:B2360=Authors!A386, 1, 0))+1</f>
+        <f t="array" ref="C386">SUM(IF(Connections!$A$2:$B$1976=Authors!A386, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D386">
@@ -9025,8 +9027,8 @@
         <v>381</v>
       </c>
       <c r="C387">
-        <f t="array" ref="C387">SUM(IF(Connections!A387:B2361=Authors!A387, 1, 0))+1</f>
-        <v>11</v>
+        <f t="array" ref="C387">SUM(IF(Connections!$A$2:$B$1976=Authors!A387, 1, 0))+1</f>
+        <v>12</v>
       </c>
       <c r="D387">
         <v>1</v>
@@ -9040,8 +9042,8 @@
         <v>382</v>
       </c>
       <c r="C388">
-        <f t="array" ref="C388">SUM(IF(Connections!A388:B2362=Authors!A388, 1, 0))+1</f>
-        <v>6</v>
+        <f t="array" ref="C388">SUM(IF(Connections!$A$2:$B$1976=Authors!A388, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D388">
         <v>1</v>
@@ -9055,7 +9057,7 @@
         <v>850</v>
       </c>
       <c r="C389">
-        <f t="array" ref="C389">SUM(IF(Connections!A389:B2363=Authors!A389, 1, 0))+1</f>
+        <f t="array" ref="C389">SUM(IF(Connections!$A$2:$B$1976=Authors!A389, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D389">
@@ -9070,8 +9072,8 @@
         <v>384</v>
       </c>
       <c r="C390">
-        <f t="array" ref="C390">SUM(IF(Connections!A390:B2364=Authors!A390, 1, 0))+1</f>
-        <v>19</v>
+        <f t="array" ref="C390">SUM(IF(Connections!$A$2:$B$1976=Authors!A390, 1, 0))+1</f>
+        <v>20</v>
       </c>
       <c r="D390">
         <v>1</v>
@@ -9085,7 +9087,7 @@
         <v>385</v>
       </c>
       <c r="C391">
-        <f t="array" ref="C391">SUM(IF(Connections!A391:B2365=Authors!A391, 1, 0))+1</f>
+        <f t="array" ref="C391">SUM(IF(Connections!$A$2:$B$1976=Authors!A391, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D391">
@@ -9100,7 +9102,7 @@
         <v>386</v>
       </c>
       <c r="C392">
-        <f t="array" ref="C392">SUM(IF(Connections!A392:B2366=Authors!A392, 1, 0))+1</f>
+        <f t="array" ref="C392">SUM(IF(Connections!$A$2:$B$1976=Authors!A392, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D392">
@@ -9115,8 +9117,8 @@
         <v>387</v>
       </c>
       <c r="C393">
-        <f t="array" ref="C393">SUM(IF(Connections!A393:B2367=Authors!A393, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C393">SUM(IF(Connections!$A$2:$B$1976=Authors!A393, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D393">
         <v>1</v>
@@ -9130,7 +9132,7 @@
         <v>388</v>
       </c>
       <c r="C394">
-        <f t="array" ref="C394">SUM(IF(Connections!A394:B2368=Authors!A394, 1, 0))+1</f>
+        <f t="array" ref="C394">SUM(IF(Connections!$A$2:$B$1976=Authors!A394, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D394">
@@ -9145,7 +9147,7 @@
         <v>389</v>
       </c>
       <c r="C395">
-        <f t="array" ref="C395">SUM(IF(Connections!A395:B2369=Authors!A395, 1, 0))+1</f>
+        <f t="array" ref="C395">SUM(IF(Connections!$A$2:$B$1976=Authors!A395, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D395">
@@ -9160,7 +9162,7 @@
         <v>390</v>
       </c>
       <c r="C396">
-        <f t="array" ref="C396">SUM(IF(Connections!A396:B2370=Authors!A396, 1, 0))+1</f>
+        <f t="array" ref="C396">SUM(IF(Connections!$A$2:$B$1976=Authors!A396, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D396">
@@ -9175,7 +9177,7 @@
         <v>391</v>
       </c>
       <c r="C397">
-        <f t="array" ref="C397">SUM(IF(Connections!A397:B2371=Authors!A397, 1, 0))+1</f>
+        <f t="array" ref="C397">SUM(IF(Connections!$A$2:$B$1976=Authors!A397, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D397">
@@ -9190,7 +9192,7 @@
         <v>852</v>
       </c>
       <c r="C398">
-        <f t="array" ref="C398">SUM(IF(Connections!A398:B2372=Authors!A398, 1, 0))+1</f>
+        <f t="array" ref="C398">SUM(IF(Connections!$A$2:$B$1976=Authors!A398, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D398">
@@ -9205,7 +9207,7 @@
         <v>393</v>
       </c>
       <c r="C399">
-        <f t="array" ref="C399">SUM(IF(Connections!A399:B2373=Authors!A399, 1, 0))+1</f>
+        <f t="array" ref="C399">SUM(IF(Connections!$A$2:$B$1976=Authors!A399, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D399">
@@ -9220,8 +9222,8 @@
         <v>394</v>
       </c>
       <c r="C400">
-        <f t="array" ref="C400">SUM(IF(Connections!A400:B2374=Authors!A400, 1, 0))+1</f>
-        <v>8</v>
+        <f t="array" ref="C400">SUM(IF(Connections!$A$2:$B$1976=Authors!A400, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D400">
         <v>1</v>
@@ -9235,8 +9237,8 @@
         <v>395</v>
       </c>
       <c r="C401">
-        <f t="array" ref="C401">SUM(IF(Connections!A401:B2375=Authors!A401, 1, 0))+1</f>
-        <v>28</v>
+        <f t="array" ref="C401">SUM(IF(Connections!$A$2:$B$1976=Authors!A401, 1, 0))+1</f>
+        <v>32</v>
       </c>
       <c r="D401">
         <v>1</v>
@@ -9250,7 +9252,7 @@
         <v>396</v>
       </c>
       <c r="C402">
-        <f t="array" ref="C402">SUM(IF(Connections!A402:B2376=Authors!A402, 1, 0))+1</f>
+        <f t="array" ref="C402">SUM(IF(Connections!$A$2:$B$1976=Authors!A402, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D402">
@@ -9265,7 +9267,7 @@
         <v>527</v>
       </c>
       <c r="C403">
-        <f t="array" ref="C403">SUM(IF(Connections!A403:B2377=Authors!A403, 1, 0))+1</f>
+        <f t="array" ref="C403">SUM(IF(Connections!$A$2:$B$1976=Authors!A403, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D403">
@@ -9280,7 +9282,7 @@
         <v>399</v>
       </c>
       <c r="C404">
-        <f t="array" ref="C404">SUM(IF(Connections!A404:B2378=Authors!A404, 1, 0))+1</f>
+        <f t="array" ref="C404">SUM(IF(Connections!$A$2:$B$1976=Authors!A404, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D404">
@@ -9295,7 +9297,7 @@
         <v>401</v>
       </c>
       <c r="C405">
-        <f t="array" ref="C405">SUM(IF(Connections!A405:B2379=Authors!A405, 1, 0))+1</f>
+        <f t="array" ref="C405">SUM(IF(Connections!$A$2:$B$1976=Authors!A405, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D405">
@@ -9310,8 +9312,8 @@
         <v>82</v>
       </c>
       <c r="C406">
-        <f t="array" ref="C406">SUM(IF(Connections!A406:B2380=Authors!A406, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C406">SUM(IF(Connections!$A$2:$B$1976=Authors!A406, 1, 0))+1</f>
+        <v>2</v>
       </c>
       <c r="D406">
         <v>1</v>
@@ -9325,7 +9327,7 @@
         <v>402</v>
       </c>
       <c r="C407">
-        <f t="array" ref="C407">SUM(IF(Connections!A407:B2381=Authors!A407, 1, 0))+1</f>
+        <f t="array" ref="C407">SUM(IF(Connections!$A$2:$B$1976=Authors!A407, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D407">
@@ -9340,8 +9342,8 @@
         <v>403</v>
       </c>
       <c r="C408">
-        <f t="array" ref="C408">SUM(IF(Connections!A408:B2382=Authors!A408, 1, 0))+1</f>
-        <v>13</v>
+        <f t="array" ref="C408">SUM(IF(Connections!$A$2:$B$1976=Authors!A408, 1, 0))+1</f>
+        <v>14</v>
       </c>
       <c r="D408">
         <v>1</v>
@@ -9355,8 +9357,8 @@
         <v>404</v>
       </c>
       <c r="C409">
-        <f t="array" ref="C409">SUM(IF(Connections!A409:B2383=Authors!A409, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C409">SUM(IF(Connections!$A$2:$B$1976=Authors!A409, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D409">
         <v>1</v>
@@ -9370,7 +9372,7 @@
         <v>423</v>
       </c>
       <c r="C410">
-        <f t="array" ref="C410">SUM(IF(Connections!A410:B2384=Authors!A410, 1, 0))+1</f>
+        <f t="array" ref="C410">SUM(IF(Connections!$A$2:$B$1976=Authors!A410, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D410">
@@ -9385,7 +9387,7 @@
         <v>405</v>
       </c>
       <c r="C411">
-        <f t="array" ref="C411">SUM(IF(Connections!A411:B2385=Authors!A411, 1, 0))+1</f>
+        <f t="array" ref="C411">SUM(IF(Connections!$A$2:$B$1976=Authors!A411, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D411">
@@ -9400,7 +9402,7 @@
         <v>406</v>
       </c>
       <c r="C412">
-        <f t="array" ref="C412">SUM(IF(Connections!A412:B2386=Authors!A412, 1, 0))+1</f>
+        <f t="array" ref="C412">SUM(IF(Connections!$A$2:$B$1976=Authors!A412, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D412">
@@ -9415,7 +9417,7 @@
         <v>316</v>
       </c>
       <c r="C413">
-        <f t="array" ref="C413">SUM(IF(Connections!A413:B2387=Authors!A413, 1, 0))+1</f>
+        <f t="array" ref="C413">SUM(IF(Connections!$A$2:$B$1976=Authors!A413, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D413">
@@ -9430,7 +9432,7 @@
         <v>571</v>
       </c>
       <c r="C414">
-        <f t="array" ref="C414">SUM(IF(Connections!A414:B2388=Authors!A414, 1, 0))+1</f>
+        <f t="array" ref="C414">SUM(IF(Connections!$A$2:$B$1976=Authors!A414, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D414">
@@ -9445,8 +9447,8 @@
         <v>583</v>
       </c>
       <c r="C415">
-        <f t="array" ref="C415">SUM(IF(Connections!A415:B2389=Authors!A415, 1, 0))+1</f>
-        <v>11</v>
+        <f t="array" ref="C415">SUM(IF(Connections!$A$2:$B$1976=Authors!A415, 1, 0))+1</f>
+        <v>12</v>
       </c>
       <c r="D415">
         <v>1</v>
@@ -9460,7 +9462,7 @@
         <v>409</v>
       </c>
       <c r="C416">
-        <f t="array" ref="C416">SUM(IF(Connections!A416:B2390=Authors!A416, 1, 0))+1</f>
+        <f t="array" ref="C416">SUM(IF(Connections!$A$2:$B$1976=Authors!A416, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D416">
@@ -9475,7 +9477,7 @@
         <v>688</v>
       </c>
       <c r="C417">
-        <f t="array" ref="C417">SUM(IF(Connections!A417:B2391=Authors!A417, 1, 0))+1</f>
+        <f t="array" ref="C417">SUM(IF(Connections!$A$2:$B$1976=Authors!A417, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D417">
@@ -9490,7 +9492,7 @@
         <v>411</v>
       </c>
       <c r="C418">
-        <f t="array" ref="C418">SUM(IF(Connections!A418:B2392=Authors!A418, 1, 0))+1</f>
+        <f t="array" ref="C418">SUM(IF(Connections!$A$2:$B$1976=Authors!A418, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D418">
@@ -9505,7 +9507,7 @@
         <v>412</v>
       </c>
       <c r="C419">
-        <f t="array" ref="C419">SUM(IF(Connections!A419:B2393=Authors!A419, 1, 0))+1</f>
+        <f t="array" ref="C419">SUM(IF(Connections!$A$2:$B$1976=Authors!A419, 1, 0))+1</f>
         <v>12</v>
       </c>
       <c r="D419">
@@ -9520,7 +9522,7 @@
         <v>413</v>
       </c>
       <c r="C420">
-        <f t="array" ref="C420">SUM(IF(Connections!A420:B2394=Authors!A420, 1, 0))+1</f>
+        <f t="array" ref="C420">SUM(IF(Connections!$A$2:$B$1976=Authors!A420, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D420">
@@ -9535,7 +9537,7 @@
         <v>414</v>
       </c>
       <c r="C421">
-        <f t="array" ref="C421">SUM(IF(Connections!A421:B2395=Authors!A421, 1, 0))+1</f>
+        <f t="array" ref="C421">SUM(IF(Connections!$A$2:$B$1976=Authors!A421, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D421">
@@ -9550,8 +9552,8 @@
         <v>415</v>
       </c>
       <c r="C422">
-        <f t="array" ref="C422">SUM(IF(Connections!A422:B2396=Authors!A422, 1, 0))+1</f>
-        <v>11</v>
+        <f t="array" ref="C422">SUM(IF(Connections!$A$2:$B$1976=Authors!A422, 1, 0))+1</f>
+        <v>12</v>
       </c>
       <c r="D422">
         <v>1</v>
@@ -9565,8 +9567,8 @@
         <v>638</v>
       </c>
       <c r="C423">
-        <f t="array" ref="C423">SUM(IF(Connections!A423:B2397=Authors!A423, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C423">SUM(IF(Connections!$A$2:$B$1976=Authors!A423, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D423">
         <v>1</v>
@@ -9580,7 +9582,7 @@
         <v>417</v>
       </c>
       <c r="C424">
-        <f t="array" ref="C424">SUM(IF(Connections!A424:B2398=Authors!A424, 1, 0))+1</f>
+        <f t="array" ref="C424">SUM(IF(Connections!$A$2:$B$1976=Authors!A424, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D424">
@@ -9595,7 +9597,7 @@
         <v>418</v>
       </c>
       <c r="C425">
-        <f t="array" ref="C425">SUM(IF(Connections!A425:B2399=Authors!A425, 1, 0))+1</f>
+        <f t="array" ref="C425">SUM(IF(Connections!$A$2:$B$1976=Authors!A425, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D425">
@@ -9610,8 +9612,8 @@
         <v>654</v>
       </c>
       <c r="C426">
-        <f t="array" ref="C426">SUM(IF(Connections!A426:B2400=Authors!A426, 1, 0))+1</f>
-        <v>9</v>
+        <f t="array" ref="C426">SUM(IF(Connections!$A$2:$B$1976=Authors!A426, 1, 0))+1</f>
+        <v>10</v>
       </c>
       <c r="D426">
         <v>1</v>
@@ -9625,7 +9627,7 @@
         <v>420</v>
       </c>
       <c r="C427">
-        <f t="array" ref="C427">SUM(IF(Connections!A427:B2401=Authors!A427, 1, 0))+1</f>
+        <f t="array" ref="C427">SUM(IF(Connections!$A$2:$B$1976=Authors!A427, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D427">
@@ -9640,8 +9642,8 @@
         <v>421</v>
       </c>
       <c r="C428">
-        <f t="array" ref="C428">SUM(IF(Connections!A428:B2402=Authors!A428, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C428">SUM(IF(Connections!$A$2:$B$1976=Authors!A428, 1, 0))+1</f>
+        <v>2</v>
       </c>
       <c r="D428">
         <v>1</v>
@@ -9655,8 +9657,8 @@
         <v>328</v>
       </c>
       <c r="C429">
-        <f t="array" ref="C429">SUM(IF(Connections!A429:B2403=Authors!A429, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C429">SUM(IF(Connections!$A$2:$B$1976=Authors!A429, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D429">
         <v>1</v>
@@ -9670,7 +9672,7 @@
         <v>424</v>
       </c>
       <c r="C430">
-        <f t="array" ref="C430">SUM(IF(Connections!A430:B2404=Authors!A430, 1, 0))+1</f>
+        <f t="array" ref="C430">SUM(IF(Connections!$A$2:$B$1976=Authors!A430, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D430">
@@ -9685,7 +9687,7 @@
         <v>425</v>
       </c>
       <c r="C431">
-        <f t="array" ref="C431">SUM(IF(Connections!A431:B2405=Authors!A431, 1, 0))+1</f>
+        <f t="array" ref="C431">SUM(IF(Connections!$A$2:$B$1976=Authors!A431, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D431">
@@ -9700,7 +9702,7 @@
         <v>426</v>
       </c>
       <c r="C432">
-        <f t="array" ref="C432">SUM(IF(Connections!A432:B2406=Authors!A432, 1, 0))+1</f>
+        <f t="array" ref="C432">SUM(IF(Connections!$A$2:$B$1976=Authors!A432, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D432">
@@ -9715,7 +9717,7 @@
         <v>427</v>
       </c>
       <c r="C433">
-        <f t="array" ref="C433">SUM(IF(Connections!A433:B2407=Authors!A433, 1, 0))+1</f>
+        <f t="array" ref="C433">SUM(IF(Connections!$A$2:$B$1976=Authors!A433, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D433">
@@ -9730,8 +9732,8 @@
         <v>428</v>
       </c>
       <c r="C434">
-        <f t="array" ref="C434">SUM(IF(Connections!A434:B2408=Authors!A434, 1, 0))+1</f>
-        <v>7</v>
+        <f t="array" ref="C434">SUM(IF(Connections!$A$2:$B$1976=Authors!A434, 1, 0))+1</f>
+        <v>10</v>
       </c>
       <c r="D434">
         <v>1</v>
@@ -9745,8 +9747,8 @@
         <v>429</v>
       </c>
       <c r="C435">
-        <f t="array" ref="C435">SUM(IF(Connections!A435:B2409=Authors!A435, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C435">SUM(IF(Connections!$A$2:$B$1976=Authors!A435, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D435">
         <v>1</v>
@@ -9760,7 +9762,7 @@
         <v>552</v>
       </c>
       <c r="C436">
-        <f t="array" ref="C436">SUM(IF(Connections!A436:B2410=Authors!A436, 1, 0))+1</f>
+        <f t="array" ref="C436">SUM(IF(Connections!$A$2:$B$1976=Authors!A436, 1, 0))+1</f>
         <v>8</v>
       </c>
       <c r="D436">
@@ -9775,7 +9777,7 @@
         <v>431</v>
       </c>
       <c r="C437">
-        <f t="array" ref="C437">SUM(IF(Connections!A437:B2411=Authors!A437, 1, 0))+1</f>
+        <f t="array" ref="C437">SUM(IF(Connections!$A$2:$B$1976=Authors!A437, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D437">
@@ -9790,7 +9792,7 @@
         <v>432</v>
       </c>
       <c r="C438">
-        <f t="array" ref="C438">SUM(IF(Connections!A438:B2412=Authors!A438, 1, 0))+1</f>
+        <f t="array" ref="C438">SUM(IF(Connections!$A$2:$B$1976=Authors!A438, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D438">
@@ -9805,7 +9807,7 @@
         <v>533</v>
       </c>
       <c r="C439">
-        <f t="array" ref="C439">SUM(IF(Connections!A439:B2413=Authors!A439, 1, 0))+1</f>
+        <f t="array" ref="C439">SUM(IF(Connections!$A$2:$B$1976=Authors!A439, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D439">
@@ -9820,7 +9822,7 @@
         <v>434</v>
       </c>
       <c r="C440">
-        <f t="array" ref="C440">SUM(IF(Connections!A440:B2414=Authors!A440, 1, 0))+1</f>
+        <f t="array" ref="C440">SUM(IF(Connections!$A$2:$B$1976=Authors!A440, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D440">
@@ -9835,7 +9837,7 @@
         <v>435</v>
       </c>
       <c r="C441">
-        <f t="array" ref="C441">SUM(IF(Connections!A441:B2415=Authors!A441, 1, 0))+1</f>
+        <f t="array" ref="C441">SUM(IF(Connections!$A$2:$B$1976=Authors!A441, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D441">
@@ -9850,8 +9852,8 @@
         <v>436</v>
       </c>
       <c r="C442">
-        <f t="array" ref="C442">SUM(IF(Connections!A442:B2416=Authors!A442, 1, 0))+1</f>
-        <v>6</v>
+        <f t="array" ref="C442">SUM(IF(Connections!$A$2:$B$1976=Authors!A442, 1, 0))+1</f>
+        <v>8</v>
       </c>
       <c r="D442">
         <v>1</v>
@@ -9865,8 +9867,8 @@
         <v>437</v>
       </c>
       <c r="C443">
-        <f t="array" ref="C443">SUM(IF(Connections!A443:B2417=Authors!A443, 1, 0))+1</f>
-        <v>19</v>
+        <f t="array" ref="C443">SUM(IF(Connections!$A$2:$B$1976=Authors!A443, 1, 0))+1</f>
+        <v>22</v>
       </c>
       <c r="D443">
         <v>1</v>
@@ -9880,8 +9882,8 @@
         <v>438</v>
       </c>
       <c r="C444">
-        <f t="array" ref="C444">SUM(IF(Connections!A444:B2418=Authors!A444, 1, 0))+1</f>
-        <v>6</v>
+        <f t="array" ref="C444">SUM(IF(Connections!$A$2:$B$1976=Authors!A444, 1, 0))+1</f>
+        <v>8</v>
       </c>
       <c r="D444">
         <v>1</v>
@@ -9895,8 +9897,8 @@
         <v>439</v>
       </c>
       <c r="C445">
-        <f t="array" ref="C445">SUM(IF(Connections!A445:B2419=Authors!A445, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C445">SUM(IF(Connections!$A$2:$B$1976=Authors!A445, 1, 0))+1</f>
+        <v>6</v>
       </c>
       <c r="D445">
         <v>1</v>
@@ -9910,7 +9912,7 @@
         <v>440</v>
       </c>
       <c r="C446">
-        <f t="array" ref="C446">SUM(IF(Connections!A446:B2420=Authors!A446, 1, 0))+1</f>
+        <f t="array" ref="C446">SUM(IF(Connections!$A$2:$B$1976=Authors!A446, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D446">
@@ -9925,7 +9927,7 @@
         <v>589</v>
       </c>
       <c r="C447">
-        <f t="array" ref="C447">SUM(IF(Connections!A447:B2421=Authors!A447, 1, 0))+1</f>
+        <f t="array" ref="C447">SUM(IF(Connections!$A$2:$B$1976=Authors!A447, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D447">
@@ -9940,8 +9942,8 @@
         <v>441</v>
       </c>
       <c r="C448">
-        <f t="array" ref="C448">SUM(IF(Connections!A448:B2422=Authors!A448, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C448">SUM(IF(Connections!$A$2:$B$1976=Authors!A448, 1, 0))+1</f>
+        <v>2</v>
       </c>
       <c r="D448">
         <v>1</v>
@@ -9955,7 +9957,7 @@
         <v>442</v>
       </c>
       <c r="C449">
-        <f t="array" ref="C449">SUM(IF(Connections!A449:B2423=Authors!A449, 1, 0))+1</f>
+        <f t="array" ref="C449">SUM(IF(Connections!$A$2:$B$1976=Authors!A449, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D449">
@@ -9970,7 +9972,7 @@
         <v>443</v>
       </c>
       <c r="C450">
-        <f t="array" ref="C450">SUM(IF(Connections!A450:B2424=Authors!A450, 1, 0))+1</f>
+        <f t="array" ref="C450">SUM(IF(Connections!$A$2:$B$1976=Authors!A450, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D450">
@@ -9985,8 +9987,8 @@
         <v>444</v>
       </c>
       <c r="C451">
-        <f t="array" ref="C451">SUM(IF(Connections!A451:B2425=Authors!A451, 1, 0))+1</f>
-        <v>11</v>
+        <f t="array" ref="C451">SUM(IF(Connections!$A$2:$B$1976=Authors!A451, 1, 0))+1</f>
+        <v>13</v>
       </c>
       <c r="D451">
         <v>1</v>
@@ -10000,8 +10002,8 @@
         <v>445</v>
       </c>
       <c r="C452">
-        <f t="array" ref="C452">SUM(IF(Connections!A452:B2426=Authors!A452, 1, 0))+1</f>
-        <v>9</v>
+        <f t="array" ref="C452">SUM(IF(Connections!$A$2:$B$1976=Authors!A452, 1, 0))+1</f>
+        <v>11</v>
       </c>
       <c r="D452">
         <v>1</v>
@@ -10015,8 +10017,8 @@
         <v>446</v>
       </c>
       <c r="C453">
-        <f t="array" ref="C453">SUM(IF(Connections!A453:B2427=Authors!A453, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C453">SUM(IF(Connections!$A$2:$B$1976=Authors!A453, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D453">
         <v>1</v>
@@ -10030,8 +10032,8 @@
         <v>448</v>
       </c>
       <c r="C454">
-        <f t="array" ref="C454">SUM(IF(Connections!A454:B2428=Authors!A454, 1, 0))+1</f>
-        <v>10</v>
+        <f t="array" ref="C454">SUM(IF(Connections!$A$2:$B$1976=Authors!A454, 1, 0))+1</f>
+        <v>11</v>
       </c>
       <c r="D454">
         <v>1</v>
@@ -10045,7 +10047,7 @@
         <v>449</v>
       </c>
       <c r="C455">
-        <f t="array" ref="C455">SUM(IF(Connections!A455:B2429=Authors!A455, 1, 0))+1</f>
+        <f t="array" ref="C455">SUM(IF(Connections!$A$2:$B$1976=Authors!A455, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D455">
@@ -10060,7 +10062,7 @@
         <v>450</v>
       </c>
       <c r="C456">
-        <f t="array" ref="C456">SUM(IF(Connections!A456:B2430=Authors!A456, 1, 0))+1</f>
+        <f t="array" ref="C456">SUM(IF(Connections!$A$2:$B$1976=Authors!A456, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D456">
@@ -10075,7 +10077,7 @@
         <v>451</v>
       </c>
       <c r="C457">
-        <f t="array" ref="C457">SUM(IF(Connections!A457:B2431=Authors!A457, 1, 0))+1</f>
+        <f t="array" ref="C457">SUM(IF(Connections!$A$2:$B$1976=Authors!A457, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D457">
@@ -10090,7 +10092,7 @@
         <v>452</v>
       </c>
       <c r="C458">
-        <f t="array" ref="C458">SUM(IF(Connections!A458:B2432=Authors!A458, 1, 0))+1</f>
+        <f t="array" ref="C458">SUM(IF(Connections!$A$2:$B$1976=Authors!A458, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D458">
@@ -10105,8 +10107,8 @@
         <v>877</v>
       </c>
       <c r="C459">
-        <f t="array" ref="C459">SUM(IF(Connections!A459:B2433=Authors!A459, 1, 0))+1</f>
-        <v>16</v>
+        <f t="array" ref="C459">SUM(IF(Connections!$A$2:$B$1976=Authors!A459, 1, 0))+1</f>
+        <v>18</v>
       </c>
       <c r="D459">
         <v>1</v>
@@ -10120,7 +10122,7 @@
         <v>454</v>
       </c>
       <c r="C460">
-        <f t="array" ref="C460">SUM(IF(Connections!A460:B2434=Authors!A460, 1, 0))+1</f>
+        <f t="array" ref="C460">SUM(IF(Connections!$A$2:$B$1976=Authors!A460, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D460">
@@ -10135,7 +10137,7 @@
         <v>455</v>
       </c>
       <c r="C461">
-        <f t="array" ref="C461">SUM(IF(Connections!A461:B2435=Authors!A461, 1, 0))+1</f>
+        <f t="array" ref="C461">SUM(IF(Connections!$A$2:$B$1976=Authors!A461, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D461">
@@ -10150,7 +10152,7 @@
         <v>456</v>
       </c>
       <c r="C462">
-        <f t="array" ref="C462">SUM(IF(Connections!A462:B2436=Authors!A462, 1, 0))+1</f>
+        <f t="array" ref="C462">SUM(IF(Connections!$A$2:$B$1976=Authors!A462, 1, 0))+1</f>
         <v>16</v>
       </c>
       <c r="D462">
@@ -10165,8 +10167,8 @@
         <v>180</v>
       </c>
       <c r="C463">
-        <f t="array" ref="C463">SUM(IF(Connections!A463:B2437=Authors!A463, 1, 0))+1</f>
-        <v>8</v>
+        <f t="array" ref="C463">SUM(IF(Connections!$A$2:$B$1976=Authors!A463, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D463">
         <v>1</v>
@@ -10180,7 +10182,7 @@
         <v>508</v>
       </c>
       <c r="C464">
-        <f t="array" ref="C464">SUM(IF(Connections!A464:B2438=Authors!A464, 1, 0))+1</f>
+        <f t="array" ref="C464">SUM(IF(Connections!$A$2:$B$1976=Authors!A464, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D464">
@@ -10195,8 +10197,8 @@
         <v>603</v>
       </c>
       <c r="C465">
-        <f t="array" ref="C465">SUM(IF(Connections!A465:B2439=Authors!A465, 1, 0))+1</f>
-        <v>6</v>
+        <f t="array" ref="C465">SUM(IF(Connections!$A$2:$B$1976=Authors!A465, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D465">
         <v>1</v>
@@ -10210,7 +10212,7 @@
         <v>459</v>
       </c>
       <c r="C466">
-        <f t="array" ref="C466">SUM(IF(Connections!A466:B2440=Authors!A466, 1, 0))+1</f>
+        <f t="array" ref="C466">SUM(IF(Connections!$A$2:$B$1976=Authors!A466, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D466">
@@ -10225,7 +10227,7 @@
         <v>460</v>
       </c>
       <c r="C467">
-        <f t="array" ref="C467">SUM(IF(Connections!A467:B2441=Authors!A467, 1, 0))+1</f>
+        <f t="array" ref="C467">SUM(IF(Connections!$A$2:$B$1976=Authors!A467, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D467">
@@ -10240,7 +10242,7 @@
         <v>867</v>
       </c>
       <c r="C468">
-        <f t="array" ref="C468">SUM(IF(Connections!A468:B2442=Authors!A468, 1, 0))+1</f>
+        <f t="array" ref="C468">SUM(IF(Connections!$A$2:$B$1976=Authors!A468, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D468">
@@ -10255,8 +10257,8 @@
         <v>537</v>
       </c>
       <c r="C469">
-        <f t="array" ref="C469">SUM(IF(Connections!A469:B2443=Authors!A469, 1, 0))+1</f>
-        <v>9</v>
+        <f t="array" ref="C469">SUM(IF(Connections!$A$2:$B$1976=Authors!A469, 1, 0))+1</f>
+        <v>11</v>
       </c>
       <c r="D469">
         <v>1</v>
@@ -10270,8 +10272,8 @@
         <v>0</v>
       </c>
       <c r="C470">
-        <f t="array" ref="C470">SUM(IF(Connections!A470:B2444=Authors!A470, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C470">SUM(IF(Connections!$A$2:$B$1976=Authors!A470, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D470">
         <v>1</v>
@@ -10285,7 +10287,7 @@
         <v>464</v>
       </c>
       <c r="C471">
-        <f t="array" ref="C471">SUM(IF(Connections!A471:B2445=Authors!A471, 1, 0))+1</f>
+        <f t="array" ref="C471">SUM(IF(Connections!$A$2:$B$1976=Authors!A471, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D471">
@@ -10300,8 +10302,8 @@
         <v>465</v>
       </c>
       <c r="C472">
-        <f t="array" ref="C472">SUM(IF(Connections!A472:B2446=Authors!A472, 1, 0))+1</f>
-        <v>6</v>
+        <f t="array" ref="C472">SUM(IF(Connections!$A$2:$B$1976=Authors!A472, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D472">
         <v>1</v>
@@ -10315,7 +10317,7 @@
         <v>911</v>
       </c>
       <c r="C473">
-        <f t="array" ref="C473">SUM(IF(Connections!A473:B2447=Authors!A473, 1, 0))+1</f>
+        <f t="array" ref="C473">SUM(IF(Connections!$A$2:$B$1976=Authors!A473, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D473">
@@ -10330,7 +10332,7 @@
         <v>466</v>
       </c>
       <c r="C474">
-        <f t="array" ref="C474">SUM(IF(Connections!A474:B2448=Authors!A474, 1, 0))+1</f>
+        <f t="array" ref="C474">SUM(IF(Connections!$A$2:$B$1976=Authors!A474, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D474">
@@ -10345,8 +10347,8 @@
         <v>467</v>
       </c>
       <c r="C475">
-        <f t="array" ref="C475">SUM(IF(Connections!A475:B2449=Authors!A475, 1, 0))+1</f>
-        <v>8</v>
+        <f t="array" ref="C475">SUM(IF(Connections!$A$2:$B$1976=Authors!A475, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D475">
         <v>1</v>
@@ -10360,8 +10362,8 @@
         <v>32</v>
       </c>
       <c r="C476">
-        <f t="array" ref="C476">SUM(IF(Connections!A476:B2450=Authors!A476, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C476">SUM(IF(Connections!$A$2:$B$1976=Authors!A476, 1, 0))+1</f>
+        <v>2</v>
       </c>
       <c r="D476">
         <v>1</v>
@@ -10375,7 +10377,7 @@
         <v>890</v>
       </c>
       <c r="C477">
-        <f t="array" ref="C477">SUM(IF(Connections!A477:B2451=Authors!A477, 1, 0))+1</f>
+        <f t="array" ref="C477">SUM(IF(Connections!$A$2:$B$1976=Authors!A477, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D477">
@@ -10390,7 +10392,7 @@
         <v>469</v>
       </c>
       <c r="C478">
-        <f t="array" ref="C478">SUM(IF(Connections!A478:B2452=Authors!A478, 1, 0))+1</f>
+        <f t="array" ref="C478">SUM(IF(Connections!$A$2:$B$1976=Authors!A478, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D478">
@@ -10405,7 +10407,7 @@
         <v>470</v>
       </c>
       <c r="C479">
-        <f t="array" ref="C479">SUM(IF(Connections!A479:B2453=Authors!A479, 1, 0))+1</f>
+        <f t="array" ref="C479">SUM(IF(Connections!$A$2:$B$1976=Authors!A479, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D479">
@@ -10420,7 +10422,7 @@
         <v>471</v>
       </c>
       <c r="C480">
-        <f t="array" ref="C480">SUM(IF(Connections!A480:B2454=Authors!A480, 1, 0))+1</f>
+        <f t="array" ref="C480">SUM(IF(Connections!$A$2:$B$1976=Authors!A480, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D480">
@@ -10435,7 +10437,7 @@
         <v>472</v>
       </c>
       <c r="C481">
-        <f t="array" ref="C481">SUM(IF(Connections!A481:B2455=Authors!A481, 1, 0))+1</f>
+        <f t="array" ref="C481">SUM(IF(Connections!$A$2:$B$1976=Authors!A481, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D481">
@@ -10450,8 +10452,8 @@
         <v>67</v>
       </c>
       <c r="C482">
-        <f t="array" ref="C482">SUM(IF(Connections!A482:B2456=Authors!A482, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C482">SUM(IF(Connections!$A$2:$B$1976=Authors!A482, 1, 0))+1</f>
+        <v>2</v>
       </c>
       <c r="D482">
         <v>1</v>
@@ -10465,7 +10467,7 @@
         <v>475</v>
       </c>
       <c r="C483">
-        <f t="array" ref="C483">SUM(IF(Connections!A483:B2457=Authors!A483, 1, 0))+1</f>
+        <f t="array" ref="C483">SUM(IF(Connections!$A$2:$B$1976=Authors!A483, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D483">
@@ -10480,7 +10482,7 @@
         <v>476</v>
       </c>
       <c r="C484">
-        <f t="array" ref="C484">SUM(IF(Connections!A484:B2458=Authors!A484, 1, 0))+1</f>
+        <f t="array" ref="C484">SUM(IF(Connections!$A$2:$B$1976=Authors!A484, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D484">
@@ -10495,7 +10497,7 @@
         <v>477</v>
       </c>
       <c r="C485">
-        <f t="array" ref="C485">SUM(IF(Connections!A485:B2459=Authors!A485, 1, 0))+1</f>
+        <f t="array" ref="C485">SUM(IF(Connections!$A$2:$B$1976=Authors!A485, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D485">
@@ -10510,8 +10512,8 @@
         <v>478</v>
       </c>
       <c r="C486">
-        <f t="array" ref="C486">SUM(IF(Connections!A486:B2460=Authors!A486, 1, 0))+1</f>
-        <v>8</v>
+        <f t="array" ref="C486">SUM(IF(Connections!$A$2:$B$1976=Authors!A486, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D486">
         <v>1</v>
@@ -10525,7 +10527,7 @@
         <v>479</v>
       </c>
       <c r="C487">
-        <f t="array" ref="C487">SUM(IF(Connections!A487:B2461=Authors!A487, 1, 0))+1</f>
+        <f t="array" ref="C487">SUM(IF(Connections!$A$2:$B$1976=Authors!A487, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D487">
@@ -10540,7 +10542,7 @@
         <v>397</v>
       </c>
       <c r="C488">
-        <f t="array" ref="C488">SUM(IF(Connections!A488:B2462=Authors!A488, 1, 0))+1</f>
+        <f t="array" ref="C488">SUM(IF(Connections!$A$2:$B$1976=Authors!A488, 1, 0))+1</f>
         <v>7</v>
       </c>
       <c r="D488">
@@ -10555,8 +10557,8 @@
         <v>480</v>
       </c>
       <c r="C489">
-        <f t="array" ref="C489">SUM(IF(Connections!A489:B2463=Authors!A489, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C489">SUM(IF(Connections!$A$2:$B$1976=Authors!A489, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D489">
         <v>1</v>
@@ -10570,7 +10572,7 @@
         <v>237</v>
       </c>
       <c r="C490">
-        <f t="array" ref="C490">SUM(IF(Connections!A490:B2464=Authors!A490, 1, 0))+1</f>
+        <f t="array" ref="C490">SUM(IF(Connections!$A$2:$B$1976=Authors!A490, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D490">
@@ -10585,7 +10587,7 @@
         <v>482</v>
       </c>
       <c r="C491">
-        <f t="array" ref="C491">SUM(IF(Connections!A491:B2465=Authors!A491, 1, 0))+1</f>
+        <f t="array" ref="C491">SUM(IF(Connections!$A$2:$B$1976=Authors!A491, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D491">
@@ -10600,7 +10602,7 @@
         <v>483</v>
       </c>
       <c r="C492">
-        <f t="array" ref="C492">SUM(IF(Connections!A492:B2466=Authors!A492, 1, 0))+1</f>
+        <f t="array" ref="C492">SUM(IF(Connections!$A$2:$B$1976=Authors!A492, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D492">
@@ -10615,7 +10617,7 @@
         <v>484</v>
       </c>
       <c r="C493">
-        <f t="array" ref="C493">SUM(IF(Connections!A493:B2467=Authors!A493, 1, 0))+1</f>
+        <f t="array" ref="C493">SUM(IF(Connections!$A$2:$B$1976=Authors!A493, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D493">
@@ -10630,7 +10632,7 @@
         <v>485</v>
       </c>
       <c r="C494">
-        <f t="array" ref="C494">SUM(IF(Connections!A494:B2468=Authors!A494, 1, 0))+1</f>
+        <f t="array" ref="C494">SUM(IF(Connections!$A$2:$B$1976=Authors!A494, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D494">
@@ -10645,7 +10647,7 @@
         <v>701</v>
       </c>
       <c r="C495">
-        <f t="array" ref="C495">SUM(IF(Connections!A495:B2469=Authors!A495, 1, 0))+1</f>
+        <f t="array" ref="C495">SUM(IF(Connections!$A$2:$B$1976=Authors!A495, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D495">
@@ -10660,7 +10662,7 @@
         <v>486</v>
       </c>
       <c r="C496">
-        <f t="array" ref="C496">SUM(IF(Connections!A496:B2470=Authors!A496, 1, 0))+1</f>
+        <f t="array" ref="C496">SUM(IF(Connections!$A$2:$B$1976=Authors!A496, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D496">
@@ -10675,7 +10677,7 @@
         <v>487</v>
       </c>
       <c r="C497">
-        <f t="array" ref="C497">SUM(IF(Connections!A497:B2471=Authors!A497, 1, 0))+1</f>
+        <f t="array" ref="C497">SUM(IF(Connections!$A$2:$B$1976=Authors!A497, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D497">
@@ -10690,7 +10692,7 @@
         <v>488</v>
       </c>
       <c r="C498">
-        <f t="array" ref="C498">SUM(IF(Connections!A498:B2472=Authors!A498, 1, 0))+1</f>
+        <f t="array" ref="C498">SUM(IF(Connections!$A$2:$B$1976=Authors!A498, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D498">
@@ -10705,7 +10707,7 @@
         <v>489</v>
       </c>
       <c r="C499">
-        <f t="array" ref="C499">SUM(IF(Connections!A499:B2473=Authors!A499, 1, 0))+1</f>
+        <f t="array" ref="C499">SUM(IF(Connections!$A$2:$B$1976=Authors!A499, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D499">
@@ -10720,7 +10722,7 @@
         <v>931</v>
       </c>
       <c r="C500">
-        <f t="array" ref="C500">SUM(IF(Connections!A500:B2474=Authors!A500, 1, 0))+1</f>
+        <f t="array" ref="C500">SUM(IF(Connections!$A$2:$B$1976=Authors!A500, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D500">
@@ -10735,7 +10737,7 @@
         <v>490</v>
       </c>
       <c r="C501">
-        <f t="array" ref="C501">SUM(IF(Connections!A501:B2475=Authors!A501, 1, 0))+1</f>
+        <f t="array" ref="C501">SUM(IF(Connections!$A$2:$B$1976=Authors!A501, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D501">
@@ -10750,8 +10752,8 @@
         <v>491</v>
       </c>
       <c r="C502">
-        <f t="array" ref="C502">SUM(IF(Connections!A502:B2476=Authors!A502, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C502">SUM(IF(Connections!$A$2:$B$1976=Authors!A502, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D502">
         <v>1</v>
@@ -10765,7 +10767,7 @@
         <v>492</v>
       </c>
       <c r="C503">
-        <f t="array" ref="C503">SUM(IF(Connections!A503:B2477=Authors!A503, 1, 0))+1</f>
+        <f t="array" ref="C503">SUM(IF(Connections!$A$2:$B$1976=Authors!A503, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D503">
@@ -10780,7 +10782,7 @@
         <v>493</v>
       </c>
       <c r="C504">
-        <f t="array" ref="C504">SUM(IF(Connections!A504:B2478=Authors!A504, 1, 0))+1</f>
+        <f t="array" ref="C504">SUM(IF(Connections!$A$2:$B$1976=Authors!A504, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D504">
@@ -10795,7 +10797,7 @@
         <v>494</v>
       </c>
       <c r="C505">
-        <f t="array" ref="C505">SUM(IF(Connections!A505:B2479=Authors!A505, 1, 0))+1</f>
+        <f t="array" ref="C505">SUM(IF(Connections!$A$2:$B$1976=Authors!A505, 1, 0))+1</f>
         <v>8</v>
       </c>
       <c r="D505">
@@ -10810,8 +10812,8 @@
         <v>495</v>
       </c>
       <c r="C506">
-        <f t="array" ref="C506">SUM(IF(Connections!A506:B2480=Authors!A506, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C506">SUM(IF(Connections!$A$2:$B$1976=Authors!A506, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D506">
         <v>1</v>
@@ -10825,7 +10827,7 @@
         <v>496</v>
       </c>
       <c r="C507">
-        <f t="array" ref="C507">SUM(IF(Connections!A507:B2481=Authors!A507, 1, 0))+1</f>
+        <f t="array" ref="C507">SUM(IF(Connections!$A$2:$B$1976=Authors!A507, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D507">
@@ -10840,8 +10842,8 @@
         <v>497</v>
       </c>
       <c r="C508">
-        <f t="array" ref="C508">SUM(IF(Connections!A508:B2482=Authors!A508, 1, 0))+1</f>
-        <v>7</v>
+        <f t="array" ref="C508">SUM(IF(Connections!$A$2:$B$1976=Authors!A508, 1, 0))+1</f>
+        <v>8</v>
       </c>
       <c r="D508">
         <v>1</v>
@@ -10855,8 +10857,8 @@
         <v>668</v>
       </c>
       <c r="C509">
-        <f t="array" ref="C509">SUM(IF(Connections!A509:B2483=Authors!A509, 1, 0))+1</f>
-        <v>4</v>
+        <f t="array" ref="C509">SUM(IF(Connections!$A$2:$B$1976=Authors!A509, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D509">
         <v>1</v>
@@ -10870,7 +10872,7 @@
         <v>703</v>
       </c>
       <c r="C510">
-        <f t="array" ref="C510">SUM(IF(Connections!A510:B2484=Authors!A510, 1, 0))+1</f>
+        <f t="array" ref="C510">SUM(IF(Connections!$A$2:$B$1976=Authors!A510, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D510">
@@ -10885,8 +10887,8 @@
         <v>500</v>
       </c>
       <c r="C511">
-        <f t="array" ref="C511">SUM(IF(Connections!A511:B2485=Authors!A511, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C511">SUM(IF(Connections!$A$2:$B$1976=Authors!A511, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D511">
         <v>1</v>
@@ -10900,8 +10902,8 @@
         <v>128</v>
       </c>
       <c r="C512">
-        <f t="array" ref="C512">SUM(IF(Connections!A512:B2486=Authors!A512, 1, 0))+1</f>
-        <v>10</v>
+        <f t="array" ref="C512">SUM(IF(Connections!$A$2:$B$1976=Authors!A512, 1, 0))+1</f>
+        <v>12</v>
       </c>
       <c r="D512">
         <v>1</v>
@@ -10915,7 +10917,7 @@
         <v>502</v>
       </c>
       <c r="C513">
-        <f t="array" ref="C513">SUM(IF(Connections!A513:B2487=Authors!A513, 1, 0))+1</f>
+        <f t="array" ref="C513">SUM(IF(Connections!$A$2:$B$1976=Authors!A513, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D513">
@@ -10930,7 +10932,7 @@
         <v>503</v>
       </c>
       <c r="C514">
-        <f t="array" ref="C514">SUM(IF(Connections!A514:B2488=Authors!A514, 1, 0))+1</f>
+        <f t="array" ref="C514">SUM(IF(Connections!$A$2:$B$1976=Authors!A514, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D514">
@@ -10945,7 +10947,7 @@
         <v>569</v>
       </c>
       <c r="C515">
-        <f t="array" ref="C515">SUM(IF(Connections!A515:B2489=Authors!A515, 1, 0))+1</f>
+        <f t="array" ref="C515">SUM(IF(Connections!$A$2:$B$1976=Authors!A515, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D515">
@@ -10960,8 +10962,8 @@
         <v>504</v>
       </c>
       <c r="C516">
-        <f t="array" ref="C516">SUM(IF(Connections!A516:B2490=Authors!A516, 1, 0))+1</f>
-        <v>10</v>
+        <f t="array" ref="C516">SUM(IF(Connections!$A$2:$B$1976=Authors!A516, 1, 0))+1</f>
+        <v>12</v>
       </c>
       <c r="D516">
         <v>1</v>
@@ -10975,7 +10977,7 @@
         <v>505</v>
       </c>
       <c r="C517">
-        <f t="array" ref="C517">SUM(IF(Connections!A517:B2491=Authors!A517, 1, 0))+1</f>
+        <f t="array" ref="C517">SUM(IF(Connections!$A$2:$B$1976=Authors!A517, 1, 0))+1</f>
         <v>8</v>
       </c>
       <c r="D517">
@@ -10990,7 +10992,7 @@
         <v>506</v>
       </c>
       <c r="C518">
-        <f t="array" ref="C518">SUM(IF(Connections!A518:B2492=Authors!A518, 1, 0))+1</f>
+        <f t="array" ref="C518">SUM(IF(Connections!$A$2:$B$1976=Authors!A518, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D518">
@@ -11005,7 +11007,7 @@
         <v>874</v>
       </c>
       <c r="C519">
-        <f t="array" ref="C519">SUM(IF(Connections!A519:B2493=Authors!A519, 1, 0))+1</f>
+        <f t="array" ref="C519">SUM(IF(Connections!$A$2:$B$1976=Authors!A519, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D519">
@@ -11020,7 +11022,7 @@
         <v>614</v>
       </c>
       <c r="C520">
-        <f t="array" ref="C520">SUM(IF(Connections!A520:B2494=Authors!A520, 1, 0))+1</f>
+        <f t="array" ref="C520">SUM(IF(Connections!$A$2:$B$1976=Authors!A520, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D520">
@@ -11035,7 +11037,7 @@
         <v>295</v>
       </c>
       <c r="C521">
-        <f t="array" ref="C521">SUM(IF(Connections!A521:B2495=Authors!A521, 1, 0))+1</f>
+        <f t="array" ref="C521">SUM(IF(Connections!$A$2:$B$1976=Authors!A521, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D521">
@@ -11050,8 +11052,8 @@
         <v>510</v>
       </c>
       <c r="C522">
-        <f t="array" ref="C522">SUM(IF(Connections!A522:B2496=Authors!A522, 1, 0))+1</f>
-        <v>6</v>
+        <f t="array" ref="C522">SUM(IF(Connections!$A$2:$B$1976=Authors!A522, 1, 0))+1</f>
+        <v>7</v>
       </c>
       <c r="D522">
         <v>1</v>
@@ -11065,8 +11067,8 @@
         <v>511</v>
       </c>
       <c r="C523">
-        <f t="array" ref="C523">SUM(IF(Connections!A523:B2497=Authors!A523, 1, 0))+1</f>
-        <v>7</v>
+        <f t="array" ref="C523">SUM(IF(Connections!$A$2:$B$1976=Authors!A523, 1, 0))+1</f>
+        <v>10</v>
       </c>
       <c r="D523">
         <v>1</v>
@@ -11080,8 +11082,8 @@
         <v>512</v>
       </c>
       <c r="C524">
-        <f t="array" ref="C524">SUM(IF(Connections!A524:B2498=Authors!A524, 1, 0))+1</f>
-        <v>8</v>
+        <f t="array" ref="C524">SUM(IF(Connections!$A$2:$B$1976=Authors!A524, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D524">
         <v>1</v>
@@ -11095,8 +11097,8 @@
         <v>541</v>
       </c>
       <c r="C525">
-        <f t="array" ref="C525">SUM(IF(Connections!A525:B2499=Authors!A525, 1, 0))+1</f>
-        <v>8</v>
+        <f t="array" ref="C525">SUM(IF(Connections!$A$2:$B$1976=Authors!A525, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D525">
         <v>1</v>
@@ -11110,8 +11112,8 @@
         <v>513</v>
       </c>
       <c r="C526">
-        <f t="array" ref="C526">SUM(IF(Connections!A526:B2500=Authors!A526, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C526">SUM(IF(Connections!$A$2:$B$1976=Authors!A526, 1, 0))+1</f>
+        <v>6</v>
       </c>
       <c r="D526">
         <v>1</v>
@@ -11125,8 +11127,8 @@
         <v>514</v>
       </c>
       <c r="C527">
-        <f t="array" ref="C527">SUM(IF(Connections!A527:B2501=Authors!A527, 1, 0))+1</f>
-        <v>8</v>
+        <f t="array" ref="C527">SUM(IF(Connections!$A$2:$B$1976=Authors!A527, 1, 0))+1</f>
+        <v>10</v>
       </c>
       <c r="D527">
         <v>1</v>
@@ -11140,7 +11142,7 @@
         <v>515</v>
       </c>
       <c r="C528">
-        <f t="array" ref="C528">SUM(IF(Connections!A528:B2502=Authors!A528, 1, 0))+1</f>
+        <f t="array" ref="C528">SUM(IF(Connections!$A$2:$B$1976=Authors!A528, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D528">
@@ -11155,7 +11157,7 @@
         <v>816</v>
       </c>
       <c r="C529">
-        <f t="array" ref="C529">SUM(IF(Connections!A529:B2503=Authors!A529, 1, 0))+1</f>
+        <f t="array" ref="C529">SUM(IF(Connections!$A$2:$B$1976=Authors!A529, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D529">
@@ -11170,7 +11172,7 @@
         <v>517</v>
       </c>
       <c r="C530">
-        <f t="array" ref="C530">SUM(IF(Connections!A530:B2504=Authors!A530, 1, 0))+1</f>
+        <f t="array" ref="C530">SUM(IF(Connections!$A$2:$B$1976=Authors!A530, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D530">
@@ -11185,7 +11187,7 @@
         <v>543</v>
       </c>
       <c r="C531">
-        <f t="array" ref="C531">SUM(IF(Connections!A531:B2505=Authors!A531, 1, 0))+1</f>
+        <f t="array" ref="C531">SUM(IF(Connections!$A$2:$B$1976=Authors!A531, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D531">
@@ -11200,7 +11202,7 @@
         <v>519</v>
       </c>
       <c r="C532">
-        <f t="array" ref="C532">SUM(IF(Connections!A532:B2506=Authors!A532, 1, 0))+1</f>
+        <f t="array" ref="C532">SUM(IF(Connections!$A$2:$B$1976=Authors!A532, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D532">
@@ -11215,8 +11217,8 @@
         <v>520</v>
       </c>
       <c r="C533">
-        <f t="array" ref="C533">SUM(IF(Connections!A533:B2507=Authors!A533, 1, 0))+1</f>
-        <v>18</v>
+        <f t="array" ref="C533">SUM(IF(Connections!$A$2:$B$1976=Authors!A533, 1, 0))+1</f>
+        <v>21</v>
       </c>
       <c r="D533">
         <v>1</v>
@@ -11230,7 +11232,7 @@
         <v>521</v>
       </c>
       <c r="C534">
-        <f t="array" ref="C534">SUM(IF(Connections!A534:B2508=Authors!A534, 1, 0))+1</f>
+        <f t="array" ref="C534">SUM(IF(Connections!$A$2:$B$1976=Authors!A534, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D534">
@@ -11245,8 +11247,8 @@
         <v>370</v>
       </c>
       <c r="C535">
-        <f t="array" ref="C535">SUM(IF(Connections!A535:B2509=Authors!A535, 1, 0))+1</f>
-        <v>6</v>
+        <f t="array" ref="C535">SUM(IF(Connections!$A$2:$B$1976=Authors!A535, 1, 0))+1</f>
+        <v>7</v>
       </c>
       <c r="D535">
         <v>1</v>
@@ -11260,7 +11262,7 @@
         <v>707</v>
       </c>
       <c r="C536">
-        <f t="array" ref="C536">SUM(IF(Connections!A536:B2510=Authors!A536, 1, 0))+1</f>
+        <f t="array" ref="C536">SUM(IF(Connections!$A$2:$B$1976=Authors!A536, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D536">
@@ -11275,7 +11277,7 @@
         <v>380</v>
       </c>
       <c r="C537">
-        <f t="array" ref="C537">SUM(IF(Connections!A537:B2511=Authors!A537, 1, 0))+1</f>
+        <f t="array" ref="C537">SUM(IF(Connections!$A$2:$B$1976=Authors!A537, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D537">
@@ -11290,8 +11292,8 @@
         <v>525</v>
       </c>
       <c r="C538">
-        <f t="array" ref="C538">SUM(IF(Connections!A538:B2512=Authors!A538, 1, 0))+1</f>
-        <v>13</v>
+        <f t="array" ref="C538">SUM(IF(Connections!$A$2:$B$1976=Authors!A538, 1, 0))+1</f>
+        <v>16</v>
       </c>
       <c r="D538">
         <v>1</v>
@@ -11305,7 +11307,7 @@
         <v>526</v>
       </c>
       <c r="C539">
-        <f t="array" ref="C539">SUM(IF(Connections!A539:B2513=Authors!A539, 1, 0))+1</f>
+        <f t="array" ref="C539">SUM(IF(Connections!$A$2:$B$1976=Authors!A539, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D539">
@@ -11320,7 +11322,7 @@
         <v>481</v>
       </c>
       <c r="C540">
-        <f t="array" ref="C540">SUM(IF(Connections!A540:B2514=Authors!A540, 1, 0))+1</f>
+        <f t="array" ref="C540">SUM(IF(Connections!$A$2:$B$1976=Authors!A540, 1, 0))+1</f>
         <v>7</v>
       </c>
       <c r="D540">
@@ -11335,7 +11337,7 @@
         <v>528</v>
       </c>
       <c r="C541">
-        <f t="array" ref="C541">SUM(IF(Connections!A541:B2515=Authors!A541, 1, 0))+1</f>
+        <f t="array" ref="C541">SUM(IF(Connections!$A$2:$B$1976=Authors!A541, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D541">
@@ -11350,8 +11352,8 @@
         <v>529</v>
       </c>
       <c r="C542">
-        <f t="array" ref="C542">SUM(IF(Connections!A542:B2516=Authors!A542, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C542">SUM(IF(Connections!$A$2:$B$1976=Authors!A542, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D542">
         <v>1</v>
@@ -11365,8 +11367,8 @@
         <v>530</v>
       </c>
       <c r="C543">
-        <f t="array" ref="C543">SUM(IF(Connections!A543:B2517=Authors!A543, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C543">SUM(IF(Connections!$A$2:$B$1976=Authors!A543, 1, 0))+1</f>
+        <v>2</v>
       </c>
       <c r="D543">
         <v>1</v>
@@ -11380,8 +11382,8 @@
         <v>531</v>
       </c>
       <c r="C544">
-        <f t="array" ref="C544">SUM(IF(Connections!A544:B2518=Authors!A544, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C544">SUM(IF(Connections!$A$2:$B$1976=Authors!A544, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D544">
         <v>1</v>
@@ -11395,8 +11397,8 @@
         <v>863</v>
       </c>
       <c r="C545">
-        <f t="array" ref="C545">SUM(IF(Connections!A545:B2519=Authors!A545, 1, 0))+1</f>
-        <v>32</v>
+        <f t="array" ref="C545">SUM(IF(Connections!$A$2:$B$1976=Authors!A545, 1, 0))+1</f>
+        <v>33</v>
       </c>
       <c r="D545">
         <v>1</v>
@@ -11410,7 +11412,7 @@
         <v>433</v>
       </c>
       <c r="C546">
-        <f t="array" ref="C546">SUM(IF(Connections!A546:B2520=Authors!A546, 1, 0))+1</f>
+        <f t="array" ref="C546">SUM(IF(Connections!$A$2:$B$1976=Authors!A546, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D546">
@@ -11425,7 +11427,7 @@
         <v>256</v>
       </c>
       <c r="C547">
-        <f t="array" ref="C547">SUM(IF(Connections!A547:B2521=Authors!A547, 1, 0))+1</f>
+        <f t="array" ref="C547">SUM(IF(Connections!$A$2:$B$1976=Authors!A547, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D547">
@@ -11440,7 +11442,7 @@
         <v>535</v>
       </c>
       <c r="C548">
-        <f t="array" ref="C548">SUM(IF(Connections!A548:B2522=Authors!A548, 1, 0))+1</f>
+        <f t="array" ref="C548">SUM(IF(Connections!$A$2:$B$1976=Authors!A548, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D548">
@@ -11455,7 +11457,7 @@
         <v>536</v>
       </c>
       <c r="C549">
-        <f t="array" ref="C549">SUM(IF(Connections!A549:B2523=Authors!A549, 1, 0))+1</f>
+        <f t="array" ref="C549">SUM(IF(Connections!$A$2:$B$1976=Authors!A549, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D549">
@@ -11470,7 +11472,7 @@
         <v>462</v>
       </c>
       <c r="C550">
-        <f t="array" ref="C550">SUM(IF(Connections!A550:B2524=Authors!A550, 1, 0))+1</f>
+        <f t="array" ref="C550">SUM(IF(Connections!$A$2:$B$1976=Authors!A550, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D550">
@@ -11485,7 +11487,7 @@
         <v>538</v>
       </c>
       <c r="C551">
-        <f t="array" ref="C551">SUM(IF(Connections!A551:B2525=Authors!A551, 1, 0))+1</f>
+        <f t="array" ref="C551">SUM(IF(Connections!$A$2:$B$1976=Authors!A551, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D551">
@@ -11500,8 +11502,8 @@
         <v>57</v>
       </c>
       <c r="C552">
-        <f t="array" ref="C552">SUM(IF(Connections!A552:B2526=Authors!A552, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C552">SUM(IF(Connections!$A$2:$B$1976=Authors!A552, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D552">
         <v>1</v>
@@ -11515,8 +11517,8 @@
         <v>53</v>
       </c>
       <c r="C553">
-        <f t="array" ref="C553">SUM(IF(Connections!A553:B2527=Authors!A553, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C553">SUM(IF(Connections!$A$2:$B$1976=Authors!A553, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D553">
         <v>1</v>
@@ -11530,8 +11532,8 @@
         <v>708</v>
       </c>
       <c r="C554">
-        <f t="array" ref="C554">SUM(IF(Connections!A554:B2528=Authors!A554, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C554">SUM(IF(Connections!$A$2:$B$1976=Authors!A554, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D554">
         <v>1</v>
@@ -11545,7 +11547,7 @@
         <v>542</v>
       </c>
       <c r="C555">
-        <f t="array" ref="C555">SUM(IF(Connections!A555:B2529=Authors!A555, 1, 0))+1</f>
+        <f t="array" ref="C555">SUM(IF(Connections!$A$2:$B$1976=Authors!A555, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D555">
@@ -11560,8 +11562,8 @@
         <v>518</v>
       </c>
       <c r="C556">
-        <f t="array" ref="C556">SUM(IF(Connections!A556:B2530=Authors!A556, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C556">SUM(IF(Connections!$A$2:$B$1976=Authors!A556, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D556">
         <v>1</v>
@@ -11575,8 +11577,8 @@
         <v>544</v>
       </c>
       <c r="C557">
-        <f t="array" ref="C557">SUM(IF(Connections!A557:B2531=Authors!A557, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C557">SUM(IF(Connections!$A$2:$B$1976=Authors!A557, 1, 0))+1</f>
+        <v>6</v>
       </c>
       <c r="D557">
         <v>1</v>
@@ -11590,8 +11592,8 @@
         <v>545</v>
       </c>
       <c r="C558">
-        <f t="array" ref="C558">SUM(IF(Connections!A558:B2532=Authors!A558, 1, 0))+1</f>
-        <v>6</v>
+        <f t="array" ref="C558">SUM(IF(Connections!$A$2:$B$1976=Authors!A558, 1, 0))+1</f>
+        <v>7</v>
       </c>
       <c r="D558">
         <v>1</v>
@@ -11605,8 +11607,8 @@
         <v>547</v>
       </c>
       <c r="C559">
-        <f t="array" ref="C559">SUM(IF(Connections!A559:B2533=Authors!A559, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C559">SUM(IF(Connections!$A$2:$B$1976=Authors!A559, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D559">
         <v>1</v>
@@ -11620,7 +11622,7 @@
         <v>548</v>
       </c>
       <c r="C560">
-        <f t="array" ref="C560">SUM(IF(Connections!A560:B2534=Authors!A560, 1, 0))+1</f>
+        <f t="array" ref="C560">SUM(IF(Connections!$A$2:$B$1976=Authors!A560, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D560">
@@ -11635,8 +11637,8 @@
         <v>549</v>
       </c>
       <c r="C561">
-        <f t="array" ref="C561">SUM(IF(Connections!A561:B2535=Authors!A561, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C561">SUM(IF(Connections!$A$2:$B$1976=Authors!A561, 1, 0))+1</f>
+        <v>6</v>
       </c>
       <c r="D561">
         <v>1</v>
@@ -11650,8 +11652,8 @@
         <v>550</v>
       </c>
       <c r="C562">
-        <f t="array" ref="C562">SUM(IF(Connections!A562:B2536=Authors!A562, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C562">SUM(IF(Connections!$A$2:$B$1976=Authors!A562, 1, 0))+1</f>
+        <v>2</v>
       </c>
       <c r="D562">
         <v>1</v>
@@ -11665,8 +11667,8 @@
         <v>551</v>
       </c>
       <c r="C563">
-        <f t="array" ref="C563">SUM(IF(Connections!A563:B2537=Authors!A563, 1, 0))+1</f>
-        <v>14</v>
+        <f t="array" ref="C563">SUM(IF(Connections!$A$2:$B$1976=Authors!A563, 1, 0))+1</f>
+        <v>17</v>
       </c>
       <c r="D563">
         <v>1</v>
@@ -11680,8 +11682,8 @@
         <v>91</v>
       </c>
       <c r="C564">
-        <f t="array" ref="C564">SUM(IF(Connections!A564:B2538=Authors!A564, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C564">SUM(IF(Connections!$A$2:$B$1976=Authors!A564, 1, 0))+1</f>
+        <v>12</v>
       </c>
       <c r="D564">
         <v>1</v>
@@ -11695,8 +11697,8 @@
         <v>553</v>
       </c>
       <c r="C565">
-        <f t="array" ref="C565">SUM(IF(Connections!A565:B2539=Authors!A565, 1, 0))+1</f>
-        <v>8</v>
+        <f t="array" ref="C565">SUM(IF(Connections!$A$2:$B$1976=Authors!A565, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D565">
         <v>1</v>
@@ -11710,8 +11712,8 @@
         <v>554</v>
       </c>
       <c r="C566">
-        <f t="array" ref="C566">SUM(IF(Connections!A566:B2540=Authors!A566, 1, 0))+1</f>
-        <v>6</v>
+        <f t="array" ref="C566">SUM(IF(Connections!$A$2:$B$1976=Authors!A566, 1, 0))+1</f>
+        <v>7</v>
       </c>
       <c r="D566">
         <v>1</v>
@@ -11725,8 +11727,8 @@
         <v>555</v>
       </c>
       <c r="C567">
-        <f t="array" ref="C567">SUM(IF(Connections!A567:B2541=Authors!A567, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C567">SUM(IF(Connections!$A$2:$B$1976=Authors!A567, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D567">
         <v>1</v>
@@ -11740,7 +11742,7 @@
         <v>556</v>
       </c>
       <c r="C568">
-        <f t="array" ref="C568">SUM(IF(Connections!A568:B2542=Authors!A568, 1, 0))+1</f>
+        <f t="array" ref="C568">SUM(IF(Connections!$A$2:$B$1976=Authors!A568, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D568">
@@ -11755,8 +11757,8 @@
         <v>557</v>
       </c>
       <c r="C569">
-        <f t="array" ref="C569">SUM(IF(Connections!A569:B2543=Authors!A569, 1, 0))+1</f>
-        <v>4</v>
+        <f t="array" ref="C569">SUM(IF(Connections!$A$2:$B$1976=Authors!A569, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D569">
         <v>1</v>
@@ -11770,7 +11772,7 @@
         <v>558</v>
       </c>
       <c r="C570">
-        <f t="array" ref="C570">SUM(IF(Connections!A570:B2544=Authors!A570, 1, 0))+1</f>
+        <f t="array" ref="C570">SUM(IF(Connections!$A$2:$B$1976=Authors!A570, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D570">
@@ -11785,8 +11787,8 @@
         <v>560</v>
       </c>
       <c r="C571">
-        <f t="array" ref="C571">SUM(IF(Connections!A571:B2545=Authors!A571, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C571">SUM(IF(Connections!$A$2:$B$1976=Authors!A571, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D571">
         <v>1</v>
@@ -11800,8 +11802,8 @@
         <v>561</v>
       </c>
       <c r="C572">
-        <f t="array" ref="C572">SUM(IF(Connections!A572:B2546=Authors!A572, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C572">SUM(IF(Connections!$A$2:$B$1976=Authors!A572, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D572">
         <v>1</v>
@@ -11815,7 +11817,7 @@
         <v>562</v>
       </c>
       <c r="C573">
-        <f t="array" ref="C573">SUM(IF(Connections!A573:B2547=Authors!A573, 1, 0))+1</f>
+        <f t="array" ref="C573">SUM(IF(Connections!$A$2:$B$1976=Authors!A573, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D573">
@@ -11830,8 +11832,8 @@
         <v>941</v>
       </c>
       <c r="C574">
-        <f t="array" ref="C574">SUM(IF(Connections!A574:B2548=Authors!A574, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C574">SUM(IF(Connections!$A$2:$B$1976=Authors!A574, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D574">
         <v>1</v>
@@ -11845,7 +11847,7 @@
         <v>563</v>
       </c>
       <c r="C575">
-        <f t="array" ref="C575">SUM(IF(Connections!A575:B2549=Authors!A575, 1, 0))+1</f>
+        <f t="array" ref="C575">SUM(IF(Connections!$A$2:$B$1976=Authors!A575, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D575">
@@ -11860,7 +11862,7 @@
         <v>264</v>
       </c>
       <c r="C576">
-        <f t="array" ref="C576">SUM(IF(Connections!A576:B2550=Authors!A576, 1, 0))+1</f>
+        <f t="array" ref="C576">SUM(IF(Connections!$A$2:$B$1976=Authors!A576, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D576">
@@ -11875,8 +11877,8 @@
         <v>564</v>
       </c>
       <c r="C577">
-        <f t="array" ref="C577">SUM(IF(Connections!A577:B2551=Authors!A577, 1, 0))+1</f>
-        <v>4</v>
+        <f t="array" ref="C577">SUM(IF(Connections!$A$2:$B$1976=Authors!A577, 1, 0))+1</f>
+        <v>6</v>
       </c>
       <c r="D577">
         <v>1</v>
@@ -11890,8 +11892,8 @@
         <v>565</v>
       </c>
       <c r="C578">
-        <f t="array" ref="C578">SUM(IF(Connections!A578:B2552=Authors!A578, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C578">SUM(IF(Connections!$A$2:$B$1976=Authors!A578, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D578">
         <v>1</v>
@@ -11905,7 +11907,7 @@
         <v>566</v>
       </c>
       <c r="C579">
-        <f t="array" ref="C579">SUM(IF(Connections!A579:B2553=Authors!A579, 1, 0))+1</f>
+        <f t="array" ref="C579">SUM(IF(Connections!$A$2:$B$1976=Authors!A579, 1, 0))+1</f>
         <v>10</v>
       </c>
       <c r="D579">
@@ -11920,7 +11922,7 @@
         <v>567</v>
       </c>
       <c r="C580">
-        <f t="array" ref="C580">SUM(IF(Connections!A580:B2554=Authors!A580, 1, 0))+1</f>
+        <f t="array" ref="C580">SUM(IF(Connections!$A$2:$B$1976=Authors!A580, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D580">
@@ -11935,8 +11937,8 @@
         <v>568</v>
       </c>
       <c r="C581">
-        <f t="array" ref="C581">SUM(IF(Connections!A581:B2555=Authors!A581, 1, 0))+1</f>
-        <v>19</v>
+        <f t="array" ref="C581">SUM(IF(Connections!$A$2:$B$1976=Authors!A581, 1, 0))+1</f>
+        <v>22</v>
       </c>
       <c r="D581">
         <v>1</v>
@@ -11950,7 +11952,7 @@
         <v>758</v>
       </c>
       <c r="C582">
-        <f t="array" ref="C582">SUM(IF(Connections!A582:B2556=Authors!A582, 1, 0))+1</f>
+        <f t="array" ref="C582">SUM(IF(Connections!$A$2:$B$1976=Authors!A582, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D582">
@@ -11965,8 +11967,8 @@
         <v>570</v>
       </c>
       <c r="C583">
-        <f t="array" ref="C583">SUM(IF(Connections!A583:B2557=Authors!A583, 1, 0))+1</f>
-        <v>6</v>
+        <f t="array" ref="C583">SUM(IF(Connections!$A$2:$B$1976=Authors!A583, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D583">
         <v>1</v>
@@ -11980,8 +11982,8 @@
         <v>685</v>
       </c>
       <c r="C584">
-        <f t="array" ref="C584">SUM(IF(Connections!A584:B2558=Authors!A584, 1, 0))+1</f>
-        <v>7</v>
+        <f t="array" ref="C584">SUM(IF(Connections!$A$2:$B$1976=Authors!A584, 1, 0))+1</f>
+        <v>8</v>
       </c>
       <c r="D584">
         <v>1</v>
@@ -11995,7 +11997,7 @@
         <v>572</v>
       </c>
       <c r="C585">
-        <f t="array" ref="C585">SUM(IF(Connections!A585:B2559=Authors!A585, 1, 0))+1</f>
+        <f t="array" ref="C585">SUM(IF(Connections!$A$2:$B$1976=Authors!A585, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D585">
@@ -12010,7 +12012,7 @@
         <v>573</v>
       </c>
       <c r="C586">
-        <f t="array" ref="C586">SUM(IF(Connections!A586:B2560=Authors!A586, 1, 0))+1</f>
+        <f t="array" ref="C586">SUM(IF(Connections!$A$2:$B$1976=Authors!A586, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D586">
@@ -12025,8 +12027,8 @@
         <v>574</v>
       </c>
       <c r="C587">
-        <f t="array" ref="C587">SUM(IF(Connections!A587:B2561=Authors!A587, 1, 0))+1</f>
-        <v>8</v>
+        <f t="array" ref="C587">SUM(IF(Connections!$A$2:$B$1976=Authors!A587, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D587">
         <v>1</v>
@@ -12040,8 +12042,8 @@
         <v>715</v>
       </c>
       <c r="C588">
-        <f t="array" ref="C588">SUM(IF(Connections!A588:B2562=Authors!A588, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C588">SUM(IF(Connections!$A$2:$B$1976=Authors!A588, 1, 0))+1</f>
+        <v>8</v>
       </c>
       <c r="D588">
         <v>1</v>
@@ -12055,8 +12057,8 @@
         <v>575</v>
       </c>
       <c r="C589">
-        <f t="array" ref="C589">SUM(IF(Connections!A589:B2563=Authors!A589, 1, 0))+1</f>
-        <v>6</v>
+        <f t="array" ref="C589">SUM(IF(Connections!$A$2:$B$1976=Authors!A589, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D589">
         <v>1</v>
@@ -12070,7 +12072,7 @@
         <v>576</v>
       </c>
       <c r="C590">
-        <f t="array" ref="C590">SUM(IF(Connections!A590:B2564=Authors!A590, 1, 0))+1</f>
+        <f t="array" ref="C590">SUM(IF(Connections!$A$2:$B$1976=Authors!A590, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D590">
@@ -12085,7 +12087,7 @@
         <v>577</v>
       </c>
       <c r="C591">
-        <f t="array" ref="C591">SUM(IF(Connections!A591:B2565=Authors!A591, 1, 0))+1</f>
+        <f t="array" ref="C591">SUM(IF(Connections!$A$2:$B$1976=Authors!A591, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D591">
@@ -12100,7 +12102,7 @@
         <v>578</v>
       </c>
       <c r="C592">
-        <f t="array" ref="C592">SUM(IF(Connections!A592:B2566=Authors!A592, 1, 0))+1</f>
+        <f t="array" ref="C592">SUM(IF(Connections!$A$2:$B$1976=Authors!A592, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D592">
@@ -12115,7 +12117,7 @@
         <v>579</v>
       </c>
       <c r="C593">
-        <f t="array" ref="C593">SUM(IF(Connections!A593:B2567=Authors!A593, 1, 0))+1</f>
+        <f t="array" ref="C593">SUM(IF(Connections!$A$2:$B$1976=Authors!A593, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D593">
@@ -12130,8 +12132,8 @@
         <v>580</v>
       </c>
       <c r="C594">
-        <f t="array" ref="C594">SUM(IF(Connections!A594:B2568=Authors!A594, 1, 0))+1</f>
-        <v>8</v>
+        <f t="array" ref="C594">SUM(IF(Connections!$A$2:$B$1976=Authors!A594, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D594">
         <v>1</v>
@@ -12145,8 +12147,8 @@
         <v>581</v>
       </c>
       <c r="C595">
-        <f t="array" ref="C595">SUM(IF(Connections!A595:B2569=Authors!A595, 1, 0))+1</f>
-        <v>4</v>
+        <f t="array" ref="C595">SUM(IF(Connections!$A$2:$B$1976=Authors!A595, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D595">
         <v>1</v>
@@ -12160,7 +12162,7 @@
         <v>582</v>
       </c>
       <c r="C596">
-        <f t="array" ref="C596">SUM(IF(Connections!A596:B2570=Authors!A596, 1, 0))+1</f>
+        <f t="array" ref="C596">SUM(IF(Connections!$A$2:$B$1976=Authors!A596, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D596">
@@ -12175,7 +12177,7 @@
         <v>777</v>
       </c>
       <c r="C597">
-        <f t="array" ref="C597">SUM(IF(Connections!A597:B2571=Authors!A597, 1, 0))+1</f>
+        <f t="array" ref="C597">SUM(IF(Connections!$A$2:$B$1976=Authors!A597, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D597">
@@ -12190,8 +12192,8 @@
         <v>750</v>
       </c>
       <c r="C598">
-        <f t="array" ref="C598">SUM(IF(Connections!A598:B2572=Authors!A598, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C598">SUM(IF(Connections!$A$2:$B$1976=Authors!A598, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D598">
         <v>1</v>
@@ -12205,7 +12207,7 @@
         <v>584</v>
       </c>
       <c r="C599">
-        <f t="array" ref="C599">SUM(IF(Connections!A599:B2573=Authors!A599, 1, 0))+1</f>
+        <f t="array" ref="C599">SUM(IF(Connections!$A$2:$B$1976=Authors!A599, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D599">
@@ -12220,8 +12222,8 @@
         <v>585</v>
       </c>
       <c r="C600">
-        <f t="array" ref="C600">SUM(IF(Connections!A600:B2574=Authors!A600, 1, 0))+1</f>
-        <v>4</v>
+        <f t="array" ref="C600">SUM(IF(Connections!$A$2:$B$1976=Authors!A600, 1, 0))+1</f>
+        <v>6</v>
       </c>
       <c r="D600">
         <v>1</v>
@@ -12235,8 +12237,8 @@
         <v>586</v>
       </c>
       <c r="C601">
-        <f t="array" ref="C601">SUM(IF(Connections!A601:B2575=Authors!A601, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C601">SUM(IF(Connections!$A$2:$B$1976=Authors!A601, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D601">
         <v>1</v>
@@ -12250,8 +12252,8 @@
         <v>588</v>
       </c>
       <c r="C602">
-        <f t="array" ref="C602">SUM(IF(Connections!A602:B2576=Authors!A602, 1, 0))+1</f>
-        <v>8</v>
+        <f t="array" ref="C602">SUM(IF(Connections!$A$2:$B$1976=Authors!A602, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D602">
         <v>1</v>
@@ -12265,8 +12267,8 @@
         <v>101</v>
       </c>
       <c r="C603">
-        <f t="array" ref="C603">SUM(IF(Connections!A603:B2577=Authors!A603, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C603">SUM(IF(Connections!$A$2:$B$1976=Authors!A603, 1, 0))+1</f>
+        <v>2</v>
       </c>
       <c r="D603">
         <v>1</v>
@@ -12280,7 +12282,7 @@
         <v>590</v>
       </c>
       <c r="C604">
-        <f t="array" ref="C604">SUM(IF(Connections!A604:B2578=Authors!A604, 1, 0))+1</f>
+        <f t="array" ref="C604">SUM(IF(Connections!$A$2:$B$1976=Authors!A604, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D604">
@@ -12295,7 +12297,7 @@
         <v>591</v>
       </c>
       <c r="C605">
-        <f t="array" ref="C605">SUM(IF(Connections!A605:B2579=Authors!A605, 1, 0))+1</f>
+        <f t="array" ref="C605">SUM(IF(Connections!$A$2:$B$1976=Authors!A605, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D605">
@@ -12310,7 +12312,7 @@
         <v>718</v>
       </c>
       <c r="C606">
-        <f t="array" ref="C606">SUM(IF(Connections!A606:B2580=Authors!A606, 1, 0))+1</f>
+        <f t="array" ref="C606">SUM(IF(Connections!$A$2:$B$1976=Authors!A606, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D606">
@@ -12325,8 +12327,8 @@
         <v>593</v>
       </c>
       <c r="C607">
-        <f t="array" ref="C607">SUM(IF(Connections!A607:B2581=Authors!A607, 1, 0))+1</f>
-        <v>18</v>
+        <f t="array" ref="C607">SUM(IF(Connections!$A$2:$B$1976=Authors!A607, 1, 0))+1</f>
+        <v>22</v>
       </c>
       <c r="D607">
         <v>1</v>
@@ -12340,8 +12342,8 @@
         <v>594</v>
       </c>
       <c r="C608">
-        <f t="array" ref="C608">SUM(IF(Connections!A608:B2582=Authors!A608, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C608">SUM(IF(Connections!$A$2:$B$1976=Authors!A608, 1, 0))+1</f>
+        <v>7</v>
       </c>
       <c r="D608">
         <v>1</v>
@@ -12355,8 +12357,8 @@
         <v>595</v>
       </c>
       <c r="C609">
-        <f t="array" ref="C609">SUM(IF(Connections!A609:B2583=Authors!A609, 1, 0))+1</f>
-        <v>8</v>
+        <f t="array" ref="C609">SUM(IF(Connections!$A$2:$B$1976=Authors!A609, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D609">
         <v>1</v>
@@ -12370,8 +12372,8 @@
         <v>596</v>
       </c>
       <c r="C610">
-        <f t="array" ref="C610">SUM(IF(Connections!A610:B2584=Authors!A610, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C610">SUM(IF(Connections!$A$2:$B$1976=Authors!A610, 1, 0))+1</f>
+        <v>2</v>
       </c>
       <c r="D610">
         <v>1</v>
@@ -12385,7 +12387,7 @@
         <v>597</v>
       </c>
       <c r="C611">
-        <f t="array" ref="C611">SUM(IF(Connections!A611:B2585=Authors!A611, 1, 0))+1</f>
+        <f t="array" ref="C611">SUM(IF(Connections!$A$2:$B$1976=Authors!A611, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D611">
@@ -12400,7 +12402,7 @@
         <v>598</v>
       </c>
       <c r="C612">
-        <f t="array" ref="C612">SUM(IF(Connections!A612:B2586=Authors!A612, 1, 0))+1</f>
+        <f t="array" ref="C612">SUM(IF(Connections!$A$2:$B$1976=Authors!A612, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D612">
@@ -12415,7 +12417,7 @@
         <v>599</v>
       </c>
       <c r="C613">
-        <f t="array" ref="C613">SUM(IF(Connections!A613:B2587=Authors!A613, 1, 0))+1</f>
+        <f t="array" ref="C613">SUM(IF(Connections!$A$2:$B$1976=Authors!A613, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D613">
@@ -12430,8 +12432,8 @@
         <v>892</v>
       </c>
       <c r="C614">
-        <f t="array" ref="C614">SUM(IF(Connections!A614:B2588=Authors!A614, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C614">SUM(IF(Connections!$A$2:$B$1976=Authors!A614, 1, 0))+1</f>
+        <v>6</v>
       </c>
       <c r="D614">
         <v>1</v>
@@ -12445,7 +12447,7 @@
         <v>601</v>
       </c>
       <c r="C615">
-        <f t="array" ref="C615">SUM(IF(Connections!A615:B2589=Authors!A615, 1, 0))+1</f>
+        <f t="array" ref="C615">SUM(IF(Connections!$A$2:$B$1976=Authors!A615, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D615">
@@ -12460,8 +12462,8 @@
         <v>602</v>
       </c>
       <c r="C616">
-        <f t="array" ref="C616">SUM(IF(Connections!A616:B2590=Authors!A616, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C616">SUM(IF(Connections!$A$2:$B$1976=Authors!A616, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D616">
         <v>1</v>
@@ -12475,8 +12477,8 @@
         <v>878</v>
       </c>
       <c r="C617">
-        <f t="array" ref="C617">SUM(IF(Connections!A617:B2591=Authors!A617, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C617">SUM(IF(Connections!$A$2:$B$1976=Authors!A617, 1, 0))+1</f>
+        <v>6</v>
       </c>
       <c r="D617">
         <v>1</v>
@@ -12490,7 +12492,7 @@
         <v>604</v>
       </c>
       <c r="C618">
-        <f t="array" ref="C618">SUM(IF(Connections!A618:B2592=Authors!A618, 1, 0))+1</f>
+        <f t="array" ref="C618">SUM(IF(Connections!$A$2:$B$1976=Authors!A618, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D618">
@@ -12505,7 +12507,7 @@
         <v>605</v>
       </c>
       <c r="C619">
-        <f t="array" ref="C619">SUM(IF(Connections!A619:B2593=Authors!A619, 1, 0))+1</f>
+        <f t="array" ref="C619">SUM(IF(Connections!$A$2:$B$1976=Authors!A619, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D619">
@@ -12520,7 +12522,7 @@
         <v>606</v>
       </c>
       <c r="C620">
-        <f t="array" ref="C620">SUM(IF(Connections!A620:B2594=Authors!A620, 1, 0))+1</f>
+        <f t="array" ref="C620">SUM(IF(Connections!$A$2:$B$1976=Authors!A620, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D620">
@@ -12535,7 +12537,7 @@
         <v>607</v>
       </c>
       <c r="C621">
-        <f t="array" ref="C621">SUM(IF(Connections!A621:B2595=Authors!A621, 1, 0))+1</f>
+        <f t="array" ref="C621">SUM(IF(Connections!$A$2:$B$1976=Authors!A621, 1, 0))+1</f>
         <v>8</v>
       </c>
       <c r="D621">
@@ -12550,7 +12552,7 @@
         <v>608</v>
       </c>
       <c r="C622">
-        <f t="array" ref="C622">SUM(IF(Connections!A622:B2596=Authors!A622, 1, 0))+1</f>
+        <f t="array" ref="C622">SUM(IF(Connections!$A$2:$B$1976=Authors!A622, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D622">
@@ -12565,7 +12567,7 @@
         <v>609</v>
       </c>
       <c r="C623">
-        <f t="array" ref="C623">SUM(IF(Connections!A623:B2597=Authors!A623, 1, 0))+1</f>
+        <f t="array" ref="C623">SUM(IF(Connections!$A$2:$B$1976=Authors!A623, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D623">
@@ -12580,8 +12582,8 @@
         <v>610</v>
       </c>
       <c r="C624">
-        <f t="array" ref="C624">SUM(IF(Connections!A624:B2598=Authors!A624, 1, 0))+1</f>
-        <v>4</v>
+        <f t="array" ref="C624">SUM(IF(Connections!$A$2:$B$1976=Authors!A624, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D624">
         <v>1</v>
@@ -12595,7 +12597,7 @@
         <v>611</v>
       </c>
       <c r="C625">
-        <f t="array" ref="C625">SUM(IF(Connections!A625:B2599=Authors!A625, 1, 0))+1</f>
+        <f t="array" ref="C625">SUM(IF(Connections!$A$2:$B$1976=Authors!A625, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D625">
@@ -12610,7 +12612,7 @@
         <v>592</v>
       </c>
       <c r="C626">
-        <f t="array" ref="C626">SUM(IF(Connections!A626:B2600=Authors!A626, 1, 0))+1</f>
+        <f t="array" ref="C626">SUM(IF(Connections!$A$2:$B$1976=Authors!A626, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D626">
@@ -12625,8 +12627,8 @@
         <v>613</v>
       </c>
       <c r="C627">
-        <f t="array" ref="C627">SUM(IF(Connections!A627:B2601=Authors!A627, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C627">SUM(IF(Connections!$A$2:$B$1976=Authors!A627, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D627">
         <v>1</v>
@@ -12640,7 +12642,7 @@
         <v>948</v>
       </c>
       <c r="C628">
-        <f t="array" ref="C628">SUM(IF(Connections!A628:B2602=Authors!A628, 1, 0))+1</f>
+        <f t="array" ref="C628">SUM(IF(Connections!$A$2:$B$1976=Authors!A628, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D628">
@@ -12655,7 +12657,7 @@
         <v>895</v>
       </c>
       <c r="C629">
-        <f t="array" ref="C629">SUM(IF(Connections!A629:B2603=Authors!A629, 1, 0))+1</f>
+        <f t="array" ref="C629">SUM(IF(Connections!$A$2:$B$1976=Authors!A629, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D629">
@@ -12670,8 +12672,8 @@
         <v>617</v>
       </c>
       <c r="C630">
-        <f t="array" ref="C630">SUM(IF(Connections!A630:B2604=Authors!A630, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C630">SUM(IF(Connections!$A$2:$B$1976=Authors!A630, 1, 0))+1</f>
+        <v>2</v>
       </c>
       <c r="D630">
         <v>1</v>
@@ -12685,8 +12687,8 @@
         <v>22</v>
       </c>
       <c r="C631">
-        <f t="array" ref="C631">SUM(IF(Connections!A631:B2605=Authors!A631, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C631">SUM(IF(Connections!$A$2:$B$1976=Authors!A631, 1, 0))+1</f>
+        <v>14</v>
       </c>
       <c r="D631">
         <v>1</v>
@@ -12700,8 +12702,8 @@
         <v>625</v>
       </c>
       <c r="C632">
-        <f t="array" ref="C632">SUM(IF(Connections!A632:B2606=Authors!A632, 1, 0))+1</f>
-        <v>10</v>
+        <f t="array" ref="C632">SUM(IF(Connections!$A$2:$B$1976=Authors!A632, 1, 0))+1</f>
+        <v>12</v>
       </c>
       <c r="D632">
         <v>1</v>
@@ -12715,8 +12717,8 @@
         <v>865</v>
       </c>
       <c r="C633">
-        <f t="array" ref="C633">SUM(IF(Connections!A633:B2607=Authors!A633, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C633">SUM(IF(Connections!$A$2:$B$1976=Authors!A633, 1, 0))+1</f>
+        <v>6</v>
       </c>
       <c r="D633">
         <v>1</v>
@@ -12730,8 +12732,8 @@
         <v>621</v>
       </c>
       <c r="C634">
-        <f t="array" ref="C634">SUM(IF(Connections!A634:B2608=Authors!A634, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C634">SUM(IF(Connections!$A$2:$B$1976=Authors!A634, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D634">
         <v>1</v>
@@ -12745,7 +12747,7 @@
         <v>622</v>
       </c>
       <c r="C635">
-        <f t="array" ref="C635">SUM(IF(Connections!A635:B2609=Authors!A635, 1, 0))+1</f>
+        <f t="array" ref="C635">SUM(IF(Connections!$A$2:$B$1976=Authors!A635, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D635">
@@ -12760,7 +12762,7 @@
         <v>725</v>
       </c>
       <c r="C636">
-        <f t="array" ref="C636">SUM(IF(Connections!A636:B2610=Authors!A636, 1, 0))+1</f>
+        <f t="array" ref="C636">SUM(IF(Connections!$A$2:$B$1976=Authors!A636, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D636">
@@ -12775,8 +12777,8 @@
         <v>58</v>
       </c>
       <c r="C637">
-        <f t="array" ref="C637">SUM(IF(Connections!A637:B2611=Authors!A637, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C637">SUM(IF(Connections!$A$2:$B$1976=Authors!A637, 1, 0))+1</f>
+        <v>12</v>
       </c>
       <c r="D637">
         <v>1</v>
@@ -12790,8 +12792,8 @@
         <v>355</v>
       </c>
       <c r="C638">
-        <f t="array" ref="C638">SUM(IF(Connections!A638:B2612=Authors!A638, 1, 0))+1</f>
-        <v>7</v>
+        <f t="array" ref="C638">SUM(IF(Connections!$A$2:$B$1976=Authors!A638, 1, 0))+1</f>
+        <v>10</v>
       </c>
       <c r="D638">
         <v>1</v>
@@ -12805,8 +12807,8 @@
         <v>627</v>
       </c>
       <c r="C639">
-        <f t="array" ref="C639">SUM(IF(Connections!A639:B2613=Authors!A639, 1, 0))+1</f>
-        <v>4</v>
+        <f t="array" ref="C639">SUM(IF(Connections!$A$2:$B$1976=Authors!A639, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D639">
         <v>1</v>
@@ -12820,7 +12822,7 @@
         <v>628</v>
       </c>
       <c r="C640">
-        <f t="array" ref="C640">SUM(IF(Connections!A640:B2614=Authors!A640, 1, 0))+1</f>
+        <f t="array" ref="C640">SUM(IF(Connections!$A$2:$B$1976=Authors!A640, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D640">
@@ -12835,7 +12837,7 @@
         <v>629</v>
       </c>
       <c r="C641">
-        <f t="array" ref="C641">SUM(IF(Connections!A641:B2615=Authors!A641, 1, 0))+1</f>
+        <f t="array" ref="C641">SUM(IF(Connections!$A$2:$B$1976=Authors!A641, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D641">
@@ -12850,8 +12852,8 @@
         <v>630</v>
       </c>
       <c r="C642">
-        <f t="array" ref="C642">SUM(IF(Connections!A642:B2616=Authors!A642, 1, 0))+1</f>
-        <v>32</v>
+        <f t="array" ref="C642">SUM(IF(Connections!$A$2:$B$1976=Authors!A642, 1, 0))+1</f>
+        <v>40</v>
       </c>
       <c r="D642">
         <v>1</v>
@@ -12865,8 +12867,8 @@
         <v>95</v>
       </c>
       <c r="C643">
-        <f t="array" ref="C643">SUM(IF(Connections!A643:B2617=Authors!A643, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C643">SUM(IF(Connections!$A$2:$B$1976=Authors!A643, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D643">
         <v>1</v>
@@ -12880,7 +12882,7 @@
         <v>632</v>
       </c>
       <c r="C644">
-        <f t="array" ref="C644">SUM(IF(Connections!A644:B2618=Authors!A644, 1, 0))+1</f>
+        <f t="array" ref="C644">SUM(IF(Connections!$A$2:$B$1976=Authors!A644, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D644">
@@ -12895,7 +12897,7 @@
         <v>633</v>
       </c>
       <c r="C645">
-        <f t="array" ref="C645">SUM(IF(Connections!A645:B2619=Authors!A645, 1, 0))+1</f>
+        <f t="array" ref="C645">SUM(IF(Connections!$A$2:$B$1976=Authors!A645, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D645">
@@ -12910,7 +12912,7 @@
         <v>855</v>
       </c>
       <c r="C646">
-        <f t="array" ref="C646">SUM(IF(Connections!A646:B2620=Authors!A646, 1, 0))+1</f>
+        <f t="array" ref="C646">SUM(IF(Connections!$A$2:$B$1976=Authors!A646, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D646">
@@ -12925,7 +12927,7 @@
         <v>838</v>
       </c>
       <c r="C647">
-        <f t="array" ref="C647">SUM(IF(Connections!A647:B2621=Authors!A647, 1, 0))+1</f>
+        <f t="array" ref="C647">SUM(IF(Connections!$A$2:$B$1976=Authors!A647, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D647">
@@ -12940,7 +12942,7 @@
         <v>636</v>
       </c>
       <c r="C648">
-        <f t="array" ref="C648">SUM(IF(Connections!A648:B2622=Authors!A648, 1, 0))+1</f>
+        <f t="array" ref="C648">SUM(IF(Connections!$A$2:$B$1976=Authors!A648, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D648">
@@ -12955,8 +12957,8 @@
         <v>124</v>
       </c>
       <c r="C649">
-        <f t="array" ref="C649">SUM(IF(Connections!A649:B2623=Authors!A649, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C649">SUM(IF(Connections!$A$2:$B$1976=Authors!A649, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D649">
         <v>1</v>
@@ -12970,7 +12972,7 @@
         <v>312</v>
       </c>
       <c r="C650">
-        <f t="array" ref="C650">SUM(IF(Connections!A650:B2624=Authors!A650, 1, 0))+1</f>
+        <f t="array" ref="C650">SUM(IF(Connections!$A$2:$B$1976=Authors!A650, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D650">
@@ -12985,7 +12987,7 @@
         <v>639</v>
       </c>
       <c r="C651">
-        <f t="array" ref="C651">SUM(IF(Connections!A651:B2625=Authors!A651, 1, 0))+1</f>
+        <f t="array" ref="C651">SUM(IF(Connections!$A$2:$B$1976=Authors!A651, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D651">
@@ -13000,8 +13002,8 @@
         <v>640</v>
       </c>
       <c r="C652">
-        <f t="array" ref="C652">SUM(IF(Connections!A652:B2626=Authors!A652, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C652">SUM(IF(Connections!$A$2:$B$1976=Authors!A652, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D652">
         <v>1</v>
@@ -13015,7 +13017,7 @@
         <v>807</v>
       </c>
       <c r="C653">
-        <f t="array" ref="C653">SUM(IF(Connections!A653:B2627=Authors!A653, 1, 0))+1</f>
+        <f t="array" ref="C653">SUM(IF(Connections!$A$2:$B$1976=Authors!A653, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D653">
@@ -13030,8 +13032,8 @@
         <v>641</v>
       </c>
       <c r="C654">
-        <f t="array" ref="C654">SUM(IF(Connections!A654:B2628=Authors!A654, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C654">SUM(IF(Connections!$A$2:$B$1976=Authors!A654, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D654">
         <v>1</v>
@@ -13045,8 +13047,8 @@
         <v>642</v>
       </c>
       <c r="C655">
-        <f t="array" ref="C655">SUM(IF(Connections!A655:B2629=Authors!A655, 1, 0))+1</f>
-        <v>6</v>
+        <f t="array" ref="C655">SUM(IF(Connections!$A$2:$B$1976=Authors!A655, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D655">
         <v>1</v>
@@ -13060,8 +13062,8 @@
         <v>643</v>
       </c>
       <c r="C656">
-        <f t="array" ref="C656">SUM(IF(Connections!A656:B2630=Authors!A656, 1, 0))+1</f>
-        <v>12</v>
+        <f t="array" ref="C656">SUM(IF(Connections!$A$2:$B$1976=Authors!A656, 1, 0))+1</f>
+        <v>14</v>
       </c>
       <c r="D656">
         <v>1</v>
@@ -13075,8 +13077,8 @@
         <v>172</v>
       </c>
       <c r="C657">
-        <f t="array" ref="C657">SUM(IF(Connections!A657:B2631=Authors!A657, 1, 0))+1</f>
-        <v>7</v>
+        <f t="array" ref="C657">SUM(IF(Connections!$A$2:$B$1976=Authors!A657, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D657">
         <v>1</v>
@@ -13090,8 +13092,8 @@
         <v>645</v>
       </c>
       <c r="C658">
-        <f t="array" ref="C658">SUM(IF(Connections!A658:B2632=Authors!A658, 1, 0))+1</f>
-        <v>7</v>
+        <f t="array" ref="C658">SUM(IF(Connections!$A$2:$B$1976=Authors!A658, 1, 0))+1</f>
+        <v>11</v>
       </c>
       <c r="D658">
         <v>1</v>
@@ -13105,7 +13107,7 @@
         <v>646</v>
       </c>
       <c r="C659">
-        <f t="array" ref="C659">SUM(IF(Connections!A659:B2633=Authors!A659, 1, 0))+1</f>
+        <f t="array" ref="C659">SUM(IF(Connections!$A$2:$B$1976=Authors!A659, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D659">
@@ -13120,8 +13122,8 @@
         <v>647</v>
       </c>
       <c r="C660">
-        <f t="array" ref="C660">SUM(IF(Connections!A660:B2634=Authors!A660, 1, 0))+1</f>
-        <v>6</v>
+        <f t="array" ref="C660">SUM(IF(Connections!$A$2:$B$1976=Authors!A660, 1, 0))+1</f>
+        <v>8</v>
       </c>
       <c r="D660">
         <v>1</v>
@@ -13135,7 +13137,7 @@
         <v>648</v>
       </c>
       <c r="C661">
-        <f t="array" ref="C661">SUM(IF(Connections!A661:B2635=Authors!A661, 1, 0))+1</f>
+        <f t="array" ref="C661">SUM(IF(Connections!$A$2:$B$1976=Authors!A661, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D661">
@@ -13150,8 +13152,8 @@
         <v>649</v>
       </c>
       <c r="C662">
-        <f t="array" ref="C662">SUM(IF(Connections!A662:B2636=Authors!A662, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C662">SUM(IF(Connections!$A$2:$B$1976=Authors!A662, 1, 0))+1</f>
+        <v>2</v>
       </c>
       <c r="D662">
         <v>1</v>
@@ -13165,7 +13167,7 @@
         <v>903</v>
       </c>
       <c r="C663">
-        <f t="array" ref="C663">SUM(IF(Connections!A663:B2637=Authors!A663, 1, 0))+1</f>
+        <f t="array" ref="C663">SUM(IF(Connections!$A$2:$B$1976=Authors!A663, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D663">
@@ -13180,7 +13182,7 @@
         <v>651</v>
       </c>
       <c r="C664">
-        <f t="array" ref="C664">SUM(IF(Connections!A664:B2638=Authors!A664, 1, 0))+1</f>
+        <f t="array" ref="C664">SUM(IF(Connections!$A$2:$B$1976=Authors!A664, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D664">
@@ -13195,7 +13197,7 @@
         <v>652</v>
       </c>
       <c r="C665">
-        <f t="array" ref="C665">SUM(IF(Connections!A665:B2639=Authors!A665, 1, 0))+1</f>
+        <f t="array" ref="C665">SUM(IF(Connections!$A$2:$B$1976=Authors!A665, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D665">
@@ -13210,8 +13212,8 @@
         <v>653</v>
       </c>
       <c r="C666">
-        <f t="array" ref="C666">SUM(IF(Connections!A666:B2640=Authors!A666, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C666">SUM(IF(Connections!$A$2:$B$1976=Authors!A666, 1, 0))+1</f>
+        <v>2</v>
       </c>
       <c r="D666">
         <v>1</v>
@@ -13225,7 +13227,7 @@
         <v>223</v>
       </c>
       <c r="C667">
-        <f t="array" ref="C667">SUM(IF(Connections!A667:B2641=Authors!A667, 1, 0))+1</f>
+        <f t="array" ref="C667">SUM(IF(Connections!$A$2:$B$1976=Authors!A667, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D667">
@@ -13240,8 +13242,8 @@
         <v>656</v>
       </c>
       <c r="C668">
-        <f t="array" ref="C668">SUM(IF(Connections!A668:B2642=Authors!A668, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C668">SUM(IF(Connections!$A$2:$B$1976=Authors!A668, 1, 0))+1</f>
+        <v>6</v>
       </c>
       <c r="D668">
         <v>1</v>
@@ -13255,7 +13257,7 @@
         <v>689</v>
       </c>
       <c r="C669">
-        <f t="array" ref="C669">SUM(IF(Connections!A669:B2643=Authors!A669, 1, 0))+1</f>
+        <f t="array" ref="C669">SUM(IF(Connections!$A$2:$B$1976=Authors!A669, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D669">
@@ -13270,7 +13272,7 @@
         <v>657</v>
       </c>
       <c r="C670">
-        <f t="array" ref="C670">SUM(IF(Connections!A670:B2644=Authors!A670, 1, 0))+1</f>
+        <f t="array" ref="C670">SUM(IF(Connections!$A$2:$B$1976=Authors!A670, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D670">
@@ -13285,7 +13287,7 @@
         <v>658</v>
       </c>
       <c r="C671">
-        <f t="array" ref="C671">SUM(IF(Connections!A671:B2645=Authors!A671, 1, 0))+1</f>
+        <f t="array" ref="C671">SUM(IF(Connections!$A$2:$B$1976=Authors!A671, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D671">
@@ -13300,8 +13302,8 @@
         <v>659</v>
       </c>
       <c r="C672">
-        <f t="array" ref="C672">SUM(IF(Connections!A672:B2646=Authors!A672, 1, 0))+1</f>
-        <v>15</v>
+        <f t="array" ref="C672">SUM(IF(Connections!$A$2:$B$1976=Authors!A672, 1, 0))+1</f>
+        <v>19</v>
       </c>
       <c r="D672">
         <v>1</v>
@@ -13315,7 +13317,7 @@
         <v>904</v>
       </c>
       <c r="C673">
-        <f t="array" ref="C673">SUM(IF(Connections!A673:B2647=Authors!A673, 1, 0))+1</f>
+        <f t="array" ref="C673">SUM(IF(Connections!$A$2:$B$1976=Authors!A673, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D673">
@@ -13330,7 +13332,7 @@
         <v>661</v>
       </c>
       <c r="C674">
-        <f t="array" ref="C674">SUM(IF(Connections!A674:B2648=Authors!A674, 1, 0))+1</f>
+        <f t="array" ref="C674">SUM(IF(Connections!$A$2:$B$1976=Authors!A674, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D674">
@@ -13345,8 +13347,8 @@
         <v>663</v>
       </c>
       <c r="C675">
-        <f t="array" ref="C675">SUM(IF(Connections!A675:B2649=Authors!A675, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C675">SUM(IF(Connections!$A$2:$B$1976=Authors!A675, 1, 0))+1</f>
+        <v>2</v>
       </c>
       <c r="D675">
         <v>1</v>
@@ -13360,7 +13362,7 @@
         <v>664</v>
       </c>
       <c r="C676">
-        <f t="array" ref="C676">SUM(IF(Connections!A676:B2650=Authors!A676, 1, 0))+1</f>
+        <f t="array" ref="C676">SUM(IF(Connections!$A$2:$B$1976=Authors!A676, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D676">
@@ -13375,7 +13377,7 @@
         <v>665</v>
       </c>
       <c r="C677">
-        <f t="array" ref="C677">SUM(IF(Connections!A677:B2651=Authors!A677, 1, 0))+1</f>
+        <f t="array" ref="C677">SUM(IF(Connections!$A$2:$B$1976=Authors!A677, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D677">
@@ -13390,7 +13392,7 @@
         <v>666</v>
       </c>
       <c r="C678">
-        <f t="array" ref="C678">SUM(IF(Connections!A678:B2652=Authors!A678, 1, 0))+1</f>
+        <f t="array" ref="C678">SUM(IF(Connections!$A$2:$B$1976=Authors!A678, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D678">
@@ -13405,8 +13407,8 @@
         <v>667</v>
       </c>
       <c r="C679">
-        <f t="array" ref="C679">SUM(IF(Connections!A679:B2653=Authors!A679, 1, 0))+1</f>
-        <v>6</v>
+        <f t="array" ref="C679">SUM(IF(Connections!$A$2:$B$1976=Authors!A679, 1, 0))+1</f>
+        <v>7</v>
       </c>
       <c r="D679">
         <v>1</v>
@@ -13420,7 +13422,7 @@
         <v>302</v>
       </c>
       <c r="C680">
-        <f t="array" ref="C680">SUM(IF(Connections!A680:B2654=Authors!A680, 1, 0))+1</f>
+        <f t="array" ref="C680">SUM(IF(Connections!$A$2:$B$1976=Authors!A680, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D680">
@@ -13435,8 +13437,8 @@
         <v>669</v>
       </c>
       <c r="C681">
-        <f t="array" ref="C681">SUM(IF(Connections!A681:B2655=Authors!A681, 1, 0))+1</f>
-        <v>6</v>
+        <f t="array" ref="C681">SUM(IF(Connections!$A$2:$B$1976=Authors!A681, 1, 0))+1</f>
+        <v>7</v>
       </c>
       <c r="D681">
         <v>1</v>
@@ -13450,8 +13452,8 @@
         <v>670</v>
       </c>
       <c r="C682">
-        <f t="array" ref="C682">SUM(IF(Connections!A682:B2656=Authors!A682, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C682">SUM(IF(Connections!$A$2:$B$1976=Authors!A682, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D682">
         <v>1</v>
@@ -13465,7 +13467,7 @@
         <v>671</v>
       </c>
       <c r="C683">
-        <f t="array" ref="C683">SUM(IF(Connections!A683:B2657=Authors!A683, 1, 0))+1</f>
+        <f t="array" ref="C683">SUM(IF(Connections!$A$2:$B$1976=Authors!A683, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D683">
@@ -13480,7 +13482,7 @@
         <v>672</v>
       </c>
       <c r="C684">
-        <f t="array" ref="C684">SUM(IF(Connections!A684:B2658=Authors!A684, 1, 0))+1</f>
+        <f t="array" ref="C684">SUM(IF(Connections!$A$2:$B$1976=Authors!A684, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D684">
@@ -13495,8 +13497,8 @@
         <v>673</v>
       </c>
       <c r="C685">
-        <f t="array" ref="C685">SUM(IF(Connections!A685:B2659=Authors!A685, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C685">SUM(IF(Connections!$A$2:$B$1976=Authors!A685, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D685">
         <v>1</v>
@@ -13510,7 +13512,7 @@
         <v>674</v>
       </c>
       <c r="C686">
-        <f t="array" ref="C686">SUM(IF(Connections!A686:B2660=Authors!A686, 1, 0))+1</f>
+        <f t="array" ref="C686">SUM(IF(Connections!$A$2:$B$1976=Authors!A686, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D686">
@@ -13525,7 +13527,7 @@
         <v>675</v>
       </c>
       <c r="C687">
-        <f t="array" ref="C687">SUM(IF(Connections!A687:B2661=Authors!A687, 1, 0))+1</f>
+        <f t="array" ref="C687">SUM(IF(Connections!$A$2:$B$1976=Authors!A687, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D687">
@@ -13540,8 +13542,8 @@
         <v>676</v>
       </c>
       <c r="C688">
-        <f t="array" ref="C688">SUM(IF(Connections!A688:B2662=Authors!A688, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C688">SUM(IF(Connections!$A$2:$B$1976=Authors!A688, 1, 0))+1</f>
+        <v>6</v>
       </c>
       <c r="D688">
         <v>1</v>
@@ -13555,7 +13557,7 @@
         <v>677</v>
       </c>
       <c r="C689">
-        <f t="array" ref="C689">SUM(IF(Connections!A689:B2663=Authors!A689, 1, 0))+1</f>
+        <f t="array" ref="C689">SUM(IF(Connections!$A$2:$B$1976=Authors!A689, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D689">
@@ -13570,7 +13572,7 @@
         <v>678</v>
       </c>
       <c r="C690">
-        <f t="array" ref="C690">SUM(IF(Connections!A690:B2664=Authors!A690, 1, 0))+1</f>
+        <f t="array" ref="C690">SUM(IF(Connections!$A$2:$B$1976=Authors!A690, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D690">
@@ -13585,7 +13587,7 @@
         <v>679</v>
       </c>
       <c r="C691">
-        <f t="array" ref="C691">SUM(IF(Connections!A691:B2665=Authors!A691, 1, 0))+1</f>
+        <f t="array" ref="C691">SUM(IF(Connections!$A$2:$B$1976=Authors!A691, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D691">
@@ -13600,7 +13602,7 @@
         <v>360</v>
       </c>
       <c r="C692">
-        <f t="array" ref="C692">SUM(IF(Connections!A692:B2666=Authors!A692, 1, 0))+1</f>
+        <f t="array" ref="C692">SUM(IF(Connections!$A$2:$B$1976=Authors!A692, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D692">
@@ -13615,7 +13617,7 @@
         <v>368</v>
       </c>
       <c r="C693">
-        <f t="array" ref="C693">SUM(IF(Connections!A693:B2667=Authors!A693, 1, 0))+1</f>
+        <f t="array" ref="C693">SUM(IF(Connections!$A$2:$B$1976=Authors!A693, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D693">
@@ -13630,8 +13632,8 @@
         <v>682</v>
       </c>
       <c r="C694">
-        <f t="array" ref="C694">SUM(IF(Connections!A694:B2668=Authors!A694, 1, 0))+1</f>
-        <v>6</v>
+        <f t="array" ref="C694">SUM(IF(Connections!$A$2:$B$1976=Authors!A694, 1, 0))+1</f>
+        <v>8</v>
       </c>
       <c r="D694">
         <v>1</v>
@@ -13645,8 +13647,8 @@
         <v>683</v>
       </c>
       <c r="C695">
-        <f t="array" ref="C695">SUM(IF(Connections!A695:B2669=Authors!A695, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C695">SUM(IF(Connections!$A$2:$B$1976=Authors!A695, 1, 0))+1</f>
+        <v>8</v>
       </c>
       <c r="D695">
         <v>1</v>
@@ -13660,8 +13662,8 @@
         <v>729</v>
       </c>
       <c r="C696">
-        <f t="array" ref="C696">SUM(IF(Connections!A696:B2670=Authors!A696, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C696">SUM(IF(Connections!$A$2:$B$1976=Authors!A696, 1, 0))+1</f>
+        <v>6</v>
       </c>
       <c r="D696">
         <v>1</v>
@@ -13675,8 +13677,8 @@
         <v>686</v>
       </c>
       <c r="C697">
-        <f t="array" ref="C697">SUM(IF(Connections!A697:B2671=Authors!A697, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C697">SUM(IF(Connections!$A$2:$B$1976=Authors!A697, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D697">
         <v>1</v>
@@ -13690,8 +13692,8 @@
         <v>356</v>
       </c>
       <c r="C698">
-        <f t="array" ref="C698">SUM(IF(Connections!A698:B2672=Authors!A698, 1, 0))+1</f>
-        <v>4</v>
+        <f t="array" ref="C698">SUM(IF(Connections!$A$2:$B$1976=Authors!A698, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D698">
         <v>1</v>
@@ -13705,7 +13707,7 @@
         <v>398</v>
       </c>
       <c r="C699">
-        <f t="array" ref="C699">SUM(IF(Connections!A699:B2673=Authors!A699, 1, 0))+1</f>
+        <f t="array" ref="C699">SUM(IF(Connections!$A$2:$B$1976=Authors!A699, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D699">
@@ -13720,8 +13722,8 @@
         <v>352</v>
       </c>
       <c r="C700">
-        <f t="array" ref="C700">SUM(IF(Connections!A700:B2674=Authors!A700, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C700">SUM(IF(Connections!$A$2:$B$1976=Authors!A700, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D700">
         <v>1</v>
@@ -13735,8 +13737,8 @@
         <v>16</v>
       </c>
       <c r="C701">
-        <f t="array" ref="C701">SUM(IF(Connections!A701:B2675=Authors!A701, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C701">SUM(IF(Connections!$A$2:$B$1976=Authors!A701, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D701">
         <v>1</v>
@@ -13750,8 +13752,8 @@
         <v>690</v>
       </c>
       <c r="C702">
-        <f t="array" ref="C702">SUM(IF(Connections!A702:B2676=Authors!A702, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C702">SUM(IF(Connections!$A$2:$B$1976=Authors!A702, 1, 0))+1</f>
+        <v>6</v>
       </c>
       <c r="D702">
         <v>1</v>
@@ -13765,8 +13767,8 @@
         <v>691</v>
       </c>
       <c r="C703">
-        <f t="array" ref="C703">SUM(IF(Connections!A703:B2677=Authors!A703, 1, 0))+1</f>
-        <v>4</v>
+        <f t="array" ref="C703">SUM(IF(Connections!$A$2:$B$1976=Authors!A703, 1, 0))+1</f>
+        <v>6</v>
       </c>
       <c r="D703">
         <v>1</v>
@@ -13780,8 +13782,8 @@
         <v>692</v>
       </c>
       <c r="C704">
-        <f t="array" ref="C704">SUM(IF(Connections!A704:B2678=Authors!A704, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C704">SUM(IF(Connections!$A$2:$B$1976=Authors!A704, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D704">
         <v>1</v>
@@ -13795,7 +13797,7 @@
         <v>693</v>
       </c>
       <c r="C705">
-        <f t="array" ref="C705">SUM(IF(Connections!A705:B2679=Authors!A705, 1, 0))+1</f>
+        <f t="array" ref="C705">SUM(IF(Connections!$A$2:$B$1976=Authors!A705, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D705">
@@ -13810,8 +13812,8 @@
         <v>694</v>
       </c>
       <c r="C706">
-        <f t="array" ref="C706">SUM(IF(Connections!A706:B2680=Authors!A706, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C706">SUM(IF(Connections!$A$2:$B$1976=Authors!A706, 1, 0))+1</f>
+        <v>2</v>
       </c>
       <c r="D706">
         <v>1</v>
@@ -13825,7 +13827,7 @@
         <v>695</v>
       </c>
       <c r="C707">
-        <f t="array" ref="C707">SUM(IF(Connections!A707:B2681=Authors!A707, 1, 0))+1</f>
+        <f t="array" ref="C707">SUM(IF(Connections!$A$2:$B$1976=Authors!A707, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D707">
@@ -13840,8 +13842,8 @@
         <v>696</v>
       </c>
       <c r="C708">
-        <f t="array" ref="C708">SUM(IF(Connections!A708:B2682=Authors!A708, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C708">SUM(IF(Connections!$A$2:$B$1976=Authors!A708, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D708">
         <v>1</v>
@@ -13855,8 +13857,8 @@
         <v>698</v>
       </c>
       <c r="C709">
-        <f t="array" ref="C709">SUM(IF(Connections!A709:B2683=Authors!A709, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C709">SUM(IF(Connections!$A$2:$B$1976=Authors!A709, 1, 0))+1</f>
+        <v>6</v>
       </c>
       <c r="D709">
         <v>1</v>
@@ -13870,8 +13872,8 @@
         <v>699</v>
       </c>
       <c r="C710">
-        <f t="array" ref="C710">SUM(IF(Connections!A710:B2684=Authors!A710, 1, 0))+1</f>
-        <v>6</v>
+        <f t="array" ref="C710">SUM(IF(Connections!$A$2:$B$1976=Authors!A710, 1, 0))+1</f>
+        <v>8</v>
       </c>
       <c r="D710">
         <v>1</v>
@@ -13885,8 +13887,8 @@
         <v>910</v>
       </c>
       <c r="C711">
-        <f t="array" ref="C711">SUM(IF(Connections!A711:B2685=Authors!A711, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C711">SUM(IF(Connections!$A$2:$B$1976=Authors!A711, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D711">
         <v>1</v>
@@ -13900,7 +13902,7 @@
         <v>700</v>
       </c>
       <c r="C712">
-        <f t="array" ref="C712">SUM(IF(Connections!A712:B2686=Authors!A712, 1, 0))+1</f>
+        <f t="array" ref="C712">SUM(IF(Connections!$A$2:$B$1976=Authors!A712, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D712">
@@ -13915,8 +13917,8 @@
         <v>600</v>
       </c>
       <c r="C713">
-        <f t="array" ref="C713">SUM(IF(Connections!A713:B2687=Authors!A713, 1, 0))+1</f>
-        <v>6</v>
+        <f t="array" ref="C713">SUM(IF(Connections!$A$2:$B$1976=Authors!A713, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D713">
         <v>1</v>
@@ -13930,7 +13932,7 @@
         <v>499</v>
       </c>
       <c r="C714">
-        <f t="array" ref="C714">SUM(IF(Connections!A714:B2688=Authors!A714, 1, 0))+1</f>
+        <f t="array" ref="C714">SUM(IF(Connections!$A$2:$B$1976=Authors!A714, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D714">
@@ -13945,8 +13947,8 @@
         <v>704</v>
       </c>
       <c r="C715">
-        <f t="array" ref="C715">SUM(IF(Connections!A715:B2689=Authors!A715, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C715">SUM(IF(Connections!$A$2:$B$1976=Authors!A715, 1, 0))+1</f>
+        <v>2</v>
       </c>
       <c r="D715">
         <v>1</v>
@@ -13960,7 +13962,7 @@
         <v>705</v>
       </c>
       <c r="C716">
-        <f t="array" ref="C716">SUM(IF(Connections!A716:B2690=Authors!A716, 1, 0))+1</f>
+        <f t="array" ref="C716">SUM(IF(Connections!$A$2:$B$1976=Authors!A716, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D716">
@@ -13975,7 +13977,7 @@
         <v>706</v>
       </c>
       <c r="C717">
-        <f t="array" ref="C717">SUM(IF(Connections!A717:B2691=Authors!A717, 1, 0))+1</f>
+        <f t="array" ref="C717">SUM(IF(Connections!$A$2:$B$1976=Authors!A717, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D717">
@@ -13990,7 +13992,7 @@
         <v>763</v>
       </c>
       <c r="C718">
-        <f t="array" ref="C718">SUM(IF(Connections!A718:B2692=Authors!A718, 1, 0))+1</f>
+        <f t="array" ref="C718">SUM(IF(Connections!$A$2:$B$1976=Authors!A718, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D718">
@@ -14005,8 +14007,8 @@
         <v>735</v>
       </c>
       <c r="C719">
-        <f t="array" ref="C719">SUM(IF(Connections!A719:B2693=Authors!A719, 1, 0))+1</f>
-        <v>6</v>
+        <f t="array" ref="C719">SUM(IF(Connections!$A$2:$B$1976=Authors!A719, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D719">
         <v>1</v>
@@ -14020,8 +14022,8 @@
         <v>262</v>
       </c>
       <c r="C720">
-        <f t="array" ref="C720">SUM(IF(Connections!A720:B2694=Authors!A720, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C720">SUM(IF(Connections!$A$2:$B$1976=Authors!A720, 1, 0))+1</f>
+        <v>6</v>
       </c>
       <c r="D720">
         <v>1</v>
@@ -14035,7 +14037,7 @@
         <v>709</v>
       </c>
       <c r="C721">
-        <f t="array" ref="C721">SUM(IF(Connections!A721:B2695=Authors!A721, 1, 0))+1</f>
+        <f t="array" ref="C721">SUM(IF(Connections!$A$2:$B$1976=Authors!A721, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D721">
@@ -14050,8 +14052,8 @@
         <v>714</v>
       </c>
       <c r="C722">
-        <f t="array" ref="C722">SUM(IF(Connections!A722:B2696=Authors!A722, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C722">SUM(IF(Connections!$A$2:$B$1976=Authors!A722, 1, 0))+1</f>
+        <v>2</v>
       </c>
       <c r="D722">
         <v>1</v>
@@ -14065,7 +14067,7 @@
         <v>711</v>
       </c>
       <c r="C723">
-        <f t="array" ref="C723">SUM(IF(Connections!A723:B2697=Authors!A723, 1, 0))+1</f>
+        <f t="array" ref="C723">SUM(IF(Connections!$A$2:$B$1976=Authors!A723, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D723">
@@ -14080,8 +14082,8 @@
         <v>712</v>
       </c>
       <c r="C724">
-        <f t="array" ref="C724">SUM(IF(Connections!A724:B2698=Authors!A724, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C724">SUM(IF(Connections!$A$2:$B$1976=Authors!A724, 1, 0))+1</f>
+        <v>6</v>
       </c>
       <c r="D724">
         <v>1</v>
@@ -14095,8 +14097,8 @@
         <v>713</v>
       </c>
       <c r="C725">
-        <f t="array" ref="C725">SUM(IF(Connections!A725:B2699=Authors!A725, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C725">SUM(IF(Connections!$A$2:$B$1976=Authors!A725, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D725">
         <v>1</v>
@@ -14110,8 +14112,8 @@
         <v>534</v>
       </c>
       <c r="C726">
-        <f t="array" ref="C726">SUM(IF(Connections!A726:B2700=Authors!A726, 1, 0))+1</f>
-        <v>10</v>
+        <f t="array" ref="C726">SUM(IF(Connections!$A$2:$B$1976=Authors!A726, 1, 0))+1</f>
+        <v>12</v>
       </c>
       <c r="D726">
         <v>1</v>
@@ -14125,8 +14127,8 @@
         <v>717</v>
       </c>
       <c r="C727">
-        <f t="array" ref="C727">SUM(IF(Connections!A727:B2701=Authors!A727, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C727">SUM(IF(Connections!$A$2:$B$1976=Authors!A727, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D727">
         <v>1</v>
@@ -14140,7 +14142,7 @@
         <v>662</v>
       </c>
       <c r="C728">
-        <f t="array" ref="C728">SUM(IF(Connections!A728:B2702=Authors!A728, 1, 0))+1</f>
+        <f t="array" ref="C728">SUM(IF(Connections!$A$2:$B$1976=Authors!A728, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D728">
@@ -14155,8 +14157,8 @@
         <v>719</v>
       </c>
       <c r="C729">
-        <f t="array" ref="C729">SUM(IF(Connections!A729:B2703=Authors!A729, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C729">SUM(IF(Connections!$A$2:$B$1976=Authors!A729, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D729">
         <v>1</v>
@@ -14170,7 +14172,7 @@
         <v>720</v>
       </c>
       <c r="C730">
-        <f t="array" ref="C730">SUM(IF(Connections!A730:B2704=Authors!A730, 1, 0))+1</f>
+        <f t="array" ref="C730">SUM(IF(Connections!$A$2:$B$1976=Authors!A730, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D730">
@@ -14185,7 +14187,7 @@
         <v>721</v>
       </c>
       <c r="C731">
-        <f t="array" ref="C731">SUM(IF(Connections!A731:B2705=Authors!A731, 1, 0))+1</f>
+        <f t="array" ref="C731">SUM(IF(Connections!$A$2:$B$1976=Authors!A731, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D731">
@@ -14200,7 +14202,7 @@
         <v>722</v>
       </c>
       <c r="C732">
-        <f t="array" ref="C732">SUM(IF(Connections!A732:B2706=Authors!A732, 1, 0))+1</f>
+        <f t="array" ref="C732">SUM(IF(Connections!$A$2:$B$1976=Authors!A732, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D732">
@@ -14215,8 +14217,8 @@
         <v>723</v>
       </c>
       <c r="C733">
-        <f t="array" ref="C733">SUM(IF(Connections!A733:B2707=Authors!A733, 1, 0))+1</f>
-        <v>6</v>
+        <f t="array" ref="C733">SUM(IF(Connections!$A$2:$B$1976=Authors!A733, 1, 0))+1</f>
+        <v>8</v>
       </c>
       <c r="D733">
         <v>1</v>
@@ -14230,8 +14232,8 @@
         <v>724</v>
       </c>
       <c r="C734">
-        <f t="array" ref="C734">SUM(IF(Connections!A734:B2708=Authors!A734, 1, 0))+1</f>
-        <v>4</v>
+        <f t="array" ref="C734">SUM(IF(Connections!$A$2:$B$1976=Authors!A734, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D734">
         <v>1</v>
@@ -14245,8 +14247,8 @@
         <v>623</v>
       </c>
       <c r="C735">
-        <f t="array" ref="C735">SUM(IF(Connections!A735:B2709=Authors!A735, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C735">SUM(IF(Connections!$A$2:$B$1976=Authors!A735, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D735">
         <v>1</v>
@@ -14260,7 +14262,7 @@
         <v>726</v>
       </c>
       <c r="C736">
-        <f t="array" ref="C736">SUM(IF(Connections!A736:B2710=Authors!A736, 1, 0))+1</f>
+        <f t="array" ref="C736">SUM(IF(Connections!$A$2:$B$1976=Authors!A736, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D736">
@@ -14275,7 +14277,7 @@
         <v>739</v>
       </c>
       <c r="C737">
-        <f t="array" ref="C737">SUM(IF(Connections!A737:B2711=Authors!A737, 1, 0))+1</f>
+        <f t="array" ref="C737">SUM(IF(Connections!$A$2:$B$1976=Authors!A737, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D737">
@@ -14290,7 +14292,7 @@
         <v>728</v>
       </c>
       <c r="C738">
-        <f t="array" ref="C738">SUM(IF(Connections!A738:B2712=Authors!A738, 1, 0))+1</f>
+        <f t="array" ref="C738">SUM(IF(Connections!$A$2:$B$1976=Authors!A738, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D738">
@@ -14305,8 +14307,8 @@
         <v>47</v>
       </c>
       <c r="C739">
-        <f t="array" ref="C739">SUM(IF(Connections!A739:B2713=Authors!A739, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C739">SUM(IF(Connections!$A$2:$B$1976=Authors!A739, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D739">
         <v>1</v>
@@ -14320,8 +14322,8 @@
         <v>730</v>
       </c>
       <c r="C740">
-        <f t="array" ref="C740">SUM(IF(Connections!A740:B2714=Authors!A740, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C740">SUM(IF(Connections!$A$2:$B$1976=Authors!A740, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D740">
         <v>1</v>
@@ -14335,7 +14337,7 @@
         <v>866</v>
       </c>
       <c r="C741">
-        <f t="array" ref="C741">SUM(IF(Connections!A741:B2715=Authors!A741, 1, 0))+1</f>
+        <f t="array" ref="C741">SUM(IF(Connections!$A$2:$B$1976=Authors!A741, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D741">
@@ -14350,8 +14352,8 @@
         <v>731</v>
       </c>
       <c r="C742">
-        <f t="array" ref="C742">SUM(IF(Connections!A742:B2716=Authors!A742, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C742">SUM(IF(Connections!$A$2:$B$1976=Authors!A742, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D742">
         <v>1</v>
@@ -14365,7 +14367,7 @@
         <v>732</v>
       </c>
       <c r="C743">
-        <f t="array" ref="C743">SUM(IF(Connections!A743:B2717=Authors!A743, 1, 0))+1</f>
+        <f t="array" ref="C743">SUM(IF(Connections!$A$2:$B$1976=Authors!A743, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D743">
@@ -14380,8 +14382,8 @@
         <v>733</v>
       </c>
       <c r="C744">
-        <f t="array" ref="C744">SUM(IF(Connections!A744:B2718=Authors!A744, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C744">SUM(IF(Connections!$A$2:$B$1976=Authors!A744, 1, 0))+1</f>
+        <v>2</v>
       </c>
       <c r="D744">
         <v>1</v>
@@ -14395,7 +14397,7 @@
         <v>734</v>
       </c>
       <c r="C745">
-        <f t="array" ref="C745">SUM(IF(Connections!A745:B2719=Authors!A745, 1, 0))+1</f>
+        <f t="array" ref="C745">SUM(IF(Connections!$A$2:$B$1976=Authors!A745, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D745">
@@ -14410,7 +14412,7 @@
         <v>862</v>
       </c>
       <c r="C746">
-        <f t="array" ref="C746">SUM(IF(Connections!A746:B2720=Authors!A746, 1, 0))+1</f>
+        <f t="array" ref="C746">SUM(IF(Connections!$A$2:$B$1976=Authors!A746, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D746">
@@ -14425,7 +14427,7 @@
         <v>736</v>
       </c>
       <c r="C747">
-        <f t="array" ref="C747">SUM(IF(Connections!A747:B2721=Authors!A747, 1, 0))+1</f>
+        <f t="array" ref="C747">SUM(IF(Connections!$A$2:$B$1976=Authors!A747, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D747">
@@ -14440,8 +14442,8 @@
         <v>737</v>
       </c>
       <c r="C748">
-        <f t="array" ref="C748">SUM(IF(Connections!A748:B2722=Authors!A748, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C748">SUM(IF(Connections!$A$2:$B$1976=Authors!A748, 1, 0))+1</f>
+        <v>6</v>
       </c>
       <c r="D748">
         <v>1</v>
@@ -14455,8 +14457,8 @@
         <v>738</v>
       </c>
       <c r="C749">
-        <f t="array" ref="C749">SUM(IF(Connections!A749:B2723=Authors!A749, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C749">SUM(IF(Connections!$A$2:$B$1976=Authors!A749, 1, 0))+1</f>
+        <v>2</v>
       </c>
       <c r="D749">
         <v>1</v>
@@ -14470,7 +14472,7 @@
         <v>727</v>
       </c>
       <c r="C750">
-        <f t="array" ref="C750">SUM(IF(Connections!A750:B2724=Authors!A750, 1, 0))+1</f>
+        <f t="array" ref="C750">SUM(IF(Connections!$A$2:$B$1976=Authors!A750, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D750">
@@ -14485,7 +14487,7 @@
         <v>740</v>
       </c>
       <c r="C751">
-        <f t="array" ref="C751">SUM(IF(Connections!A751:B2725=Authors!A751, 1, 0))+1</f>
+        <f t="array" ref="C751">SUM(IF(Connections!$A$2:$B$1976=Authors!A751, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D751">
@@ -14500,7 +14502,7 @@
         <v>741</v>
       </c>
       <c r="C752">
-        <f t="array" ref="C752">SUM(IF(Connections!A752:B2726=Authors!A752, 1, 0))+1</f>
+        <f t="array" ref="C752">SUM(IF(Connections!$A$2:$B$1976=Authors!A752, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D752">
@@ -14515,7 +14517,7 @@
         <v>742</v>
       </c>
       <c r="C753">
-        <f t="array" ref="C753">SUM(IF(Connections!A753:B2727=Authors!A753, 1, 0))+1</f>
+        <f t="array" ref="C753">SUM(IF(Connections!$A$2:$B$1976=Authors!A753, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D753">
@@ -14530,8 +14532,8 @@
         <v>743</v>
       </c>
       <c r="C754">
-        <f t="array" ref="C754">SUM(IF(Connections!A754:B2728=Authors!A754, 1, 0))+1</f>
-        <v>15</v>
+        <f t="array" ref="C754">SUM(IF(Connections!$A$2:$B$1976=Authors!A754, 1, 0))+1</f>
+        <v>16</v>
       </c>
       <c r="D754">
         <v>1</v>
@@ -14545,8 +14547,8 @@
         <v>744</v>
       </c>
       <c r="C755">
-        <f t="array" ref="C755">SUM(IF(Connections!A755:B2729=Authors!A755, 1, 0))+1</f>
-        <v>6</v>
+        <f t="array" ref="C755">SUM(IF(Connections!$A$2:$B$1976=Authors!A755, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D755">
         <v>1</v>
@@ -14560,7 +14562,7 @@
         <v>745</v>
       </c>
       <c r="C756">
-        <f t="array" ref="C756">SUM(IF(Connections!A756:B2730=Authors!A756, 1, 0))+1</f>
+        <f t="array" ref="C756">SUM(IF(Connections!$A$2:$B$1976=Authors!A756, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D756">
@@ -14575,7 +14577,7 @@
         <v>746</v>
       </c>
       <c r="C757">
-        <f t="array" ref="C757">SUM(IF(Connections!A757:B2731=Authors!A757, 1, 0))+1</f>
+        <f t="array" ref="C757">SUM(IF(Connections!$A$2:$B$1976=Authors!A757, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D757">
@@ -14590,7 +14592,7 @@
         <v>747</v>
       </c>
       <c r="C758">
-        <f t="array" ref="C758">SUM(IF(Connections!A758:B2732=Authors!A758, 1, 0))+1</f>
+        <f t="array" ref="C758">SUM(IF(Connections!$A$2:$B$1976=Authors!A758, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D758">
@@ -14605,7 +14607,7 @@
         <v>748</v>
       </c>
       <c r="C759">
-        <f t="array" ref="C759">SUM(IF(Connections!A759:B2733=Authors!A759, 1, 0))+1</f>
+        <f t="array" ref="C759">SUM(IF(Connections!$A$2:$B$1976=Authors!A759, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D759">
@@ -14620,7 +14622,7 @@
         <v>749</v>
       </c>
       <c r="C760">
-        <f t="array" ref="C760">SUM(IF(Connections!A760:B2734=Authors!A760, 1, 0))+1</f>
+        <f t="array" ref="C760">SUM(IF(Connections!$A$2:$B$1976=Authors!A760, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D760">
@@ -14635,7 +14637,7 @@
         <v>926</v>
       </c>
       <c r="C761">
-        <f t="array" ref="C761">SUM(IF(Connections!A761:B2735=Authors!A761, 1, 0))+1</f>
+        <f t="array" ref="C761">SUM(IF(Connections!$A$2:$B$1976=Authors!A761, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D761">
@@ -14650,7 +14652,7 @@
         <v>751</v>
       </c>
       <c r="C762">
-        <f t="array" ref="C762">SUM(IF(Connections!A762:B2736=Authors!A762, 1, 0))+1</f>
+        <f t="array" ref="C762">SUM(IF(Connections!$A$2:$B$1976=Authors!A762, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D762">
@@ -14665,7 +14667,7 @@
         <v>752</v>
       </c>
       <c r="C763">
-        <f t="array" ref="C763">SUM(IF(Connections!A763:B2737=Authors!A763, 1, 0))+1</f>
+        <f t="array" ref="C763">SUM(IF(Connections!$A$2:$B$1976=Authors!A763, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D763">
@@ -14680,7 +14682,7 @@
         <v>753</v>
       </c>
       <c r="C764">
-        <f t="array" ref="C764">SUM(IF(Connections!A764:B2738=Authors!A764, 1, 0))+1</f>
+        <f t="array" ref="C764">SUM(IF(Connections!$A$2:$B$1976=Authors!A764, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D764">
@@ -14695,7 +14697,7 @@
         <v>921</v>
       </c>
       <c r="C765">
-        <f t="array" ref="C765">SUM(IF(Connections!A765:B2739=Authors!A765, 1, 0))+1</f>
+        <f t="array" ref="C765">SUM(IF(Connections!$A$2:$B$1976=Authors!A765, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D765">
@@ -14710,8 +14712,8 @@
         <v>755</v>
       </c>
       <c r="C766">
-        <f t="array" ref="C766">SUM(IF(Connections!A766:B2740=Authors!A766, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C766">SUM(IF(Connections!$A$2:$B$1976=Authors!A766, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D766">
         <v>1</v>
@@ -14725,7 +14727,7 @@
         <v>756</v>
       </c>
       <c r="C767">
-        <f t="array" ref="C767">SUM(IF(Connections!A767:B2741=Authors!A767, 1, 0))+1</f>
+        <f t="array" ref="C767">SUM(IF(Connections!$A$2:$B$1976=Authors!A767, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D767">
@@ -14740,7 +14742,7 @@
         <v>757</v>
       </c>
       <c r="C768">
-        <f t="array" ref="C768">SUM(IF(Connections!A768:B2742=Authors!A768, 1, 0))+1</f>
+        <f t="array" ref="C768">SUM(IF(Connections!$A$2:$B$1976=Authors!A768, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D768">
@@ -14755,7 +14757,7 @@
         <v>759</v>
       </c>
       <c r="C769">
-        <f t="array" ref="C769">SUM(IF(Connections!A769:B2743=Authors!A769, 1, 0))+1</f>
+        <f t="array" ref="C769">SUM(IF(Connections!$A$2:$B$1976=Authors!A769, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D769">
@@ -14770,7 +14772,7 @@
         <v>760</v>
       </c>
       <c r="C770">
-        <f t="array" ref="C770">SUM(IF(Connections!A770:B2744=Authors!A770, 1, 0))+1</f>
+        <f t="array" ref="C770">SUM(IF(Connections!$A$2:$B$1976=Authors!A770, 1, 0))+1</f>
         <v>8</v>
       </c>
       <c r="D770">
@@ -14785,8 +14787,8 @@
         <v>761</v>
       </c>
       <c r="C771">
-        <f t="array" ref="C771">SUM(IF(Connections!A771:B2745=Authors!A771, 1, 0))+1</f>
-        <v>4</v>
+        <f t="array" ref="C771">SUM(IF(Connections!$A$2:$B$1976=Authors!A771, 1, 0))+1</f>
+        <v>6</v>
       </c>
       <c r="D771">
         <v>1</v>
@@ -14800,7 +14802,7 @@
         <v>762</v>
       </c>
       <c r="C772">
-        <f t="array" ref="C772">SUM(IF(Connections!A772:B2746=Authors!A772, 1, 0))+1</f>
+        <f t="array" ref="C772">SUM(IF(Connections!$A$2:$B$1976=Authors!A772, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D772">
@@ -14815,8 +14817,8 @@
         <v>764</v>
       </c>
       <c r="C773">
-        <f t="array" ref="C773">SUM(IF(Connections!A773:B2747=Authors!A773, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C773">SUM(IF(Connections!$A$2:$B$1976=Authors!A773, 1, 0))+1</f>
+        <v>2</v>
       </c>
       <c r="D773">
         <v>1</v>
@@ -14830,8 +14832,8 @@
         <v>765</v>
       </c>
       <c r="C774">
-        <f t="array" ref="C774">SUM(IF(Connections!A774:B2748=Authors!A774, 1, 0))+1</f>
-        <v>4</v>
+        <f t="array" ref="C774">SUM(IF(Connections!$A$2:$B$1976=Authors!A774, 1, 0))+1</f>
+        <v>6</v>
       </c>
       <c r="D774">
         <v>1</v>
@@ -14845,8 +14847,8 @@
         <v>885</v>
       </c>
       <c r="C775">
-        <f t="array" ref="C775">SUM(IF(Connections!A775:B2749=Authors!A775, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C775">SUM(IF(Connections!$A$2:$B$1976=Authors!A775, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D775">
         <v>1</v>
@@ -14860,8 +14862,8 @@
         <v>362</v>
       </c>
       <c r="C776">
-        <f t="array" ref="C776">SUM(IF(Connections!A776:B2750=Authors!A776, 1, 0))+1</f>
-        <v>7</v>
+        <f t="array" ref="C776">SUM(IF(Connections!$A$2:$B$1976=Authors!A776, 1, 0))+1</f>
+        <v>8</v>
       </c>
       <c r="D776">
         <v>1</v>
@@ -14875,7 +14877,7 @@
         <v>768</v>
       </c>
       <c r="C777">
-        <f t="array" ref="C777">SUM(IF(Connections!A777:B2751=Authors!A777, 1, 0))+1</f>
+        <f t="array" ref="C777">SUM(IF(Connections!$A$2:$B$1976=Authors!A777, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D777">
@@ -14890,8 +14892,8 @@
         <v>769</v>
       </c>
       <c r="C778">
-        <f t="array" ref="C778">SUM(IF(Connections!A778:B2752=Authors!A778, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C778">SUM(IF(Connections!$A$2:$B$1976=Authors!A778, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D778">
         <v>1</v>
@@ -14905,8 +14907,8 @@
         <v>770</v>
       </c>
       <c r="C779">
-        <f t="array" ref="C779">SUM(IF(Connections!A779:B2753=Authors!A779, 1, 0))+1</f>
-        <v>14</v>
+        <f t="array" ref="C779">SUM(IF(Connections!$A$2:$B$1976=Authors!A779, 1, 0))+1</f>
+        <v>19</v>
       </c>
       <c r="D779">
         <v>1</v>
@@ -14920,7 +14922,7 @@
         <v>771</v>
       </c>
       <c r="C780">
-        <f t="array" ref="C780">SUM(IF(Connections!A780:B2754=Authors!A780, 1, 0))+1</f>
+        <f t="array" ref="C780">SUM(IF(Connections!$A$2:$B$1976=Authors!A780, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D780">
@@ -14935,7 +14937,7 @@
         <v>772</v>
       </c>
       <c r="C781">
-        <f t="array" ref="C781">SUM(IF(Connections!A781:B2755=Authors!A781, 1, 0))+1</f>
+        <f t="array" ref="C781">SUM(IF(Connections!$A$2:$B$1976=Authors!A781, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D781">
@@ -14950,8 +14952,8 @@
         <v>773</v>
       </c>
       <c r="C782">
-        <f t="array" ref="C782">SUM(IF(Connections!A782:B2756=Authors!A782, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C782">SUM(IF(Connections!$A$2:$B$1976=Authors!A782, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D782">
         <v>1</v>
@@ -14965,7 +14967,7 @@
         <v>774</v>
       </c>
       <c r="C783">
-        <f t="array" ref="C783">SUM(IF(Connections!A783:B2757=Authors!A783, 1, 0))+1</f>
+        <f t="array" ref="C783">SUM(IF(Connections!$A$2:$B$1976=Authors!A783, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D783">
@@ -14980,7 +14982,7 @@
         <v>775</v>
       </c>
       <c r="C784">
-        <f t="array" ref="C784">SUM(IF(Connections!A784:B2758=Authors!A784, 1, 0))+1</f>
+        <f t="array" ref="C784">SUM(IF(Connections!$A$2:$B$1976=Authors!A784, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D784">
@@ -14995,8 +14997,8 @@
         <v>776</v>
       </c>
       <c r="C785">
-        <f t="array" ref="C785">SUM(IF(Connections!A785:B2759=Authors!A785, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C785">SUM(IF(Connections!$A$2:$B$1976=Authors!A785, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D785">
         <v>1</v>
@@ -15010,7 +15012,7 @@
         <v>626</v>
       </c>
       <c r="C786">
-        <f t="array" ref="C786">SUM(IF(Connections!A786:B2760=Authors!A786, 1, 0))+1</f>
+        <f t="array" ref="C786">SUM(IF(Connections!$A$2:$B$1976=Authors!A786, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D786">
@@ -15025,8 +15027,8 @@
         <v>616</v>
       </c>
       <c r="C787">
-        <f t="array" ref="C787">SUM(IF(Connections!A787:B2761=Authors!A787, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C787">SUM(IF(Connections!$A$2:$B$1976=Authors!A787, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D787">
         <v>1</v>
@@ -15040,8 +15042,8 @@
         <v>780</v>
       </c>
       <c r="C788">
-        <f t="array" ref="C788">SUM(IF(Connections!A788:B2762=Authors!A788, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C788">SUM(IF(Connections!$A$2:$B$1976=Authors!A788, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D788">
         <v>1</v>
@@ -15055,8 +15057,8 @@
         <v>781</v>
       </c>
       <c r="C789">
-        <f t="array" ref="C789">SUM(IF(Connections!A789:B2763=Authors!A789, 1, 0))+1</f>
-        <v>14</v>
+        <f t="array" ref="C789">SUM(IF(Connections!$A$2:$B$1976=Authors!A789, 1, 0))+1</f>
+        <v>20</v>
       </c>
       <c r="D789">
         <v>1</v>
@@ -15070,8 +15072,8 @@
         <v>782</v>
       </c>
       <c r="C790">
-        <f t="array" ref="C790">SUM(IF(Connections!A790:B2764=Authors!A790, 1, 0))+1</f>
-        <v>8</v>
+        <f t="array" ref="C790">SUM(IF(Connections!$A$2:$B$1976=Authors!A790, 1, 0))+1</f>
+        <v>12</v>
       </c>
       <c r="D790">
         <v>1</v>
@@ -15085,7 +15087,7 @@
         <v>927</v>
       </c>
       <c r="C791">
-        <f t="array" ref="C791">SUM(IF(Connections!A791:B2765=Authors!A791, 1, 0))+1</f>
+        <f t="array" ref="C791">SUM(IF(Connections!$A$2:$B$1976=Authors!A791, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D791">
@@ -15100,7 +15102,7 @@
         <v>898</v>
       </c>
       <c r="C792">
-        <f t="array" ref="C792">SUM(IF(Connections!A792:B2766=Authors!A792, 1, 0))+1</f>
+        <f t="array" ref="C792">SUM(IF(Connections!$A$2:$B$1976=Authors!A792, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D792">
@@ -15115,8 +15117,8 @@
         <v>785</v>
       </c>
       <c r="C793">
-        <f t="array" ref="C793">SUM(IF(Connections!A793:B2767=Authors!A793, 1, 0))+1</f>
-        <v>4</v>
+        <f t="array" ref="C793">SUM(IF(Connections!$A$2:$B$1976=Authors!A793, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D793">
         <v>1</v>
@@ -15130,7 +15132,7 @@
         <v>786</v>
       </c>
       <c r="C794">
-        <f t="array" ref="C794">SUM(IF(Connections!A794:B2768=Authors!A794, 1, 0))+1</f>
+        <f t="array" ref="C794">SUM(IF(Connections!$A$2:$B$1976=Authors!A794, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D794">
@@ -15145,8 +15147,8 @@
         <v>392</v>
       </c>
       <c r="C795">
-        <f t="array" ref="C795">SUM(IF(Connections!A795:B2769=Authors!A795, 1, 0))+1</f>
-        <v>4</v>
+        <f t="array" ref="C795">SUM(IF(Connections!$A$2:$B$1976=Authors!A795, 1, 0))+1</f>
+        <v>8</v>
       </c>
       <c r="D795">
         <v>1</v>
@@ -15160,8 +15162,8 @@
         <v>788</v>
       </c>
       <c r="C796">
-        <f t="array" ref="C796">SUM(IF(Connections!A796:B2770=Authors!A796, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C796">SUM(IF(Connections!$A$2:$B$1976=Authors!A796, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D796">
         <v>1</v>
@@ -15175,8 +15177,8 @@
         <v>789</v>
       </c>
       <c r="C797">
-        <f t="array" ref="C797">SUM(IF(Connections!A797:B2771=Authors!A797, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C797">SUM(IF(Connections!$A$2:$B$1976=Authors!A797, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D797">
         <v>1</v>
@@ -15190,8 +15192,8 @@
         <v>790</v>
       </c>
       <c r="C798">
-        <f t="array" ref="C798">SUM(IF(Connections!A798:B2772=Authors!A798, 1, 0))+1</f>
-        <v>4</v>
+        <f t="array" ref="C798">SUM(IF(Connections!$A$2:$B$1976=Authors!A798, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D798">
         <v>1</v>
@@ -15205,7 +15207,7 @@
         <v>791</v>
       </c>
       <c r="C799">
-        <f t="array" ref="C799">SUM(IF(Connections!A799:B2773=Authors!A799, 1, 0))+1</f>
+        <f t="array" ref="C799">SUM(IF(Connections!$A$2:$B$1976=Authors!A799, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D799">
@@ -15220,8 +15222,8 @@
         <v>792</v>
       </c>
       <c r="C800">
-        <f t="array" ref="C800">SUM(IF(Connections!A800:B2774=Authors!A800, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C800">SUM(IF(Connections!$A$2:$B$1976=Authors!A800, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D800">
         <v>1</v>
@@ -15235,7 +15237,7 @@
         <v>793</v>
       </c>
       <c r="C801">
-        <f t="array" ref="C801">SUM(IF(Connections!A801:B2775=Authors!A801, 1, 0))+1</f>
+        <f t="array" ref="C801">SUM(IF(Connections!$A$2:$B$1976=Authors!A801, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D801">
@@ -15250,8 +15252,8 @@
         <v>794</v>
       </c>
       <c r="C802">
-        <f t="array" ref="C802">SUM(IF(Connections!A802:B2776=Authors!A802, 1, 0))+1</f>
-        <v>6</v>
+        <f t="array" ref="C802">SUM(IF(Connections!$A$2:$B$1976=Authors!A802, 1, 0))+1</f>
+        <v>7</v>
       </c>
       <c r="D802">
         <v>1</v>
@@ -15265,8 +15267,8 @@
         <v>795</v>
       </c>
       <c r="C803">
-        <f t="array" ref="C803">SUM(IF(Connections!A803:B2777=Authors!A803, 1, 0))+1</f>
-        <v>8</v>
+        <f t="array" ref="C803">SUM(IF(Connections!$A$2:$B$1976=Authors!A803, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D803">
         <v>1</v>
@@ -15280,7 +15282,7 @@
         <v>796</v>
       </c>
       <c r="C804">
-        <f t="array" ref="C804">SUM(IF(Connections!A804:B2778=Authors!A804, 1, 0))+1</f>
+        <f t="array" ref="C804">SUM(IF(Connections!$A$2:$B$1976=Authors!A804, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D804">
@@ -15295,8 +15297,8 @@
         <v>797</v>
       </c>
       <c r="C805">
-        <f t="array" ref="C805">SUM(IF(Connections!A805:B2779=Authors!A805, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C805">SUM(IF(Connections!$A$2:$B$1976=Authors!A805, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D805">
         <v>1</v>
@@ -15310,7 +15312,7 @@
         <v>798</v>
       </c>
       <c r="C806">
-        <f t="array" ref="C806">SUM(IF(Connections!A806:B2780=Authors!A806, 1, 0))+1</f>
+        <f t="array" ref="C806">SUM(IF(Connections!$A$2:$B$1976=Authors!A806, 1, 0))+1</f>
         <v>7</v>
       </c>
       <c r="D806">
@@ -15325,7 +15327,7 @@
         <v>799</v>
       </c>
       <c r="C807">
-        <f t="array" ref="C807">SUM(IF(Connections!A807:B2781=Authors!A807, 1, 0))+1</f>
+        <f t="array" ref="C807">SUM(IF(Connections!$A$2:$B$1976=Authors!A807, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D807">
@@ -15340,8 +15342,8 @@
         <v>33</v>
       </c>
       <c r="C808">
-        <f t="array" ref="C808">SUM(IF(Connections!A808:B2782=Authors!A808, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C808">SUM(IF(Connections!$A$2:$B$1976=Authors!A808, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D808">
         <v>1</v>
@@ -15355,7 +15357,7 @@
         <v>801</v>
       </c>
       <c r="C809">
-        <f t="array" ref="C809">SUM(IF(Connections!A809:B2783=Authors!A809, 1, 0))+1</f>
+        <f t="array" ref="C809">SUM(IF(Connections!$A$2:$B$1976=Authors!A809, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D809">
@@ -15370,8 +15372,8 @@
         <v>218</v>
       </c>
       <c r="C810">
-        <f t="array" ref="C810">SUM(IF(Connections!A810:B2784=Authors!A810, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C810">SUM(IF(Connections!$A$2:$B$1976=Authors!A810, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D810">
         <v>1</v>
@@ -15385,8 +15387,8 @@
         <v>803</v>
       </c>
       <c r="C811">
-        <f t="array" ref="C811">SUM(IF(Connections!A811:B2785=Authors!A811, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C811">SUM(IF(Connections!$A$2:$B$1976=Authors!A811, 1, 0))+1</f>
+        <v>8</v>
       </c>
       <c r="D811">
         <v>1</v>
@@ -15400,8 +15402,8 @@
         <v>804</v>
       </c>
       <c r="C812">
-        <f t="array" ref="C812">SUM(IF(Connections!A812:B2786=Authors!A812, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C812">SUM(IF(Connections!$A$2:$B$1976=Authors!A812, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D812">
         <v>1</v>
@@ -15415,7 +15417,7 @@
         <v>805</v>
       </c>
       <c r="C813">
-        <f t="array" ref="C813">SUM(IF(Connections!A813:B2787=Authors!A813, 1, 0))+1</f>
+        <f t="array" ref="C813">SUM(IF(Connections!$A$2:$B$1976=Authors!A813, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D813">
@@ -15430,7 +15432,7 @@
         <v>806</v>
       </c>
       <c r="C814">
-        <f t="array" ref="C814">SUM(IF(Connections!A814:B2788=Authors!A814, 1, 0))+1</f>
+        <f t="array" ref="C814">SUM(IF(Connections!$A$2:$B$1976=Authors!A814, 1, 0))+1</f>
         <v>7</v>
       </c>
       <c r="D814">
@@ -15445,8 +15447,8 @@
         <v>848</v>
       </c>
       <c r="C815">
-        <f t="array" ref="C815">SUM(IF(Connections!A815:B2789=Authors!A815, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C815">SUM(IF(Connections!$A$2:$B$1976=Authors!A815, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D815">
         <v>1</v>
@@ -15460,8 +15462,8 @@
         <v>139</v>
       </c>
       <c r="C816">
-        <f t="array" ref="C816">SUM(IF(Connections!A816:B2790=Authors!A816, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C816">SUM(IF(Connections!$A$2:$B$1976=Authors!A816, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D816">
         <v>1</v>
@@ -15475,8 +15477,8 @@
         <v>809</v>
       </c>
       <c r="C817">
-        <f t="array" ref="C817">SUM(IF(Connections!A817:B2791=Authors!A817, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C817">SUM(IF(Connections!$A$2:$B$1976=Authors!A817, 1, 0))+1</f>
+        <v>8</v>
       </c>
       <c r="D817">
         <v>1</v>
@@ -15490,7 +15492,7 @@
         <v>810</v>
       </c>
       <c r="C818">
-        <f t="array" ref="C818">SUM(IF(Connections!A818:B2792=Authors!A818, 1, 0))+1</f>
+        <f t="array" ref="C818">SUM(IF(Connections!$A$2:$B$1976=Authors!A818, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D818">
@@ -15505,7 +15507,7 @@
         <v>811</v>
       </c>
       <c r="C819">
-        <f t="array" ref="C819">SUM(IF(Connections!A819:B2793=Authors!A819, 1, 0))+1</f>
+        <f t="array" ref="C819">SUM(IF(Connections!$A$2:$B$1976=Authors!A819, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D819">
@@ -15520,8 +15522,8 @@
         <v>812</v>
       </c>
       <c r="C820">
-        <f t="array" ref="C820">SUM(IF(Connections!A820:B2794=Authors!A820, 1, 0))+1</f>
-        <v>9</v>
+        <f t="array" ref="C820">SUM(IF(Connections!$A$2:$B$1976=Authors!A820, 1, 0))+1</f>
+        <v>10</v>
       </c>
       <c r="D820">
         <v>1</v>
@@ -15535,8 +15537,8 @@
         <v>813</v>
       </c>
       <c r="C821">
-        <f t="array" ref="C821">SUM(IF(Connections!A821:B2795=Authors!A821, 1, 0))+1</f>
-        <v>7</v>
+        <f t="array" ref="C821">SUM(IF(Connections!$A$2:$B$1976=Authors!A821, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D821">
         <v>1</v>
@@ -15550,8 +15552,8 @@
         <v>814</v>
       </c>
       <c r="C822">
-        <f t="array" ref="C822">SUM(IF(Connections!A822:B2796=Authors!A822, 1, 0))+1</f>
-        <v>9</v>
+        <f t="array" ref="C822">SUM(IF(Connections!$A$2:$B$1976=Authors!A822, 1, 0))+1</f>
+        <v>11</v>
       </c>
       <c r="D822">
         <v>1</v>
@@ -15565,7 +15567,7 @@
         <v>815</v>
       </c>
       <c r="C823">
-        <f t="array" ref="C823">SUM(IF(Connections!A823:B2797=Authors!A823, 1, 0))+1</f>
+        <f t="array" ref="C823">SUM(IF(Connections!$A$2:$B$1976=Authors!A823, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D823">
@@ -15580,8 +15582,8 @@
         <v>165</v>
       </c>
       <c r="C824">
-        <f t="array" ref="C824">SUM(IF(Connections!A824:B2798=Authors!A824, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C824">SUM(IF(Connections!$A$2:$B$1976=Authors!A824, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D824">
         <v>1</v>
@@ -15595,8 +15597,8 @@
         <v>54</v>
       </c>
       <c r="C825">
-        <f t="array" ref="C825">SUM(IF(Connections!A825:B2799=Authors!A825, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C825">SUM(IF(Connections!$A$2:$B$1976=Authors!A825, 1, 0))+1</f>
+        <v>8</v>
       </c>
       <c r="D825">
         <v>1</v>
@@ -15610,8 +15612,8 @@
         <v>818</v>
       </c>
       <c r="C826">
-        <f t="array" ref="C826">SUM(IF(Connections!A826:B2800=Authors!A826, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C826">SUM(IF(Connections!$A$2:$B$1976=Authors!A826, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D826">
         <v>1</v>
@@ -15625,8 +15627,8 @@
         <v>784</v>
       </c>
       <c r="C827">
-        <f t="array" ref="C827">SUM(IF(Connections!A827:B2801=Authors!A827, 1, 0))+1</f>
-        <v>13</v>
+        <f t="array" ref="C827">SUM(IF(Connections!$A$2:$B$1976=Authors!A827, 1, 0))+1</f>
+        <v>18</v>
       </c>
       <c r="D827">
         <v>1</v>
@@ -15640,7 +15642,7 @@
         <v>820</v>
       </c>
       <c r="C828">
-        <f t="array" ref="C828">SUM(IF(Connections!A828:B2802=Authors!A828, 1, 0))+1</f>
+        <f t="array" ref="C828">SUM(IF(Connections!$A$2:$B$1976=Authors!A828, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D828">
@@ -15655,8 +15657,8 @@
         <v>821</v>
       </c>
       <c r="C829">
-        <f t="array" ref="C829">SUM(IF(Connections!A829:B2803=Authors!A829, 1, 0))+1</f>
-        <v>17</v>
+        <f t="array" ref="C829">SUM(IF(Connections!$A$2:$B$1976=Authors!A829, 1, 0))+1</f>
+        <v>20</v>
       </c>
       <c r="D829">
         <v>1</v>
@@ -15670,8 +15672,8 @@
         <v>272</v>
       </c>
       <c r="C830">
-        <f t="array" ref="C830">SUM(IF(Connections!A830:B2804=Authors!A830, 1, 0))+1</f>
-        <v>10</v>
+        <f t="array" ref="C830">SUM(IF(Connections!$A$2:$B$1976=Authors!A830, 1, 0))+1</f>
+        <v>12</v>
       </c>
       <c r="D830">
         <v>1</v>
@@ -15685,8 +15687,8 @@
         <v>823</v>
       </c>
       <c r="C831">
-        <f t="array" ref="C831">SUM(IF(Connections!A831:B2805=Authors!A831, 1, 0))+1</f>
-        <v>4</v>
+        <f t="array" ref="C831">SUM(IF(Connections!$A$2:$B$1976=Authors!A831, 1, 0))+1</f>
+        <v>6</v>
       </c>
       <c r="D831">
         <v>1</v>
@@ -15700,8 +15702,8 @@
         <v>192</v>
       </c>
       <c r="C832">
-        <f t="array" ref="C832">SUM(IF(Connections!A832:B2806=Authors!A832, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C832">SUM(IF(Connections!$A$2:$B$1976=Authors!A832, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D832">
         <v>1</v>
@@ -15715,7 +15717,7 @@
         <v>825</v>
       </c>
       <c r="C833">
-        <f t="array" ref="C833">SUM(IF(Connections!A833:B2807=Authors!A833, 1, 0))+1</f>
+        <f t="array" ref="C833">SUM(IF(Connections!$A$2:$B$1976=Authors!A833, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D833">
@@ -15730,8 +15732,8 @@
         <v>145</v>
       </c>
       <c r="C834">
-        <f t="array" ref="C834">SUM(IF(Connections!A834:B2808=Authors!A834, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C834">SUM(IF(Connections!$A$2:$B$1976=Authors!A834, 1, 0))+1</f>
+        <v>2</v>
       </c>
       <c r="D834">
         <v>1</v>
@@ -15745,7 +15747,7 @@
         <v>235</v>
       </c>
       <c r="C835">
-        <f t="array" ref="C835">SUM(IF(Connections!A835:B2809=Authors!A835, 1, 0))+1</f>
+        <f t="array" ref="C835">SUM(IF(Connections!$A$2:$B$1976=Authors!A835, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D835">
@@ -15760,7 +15762,7 @@
         <v>828</v>
       </c>
       <c r="C836">
-        <f t="array" ref="C836">SUM(IF(Connections!A836:B2810=Authors!A836, 1, 0))+1</f>
+        <f t="array" ref="C836">SUM(IF(Connections!$A$2:$B$1976=Authors!A836, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D836">
@@ -15775,8 +15777,8 @@
         <v>829</v>
       </c>
       <c r="C837">
-        <f t="array" ref="C837">SUM(IF(Connections!A837:B2811=Authors!A837, 1, 0))+1</f>
-        <v>11</v>
+        <f t="array" ref="C837">SUM(IF(Connections!$A$2:$B$1976=Authors!A837, 1, 0))+1</f>
+        <v>16</v>
       </c>
       <c r="D837">
         <v>1</v>
@@ -15790,7 +15792,7 @@
         <v>830</v>
       </c>
       <c r="C838">
-        <f t="array" ref="C838">SUM(IF(Connections!A838:B2812=Authors!A838, 1, 0))+1</f>
+        <f t="array" ref="C838">SUM(IF(Connections!$A$2:$B$1976=Authors!A838, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D838">
@@ -15805,8 +15807,8 @@
         <v>831</v>
       </c>
       <c r="C839">
-        <f t="array" ref="C839">SUM(IF(Connections!A839:B2813=Authors!A839, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C839">SUM(IF(Connections!$A$2:$B$1976=Authors!A839, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D839">
         <v>1</v>
@@ -15820,7 +15822,7 @@
         <v>832</v>
       </c>
       <c r="C840">
-        <f t="array" ref="C840">SUM(IF(Connections!A840:B2814=Authors!A840, 1, 0))+1</f>
+        <f t="array" ref="C840">SUM(IF(Connections!$A$2:$B$1976=Authors!A840, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D840">
@@ -15835,8 +15837,8 @@
         <v>833</v>
       </c>
       <c r="C841">
-        <f t="array" ref="C841">SUM(IF(Connections!A841:B2815=Authors!A841, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C841">SUM(IF(Connections!$A$2:$B$1976=Authors!A841, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D841">
         <v>1</v>
@@ -15850,8 +15852,8 @@
         <v>208</v>
       </c>
       <c r="C842">
-        <f t="array" ref="C842">SUM(IF(Connections!A842:B2816=Authors!A842, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C842">SUM(IF(Connections!$A$2:$B$1976=Authors!A842, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D842">
         <v>1</v>
@@ -15865,8 +15867,8 @@
         <v>835</v>
       </c>
       <c r="C843">
-        <f t="array" ref="C843">SUM(IF(Connections!A843:B2817=Authors!A843, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C843">SUM(IF(Connections!$A$2:$B$1976=Authors!A843, 1, 0))+1</f>
+        <v>7</v>
       </c>
       <c r="D843">
         <v>1</v>
@@ -15880,8 +15882,8 @@
         <v>836</v>
       </c>
       <c r="C844">
-        <f t="array" ref="C844">SUM(IF(Connections!A844:B2818=Authors!A844, 1, 0))+1</f>
-        <v>7</v>
+        <f t="array" ref="C844">SUM(IF(Connections!$A$2:$B$1976=Authors!A844, 1, 0))+1</f>
+        <v>10</v>
       </c>
       <c r="D844">
         <v>1</v>
@@ -15895,8 +15897,8 @@
         <v>329</v>
       </c>
       <c r="C845">
-        <f t="array" ref="C845">SUM(IF(Connections!A845:B2819=Authors!A845, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C845">SUM(IF(Connections!$A$2:$B$1976=Authors!A845, 1, 0))+1</f>
+        <v>7</v>
       </c>
       <c r="D845">
         <v>1</v>
@@ -15910,7 +15912,7 @@
         <v>458</v>
       </c>
       <c r="C846">
-        <f t="array" ref="C846">SUM(IF(Connections!A846:B2820=Authors!A846, 1, 0))+1</f>
+        <f t="array" ref="C846">SUM(IF(Connections!$A$2:$B$1976=Authors!A846, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D846">
@@ -15925,8 +15927,8 @@
         <v>840</v>
       </c>
       <c r="C847">
-        <f t="array" ref="C847">SUM(IF(Connections!A847:B2821=Authors!A847, 1, 0))+1</f>
-        <v>7</v>
+        <f t="array" ref="C847">SUM(IF(Connections!$A$2:$B$1976=Authors!A847, 1, 0))+1</f>
+        <v>9</v>
       </c>
       <c r="D847">
         <v>1</v>
@@ -15940,7 +15942,7 @@
         <v>841</v>
       </c>
       <c r="C848">
-        <f t="array" ref="C848">SUM(IF(Connections!A848:B2822=Authors!A848, 1, 0))+1</f>
+        <f t="array" ref="C848">SUM(IF(Connections!$A$2:$B$1976=Authors!A848, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D848">
@@ -15955,7 +15957,7 @@
         <v>842</v>
       </c>
       <c r="C849">
-        <f t="array" ref="C849">SUM(IF(Connections!A849:B2823=Authors!A849, 1, 0))+1</f>
+        <f t="array" ref="C849">SUM(IF(Connections!$A$2:$B$1976=Authors!A849, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D849">
@@ -15970,8 +15972,8 @@
         <v>359</v>
       </c>
       <c r="C850">
-        <f t="array" ref="C850">SUM(IF(Connections!A850:B2824=Authors!A850, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C850">SUM(IF(Connections!$A$2:$B$1976=Authors!A850, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D850">
         <v>1</v>
@@ -15985,8 +15987,8 @@
         <v>844</v>
       </c>
       <c r="C851">
-        <f t="array" ref="C851">SUM(IF(Connections!A851:B2825=Authors!A851, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C851">SUM(IF(Connections!$A$2:$B$1976=Authors!A851, 1, 0))+1</f>
+        <v>2</v>
       </c>
       <c r="D851">
         <v>1</v>
@@ -16000,8 +16002,8 @@
         <v>366</v>
       </c>
       <c r="C852">
-        <f t="array" ref="C852">SUM(IF(Connections!A852:B2826=Authors!A852, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C852">SUM(IF(Connections!$A$2:$B$1976=Authors!A852, 1, 0))+1</f>
+        <v>2</v>
       </c>
       <c r="D852">
         <v>1</v>
@@ -16015,8 +16017,8 @@
         <v>846</v>
       </c>
       <c r="C853">
-        <f t="array" ref="C853">SUM(IF(Connections!A853:B2827=Authors!A853, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C853">SUM(IF(Connections!$A$2:$B$1976=Authors!A853, 1, 0))+1</f>
+        <v>2</v>
       </c>
       <c r="D853">
         <v>1</v>
@@ -16030,8 +16032,8 @@
         <v>847</v>
       </c>
       <c r="C854">
-        <f t="array" ref="C854">SUM(IF(Connections!A854:B2828=Authors!A854, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C854">SUM(IF(Connections!$A$2:$B$1976=Authors!A854, 1, 0))+1</f>
+        <v>7</v>
       </c>
       <c r="D854">
         <v>1</v>
@@ -16045,7 +16047,7 @@
         <v>849</v>
       </c>
       <c r="C855">
-        <f t="array" ref="C855">SUM(IF(Connections!A855:B2829=Authors!A855, 1, 0))+1</f>
+        <f t="array" ref="C855">SUM(IF(Connections!$A$2:$B$1976=Authors!A855, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D855">
@@ -16060,8 +16062,8 @@
         <v>383</v>
       </c>
       <c r="C856">
-        <f t="array" ref="C856">SUM(IF(Connections!A856:B2830=Authors!A856, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C856">SUM(IF(Connections!$A$2:$B$1976=Authors!A856, 1, 0))+1</f>
+        <v>2</v>
       </c>
       <c r="D856">
         <v>1</v>
@@ -16075,8 +16077,8 @@
         <v>851</v>
       </c>
       <c r="C857">
-        <f t="array" ref="C857">SUM(IF(Connections!A857:B2831=Authors!A857, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C857">SUM(IF(Connections!$A$2:$B$1976=Authors!A857, 1, 0))+1</f>
+        <v>8</v>
       </c>
       <c r="D857">
         <v>1</v>
@@ -16090,7 +16092,7 @@
         <v>944</v>
       </c>
       <c r="C858">
-        <f t="array" ref="C858">SUM(IF(Connections!A858:B2832=Authors!A858, 1, 0))+1</f>
+        <f t="array" ref="C858">SUM(IF(Connections!$A$2:$B$1976=Authors!A858, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D858">
@@ -16105,8 +16107,8 @@
         <v>853</v>
       </c>
       <c r="C859">
-        <f t="array" ref="C859">SUM(IF(Connections!A859:B2833=Authors!A859, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C859">SUM(IF(Connections!$A$2:$B$1976=Authors!A859, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D859">
         <v>1</v>
@@ -16120,7 +16122,7 @@
         <v>854</v>
       </c>
       <c r="C860">
-        <f t="array" ref="C860">SUM(IF(Connections!A860:B2834=Authors!A860, 1, 0))+1</f>
+        <f t="array" ref="C860">SUM(IF(Connections!$A$2:$B$1976=Authors!A860, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D860">
@@ -16135,8 +16137,8 @@
         <v>422</v>
       </c>
       <c r="C861">
-        <f t="array" ref="C861">SUM(IF(Connections!A861:B2835=Authors!A861, 1, 0))+1</f>
-        <v>10</v>
+        <f t="array" ref="C861">SUM(IF(Connections!$A$2:$B$1976=Authors!A861, 1, 0))+1</f>
+        <v>12</v>
       </c>
       <c r="D861">
         <v>1</v>
@@ -16150,7 +16152,7 @@
         <v>857</v>
       </c>
       <c r="C862">
-        <f t="array" ref="C862">SUM(IF(Connections!A862:B2836=Authors!A862, 1, 0))+1</f>
+        <f t="array" ref="C862">SUM(IF(Connections!$A$2:$B$1976=Authors!A862, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D862">
@@ -16165,8 +16167,8 @@
         <v>858</v>
       </c>
       <c r="C863">
-        <f t="array" ref="C863">SUM(IF(Connections!A863:B2837=Authors!A863, 1, 0))+1</f>
-        <v>6</v>
+        <f t="array" ref="C863">SUM(IF(Connections!$A$2:$B$1976=Authors!A863, 1, 0))+1</f>
+        <v>10</v>
       </c>
       <c r="D863">
         <v>1</v>
@@ -16180,8 +16182,8 @@
         <v>859</v>
       </c>
       <c r="C864">
-        <f t="array" ref="C864">SUM(IF(Connections!A864:B2838=Authors!A864, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C864">SUM(IF(Connections!$A$2:$B$1976=Authors!A864, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D864">
         <v>1</v>
@@ -16195,8 +16197,8 @@
         <v>899</v>
       </c>
       <c r="C865">
-        <f t="array" ref="C865">SUM(IF(Connections!A865:B2839=Authors!A865, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C865">SUM(IF(Connections!$A$2:$B$1976=Authors!A865, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D865">
         <v>1</v>
@@ -16210,7 +16212,7 @@
         <v>860</v>
       </c>
       <c r="C866">
-        <f t="array" ref="C866">SUM(IF(Connections!A866:B2840=Authors!A866, 1, 0))+1</f>
+        <f t="array" ref="C866">SUM(IF(Connections!$A$2:$B$1976=Authors!A866, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D866">
@@ -16225,7 +16227,7 @@
         <v>861</v>
       </c>
       <c r="C867">
-        <f t="array" ref="C867">SUM(IF(Connections!A867:B2841=Authors!A867, 1, 0))+1</f>
+        <f t="array" ref="C867">SUM(IF(Connections!$A$2:$B$1976=Authors!A867, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D867">
@@ -16240,8 +16242,8 @@
         <v>697</v>
       </c>
       <c r="C868">
-        <f t="array" ref="C868">SUM(IF(Connections!A868:B2842=Authors!A868, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C868">SUM(IF(Connections!$A$2:$B$1976=Authors!A868, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D868">
         <v>1</v>
@@ -16255,8 +16257,8 @@
         <v>457</v>
       </c>
       <c r="C869">
-        <f t="array" ref="C869">SUM(IF(Connections!A869:B2843=Authors!A869, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C869">SUM(IF(Connections!$A$2:$B$1976=Authors!A869, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D869">
         <v>1</v>
@@ -16270,7 +16272,7 @@
         <v>884</v>
       </c>
       <c r="C870">
-        <f t="array" ref="C870">SUM(IF(Connections!A870:B2844=Authors!A870, 1, 0))+1</f>
+        <f t="array" ref="C870">SUM(IF(Connections!$A$2:$B$1976=Authors!A870, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D870">
@@ -16285,7 +16287,7 @@
         <v>461</v>
       </c>
       <c r="C871">
-        <f t="array" ref="C871">SUM(IF(Connections!A871:B2845=Authors!A871, 1, 0))+1</f>
+        <f t="array" ref="C871">SUM(IF(Connections!$A$2:$B$1976=Authors!A871, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D871">
@@ -16300,8 +16302,8 @@
         <v>868</v>
       </c>
       <c r="C872">
-        <f t="array" ref="C872">SUM(IF(Connections!A872:B2846=Authors!A872, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C872">SUM(IF(Connections!$A$2:$B$1976=Authors!A872, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D872">
         <v>1</v>
@@ -16315,7 +16317,7 @@
         <v>869</v>
       </c>
       <c r="C873">
-        <f t="array" ref="C873">SUM(IF(Connections!A873:B2847=Authors!A873, 1, 0))+1</f>
+        <f t="array" ref="C873">SUM(IF(Connections!$A$2:$B$1976=Authors!A873, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D873">
@@ -16330,8 +16332,8 @@
         <v>870</v>
       </c>
       <c r="C874">
-        <f t="array" ref="C874">SUM(IF(Connections!A874:B2848=Authors!A874, 1, 0))+1</f>
-        <v>7</v>
+        <f t="array" ref="C874">SUM(IF(Connections!$A$2:$B$1976=Authors!A874, 1, 0))+1</f>
+        <v>17</v>
       </c>
       <c r="D874">
         <v>1</v>
@@ -16345,8 +16347,8 @@
         <v>871</v>
       </c>
       <c r="C875">
-        <f t="array" ref="C875">SUM(IF(Connections!A875:B2849=Authors!A875, 1, 0))+1</f>
-        <v>4</v>
+        <f t="array" ref="C875">SUM(IF(Connections!$A$2:$B$1976=Authors!A875, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D875">
         <v>1</v>
@@ -16360,7 +16362,7 @@
         <v>918</v>
       </c>
       <c r="C876">
-        <f t="array" ref="C876">SUM(IF(Connections!A876:B2850=Authors!A876, 1, 0))+1</f>
+        <f t="array" ref="C876">SUM(IF(Connections!$A$2:$B$1976=Authors!A876, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D876">
@@ -16375,7 +16377,7 @@
         <v>872</v>
       </c>
       <c r="C877">
-        <f t="array" ref="C877">SUM(IF(Connections!A877:B2851=Authors!A877, 1, 0))+1</f>
+        <f t="array" ref="C877">SUM(IF(Connections!$A$2:$B$1976=Authors!A877, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D877">
@@ -16390,7 +16392,7 @@
         <v>873</v>
       </c>
       <c r="C878">
-        <f t="array" ref="C878">SUM(IF(Connections!A878:B2852=Authors!A878, 1, 0))+1</f>
+        <f t="array" ref="C878">SUM(IF(Connections!$A$2:$B$1976=Authors!A878, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D878">
@@ -16405,8 +16407,8 @@
         <v>507</v>
       </c>
       <c r="C879">
-        <f t="array" ref="C879">SUM(IF(Connections!A879:B2853=Authors!A879, 1, 0))+1</f>
-        <v>14</v>
+        <f t="array" ref="C879">SUM(IF(Connections!$A$2:$B$1976=Authors!A879, 1, 0))+1</f>
+        <v>18</v>
       </c>
       <c r="D879">
         <v>1</v>
@@ -16420,7 +16422,7 @@
         <v>875</v>
       </c>
       <c r="C880">
-        <f t="array" ref="C880">SUM(IF(Connections!A880:B2854=Authors!A880, 1, 0))+1</f>
+        <f t="array" ref="C880">SUM(IF(Connections!$A$2:$B$1976=Authors!A880, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D880">
@@ -16435,7 +16437,7 @@
         <v>876</v>
       </c>
       <c r="C881">
-        <f t="array" ref="C881">SUM(IF(Connections!A881:B2855=Authors!A881, 1, 0))+1</f>
+        <f t="array" ref="C881">SUM(IF(Connections!$A$2:$B$1976=Authors!A881, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D881">
@@ -16450,8 +16452,8 @@
         <v>447</v>
       </c>
       <c r="C882">
-        <f t="array" ref="C882">SUM(IF(Connections!A882:B2856=Authors!A882, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C882">SUM(IF(Connections!$A$2:$B$1976=Authors!A882, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D882">
         <v>1</v>
@@ -16465,7 +16467,7 @@
         <v>879</v>
       </c>
       <c r="C883">
-        <f t="array" ref="C883">SUM(IF(Connections!A883:B2857=Authors!A883, 1, 0))+1</f>
+        <f t="array" ref="C883">SUM(IF(Connections!$A$2:$B$1976=Authors!A883, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D883">
@@ -16480,7 +16482,7 @@
         <v>880</v>
       </c>
       <c r="C884">
-        <f t="array" ref="C884">SUM(IF(Connections!A884:B2858=Authors!A884, 1, 0))+1</f>
+        <f t="array" ref="C884">SUM(IF(Connections!$A$2:$B$1976=Authors!A884, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D884">
@@ -16495,8 +16497,8 @@
         <v>881</v>
       </c>
       <c r="C885">
-        <f t="array" ref="C885">SUM(IF(Connections!A885:B2859=Authors!A885, 1, 0))+1</f>
-        <v>4</v>
+        <f t="array" ref="C885">SUM(IF(Connections!$A$2:$B$1976=Authors!A885, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D885">
         <v>1</v>
@@ -16510,7 +16512,7 @@
         <v>882</v>
       </c>
       <c r="C886">
-        <f t="array" ref="C886">SUM(IF(Connections!A886:B2860=Authors!A886, 1, 0))+1</f>
+        <f t="array" ref="C886">SUM(IF(Connections!$A$2:$B$1976=Authors!A886, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D886">
@@ -16525,7 +16527,7 @@
         <v>883</v>
       </c>
       <c r="C887">
-        <f t="array" ref="C887">SUM(IF(Connections!A887:B2861=Authors!A887, 1, 0))+1</f>
+        <f t="array" ref="C887">SUM(IF(Connections!$A$2:$B$1976=Authors!A887, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D887">
@@ -16540,8 +16542,8 @@
         <v>285</v>
       </c>
       <c r="C888">
-        <f t="array" ref="C888">SUM(IF(Connections!A888:B2862=Authors!A888, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C888">SUM(IF(Connections!$A$2:$B$1976=Authors!A888, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D888">
         <v>1</v>
@@ -16555,8 +16557,8 @@
         <v>886</v>
       </c>
       <c r="C889">
-        <f t="array" ref="C889">SUM(IF(Connections!A889:B2863=Authors!A889, 1, 0))+1</f>
-        <v>10</v>
+        <f t="array" ref="C889">SUM(IF(Connections!$A$2:$B$1976=Authors!A889, 1, 0))+1</f>
+        <v>12</v>
       </c>
       <c r="D889">
         <v>1</v>
@@ -16570,8 +16572,8 @@
         <v>887</v>
       </c>
       <c r="C890">
-        <f t="array" ref="C890">SUM(IF(Connections!A890:B2864=Authors!A890, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C890">SUM(IF(Connections!$A$2:$B$1976=Authors!A890, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D890">
         <v>1</v>
@@ -16585,8 +16587,8 @@
         <v>888</v>
       </c>
       <c r="C891">
-        <f t="array" ref="C891">SUM(IF(Connections!A891:B2865=Authors!A891, 1, 0))+1</f>
-        <v>7</v>
+        <f t="array" ref="C891">SUM(IF(Connections!$A$2:$B$1976=Authors!A891, 1, 0))+1</f>
+        <v>10</v>
       </c>
       <c r="D891">
         <v>1</v>
@@ -16600,8 +16602,8 @@
         <v>889</v>
       </c>
       <c r="C892">
-        <f t="array" ref="C892">SUM(IF(Connections!A892:B2866=Authors!A892, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C892">SUM(IF(Connections!$A$2:$B$1976=Authors!A892, 1, 0))+1</f>
+        <v>6</v>
       </c>
       <c r="D892">
         <v>1</v>
@@ -16615,7 +16617,7 @@
         <v>587</v>
       </c>
       <c r="C893">
-        <f t="array" ref="C893">SUM(IF(Connections!A893:B2867=Authors!A893, 1, 0))+1</f>
+        <f t="array" ref="C893">SUM(IF(Connections!$A$2:$B$1976=Authors!A893, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D893">
@@ -16630,7 +16632,7 @@
         <v>891</v>
       </c>
       <c r="C894">
-        <f t="array" ref="C894">SUM(IF(Connections!A894:B2868=Authors!A894, 1, 0))+1</f>
+        <f t="array" ref="C894">SUM(IF(Connections!$A$2:$B$1976=Authors!A894, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D894">
@@ -16645,7 +16647,7 @@
         <v>341</v>
       </c>
       <c r="C895">
-        <f t="array" ref="C895">SUM(IF(Connections!A895:B2869=Authors!A895, 1, 0))+1</f>
+        <f t="array" ref="C895">SUM(IF(Connections!$A$2:$B$1976=Authors!A895, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D895">
@@ -16660,7 +16662,7 @@
         <v>893</v>
       </c>
       <c r="C896">
-        <f t="array" ref="C896">SUM(IF(Connections!A896:B2870=Authors!A896, 1, 0))+1</f>
+        <f t="array" ref="C896">SUM(IF(Connections!$A$2:$B$1976=Authors!A896, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D896">
@@ -16675,7 +16677,7 @@
         <v>894</v>
       </c>
       <c r="C897">
-        <f t="array" ref="C897">SUM(IF(Connections!A897:B2871=Authors!A897, 1, 0))+1</f>
+        <f t="array" ref="C897">SUM(IF(Connections!$A$2:$B$1976=Authors!A897, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D897">
@@ -16690,8 +16692,8 @@
         <v>615</v>
       </c>
       <c r="C898">
-        <f t="array" ref="C898">SUM(IF(Connections!A898:B2872=Authors!A898, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C898">SUM(IF(Connections!$A$2:$B$1976=Authors!A898, 1, 0))+1</f>
+        <v>2</v>
       </c>
       <c r="D898">
         <v>1</v>
@@ -16705,8 +16707,8 @@
         <v>896</v>
       </c>
       <c r="C899">
-        <f t="array" ref="C899">SUM(IF(Connections!A899:B2873=Authors!A899, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C899">SUM(IF(Connections!$A$2:$B$1976=Authors!A899, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D899">
         <v>1</v>
@@ -16720,8 +16722,8 @@
         <v>897</v>
       </c>
       <c r="C900">
-        <f t="array" ref="C900">SUM(IF(Connections!A900:B2874=Authors!A900, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C900">SUM(IF(Connections!$A$2:$B$1976=Authors!A900, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D900">
         <v>1</v>
@@ -16735,8 +16737,8 @@
         <v>137</v>
       </c>
       <c r="C901">
-        <f t="array" ref="C901">SUM(IF(Connections!A901:B2875=Authors!A901, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C901">SUM(IF(Connections!$A$2:$B$1976=Authors!A901, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D901">
         <v>1</v>
@@ -16750,8 +16752,8 @@
         <v>702</v>
       </c>
       <c r="C902">
-        <f t="array" ref="C902">SUM(IF(Connections!A902:B2876=Authors!A902, 1, 0))+1</f>
-        <v>4</v>
+        <f t="array" ref="C902">SUM(IF(Connections!$A$2:$B$1976=Authors!A902, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D902">
         <v>1</v>
@@ -16765,8 +16767,8 @@
         <v>900</v>
       </c>
       <c r="C903">
-        <f t="array" ref="C903">SUM(IF(Connections!A903:B2877=Authors!A903, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C903">SUM(IF(Connections!$A$2:$B$1976=Authors!A903, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D903">
         <v>1</v>
@@ -16780,7 +16782,7 @@
         <v>901</v>
       </c>
       <c r="C904">
-        <f t="array" ref="C904">SUM(IF(Connections!A904:B2878=Authors!A904, 1, 0))+1</f>
+        <f t="array" ref="C904">SUM(IF(Connections!$A$2:$B$1976=Authors!A904, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D904">
@@ -16795,7 +16797,7 @@
         <v>902</v>
       </c>
       <c r="C905">
-        <f t="array" ref="C905">SUM(IF(Connections!A905:B2879=Authors!A905, 1, 0))+1</f>
+        <f t="array" ref="C905">SUM(IF(Connections!$A$2:$B$1976=Authors!A905, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D905">
@@ -16810,7 +16812,7 @@
         <v>650</v>
       </c>
       <c r="C906">
-        <f t="array" ref="C906">SUM(IF(Connections!A906:B2880=Authors!A906, 1, 0))+1</f>
+        <f t="array" ref="C906">SUM(IF(Connections!$A$2:$B$1976=Authors!A906, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D906">
@@ -16825,7 +16827,7 @@
         <v>946</v>
       </c>
       <c r="C907">
-        <f t="array" ref="C907">SUM(IF(Connections!A907:B2881=Authors!A907, 1, 0))+1</f>
+        <f t="array" ref="C907">SUM(IF(Connections!$A$2:$B$1976=Authors!A907, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D907">
@@ -16840,8 +16842,8 @@
         <v>400</v>
       </c>
       <c r="C908">
-        <f t="array" ref="C908">SUM(IF(Connections!A908:B2882=Authors!A908, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C908">SUM(IF(Connections!$A$2:$B$1976=Authors!A908, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D908">
         <v>1</v>
@@ -16855,8 +16857,8 @@
         <v>905</v>
       </c>
       <c r="C909">
-        <f t="array" ref="C909">SUM(IF(Connections!A909:B2883=Authors!A909, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C909">SUM(IF(Connections!$A$2:$B$1976=Authors!A909, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D909">
         <v>1</v>
@@ -16870,8 +16872,8 @@
         <v>906</v>
       </c>
       <c r="C910">
-        <f t="array" ref="C910">SUM(IF(Connections!A910:B2884=Authors!A910, 1, 0))+1</f>
-        <v>16</v>
+        <f t="array" ref="C910">SUM(IF(Connections!$A$2:$B$1976=Authors!A910, 1, 0))+1</f>
+        <v>21</v>
       </c>
       <c r="D910">
         <v>1</v>
@@ -16885,8 +16887,8 @@
         <v>907</v>
       </c>
       <c r="C911">
-        <f t="array" ref="C911">SUM(IF(Connections!A911:B2885=Authors!A911, 1, 0))+1</f>
-        <v>4</v>
+        <f t="array" ref="C911">SUM(IF(Connections!$A$2:$B$1976=Authors!A911, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D911">
         <v>1</v>
@@ -16900,8 +16902,8 @@
         <v>908</v>
       </c>
       <c r="C912">
-        <f t="array" ref="C912">SUM(IF(Connections!A912:B2886=Authors!A912, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C912">SUM(IF(Connections!$A$2:$B$1976=Authors!A912, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D912">
         <v>1</v>
@@ -16915,7 +16917,7 @@
         <v>909</v>
       </c>
       <c r="C913">
-        <f t="array" ref="C913">SUM(IF(Connections!A913:B2887=Authors!A913, 1, 0))+1</f>
+        <f t="array" ref="C913">SUM(IF(Connections!$A$2:$B$1976=Authors!A913, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D913">
@@ -16930,8 +16932,8 @@
         <v>105</v>
       </c>
       <c r="C914">
-        <f t="array" ref="C914">SUM(IF(Connections!A914:B2888=Authors!A914, 1, 0))+1</f>
-        <v>1</v>
+        <f t="array" ref="C914">SUM(IF(Connections!$A$2:$B$1976=Authors!A914, 1, 0))+1</f>
+        <v>4</v>
       </c>
       <c r="D914">
         <v>1</v>
@@ -16945,8 +16947,8 @@
         <v>376</v>
       </c>
       <c r="C915">
-        <f t="array" ref="C915">SUM(IF(Connections!A915:B2889=Authors!A915, 1, 0))+1</f>
-        <v>4</v>
+        <f t="array" ref="C915">SUM(IF(Connections!$A$2:$B$1976=Authors!A915, 1, 0))+1</f>
+        <v>8</v>
       </c>
       <c r="D915">
         <v>1</v>
@@ -16960,8 +16962,8 @@
         <v>912</v>
       </c>
       <c r="C916">
-        <f t="array" ref="C916">SUM(IF(Connections!A916:B2890=Authors!A916, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C916">SUM(IF(Connections!$A$2:$B$1976=Authors!A916, 1, 0))+1</f>
+        <v>6</v>
       </c>
       <c r="D916">
         <v>1</v>
@@ -16975,7 +16977,7 @@
         <v>913</v>
       </c>
       <c r="C917">
-        <f t="array" ref="C917">SUM(IF(Connections!A917:B2891=Authors!A917, 1, 0))+1</f>
+        <f t="array" ref="C917">SUM(IF(Connections!$A$2:$B$1976=Authors!A917, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D917">
@@ -16990,7 +16992,7 @@
         <v>473</v>
       </c>
       <c r="C918">
-        <f t="array" ref="C918">SUM(IF(Connections!A918:B2892=Authors!A918, 1, 0))+1</f>
+        <f t="array" ref="C918">SUM(IF(Connections!$A$2:$B$1976=Authors!A918, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D918">
@@ -17005,8 +17007,8 @@
         <v>915</v>
       </c>
       <c r="C919">
-        <f t="array" ref="C919">SUM(IF(Connections!A919:B2893=Authors!A919, 1, 0))+1</f>
-        <v>4</v>
+        <f t="array" ref="C919">SUM(IF(Connections!$A$2:$B$1976=Authors!A919, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D919">
         <v>1</v>
@@ -17020,7 +17022,7 @@
         <v>916</v>
       </c>
       <c r="C920">
-        <f t="array" ref="C920">SUM(IF(Connections!A920:B2894=Authors!A920, 1, 0))+1</f>
+        <f t="array" ref="C920">SUM(IF(Connections!$A$2:$B$1976=Authors!A920, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D920">
@@ -17035,8 +17037,8 @@
         <v>917</v>
       </c>
       <c r="C921">
-        <f t="array" ref="C921">SUM(IF(Connections!A921:B2895=Authors!A921, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C921">SUM(IF(Connections!$A$2:$B$1976=Authors!A921, 1, 0))+1</f>
+        <v>7</v>
       </c>
       <c r="D921">
         <v>1</v>
@@ -17050,8 +17052,8 @@
         <v>716</v>
       </c>
       <c r="C922">
-        <f t="array" ref="C922">SUM(IF(Connections!A922:B2896=Authors!A922, 1, 0))+1</f>
-        <v>3</v>
+        <f t="array" ref="C922">SUM(IF(Connections!$A$2:$B$1976=Authors!A922, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D922">
         <v>1</v>
@@ -17065,8 +17067,8 @@
         <v>919</v>
       </c>
       <c r="C923">
-        <f t="array" ref="C923">SUM(IF(Connections!A923:B2897=Authors!A923, 1, 0))+1</f>
-        <v>6</v>
+        <f t="array" ref="C923">SUM(IF(Connections!$A$2:$B$1976=Authors!A923, 1, 0))+1</f>
+        <v>8</v>
       </c>
       <c r="D923">
         <v>1</v>
@@ -17080,7 +17082,7 @@
         <v>920</v>
       </c>
       <c r="C924">
-        <f t="array" ref="C924">SUM(IF(Connections!A924:B2898=Authors!A924, 1, 0))+1</f>
+        <f t="array" ref="C924">SUM(IF(Connections!$A$2:$B$1976=Authors!A924, 1, 0))+1</f>
         <v>5</v>
       </c>
       <c r="D924">
@@ -17095,7 +17097,7 @@
         <v>754</v>
       </c>
       <c r="C925">
-        <f t="array" ref="C925">SUM(IF(Connections!A925:B2899=Authors!A925, 1, 0))+1</f>
+        <f t="array" ref="C925">SUM(IF(Connections!$A$2:$B$1976=Authors!A925, 1, 0))+1</f>
         <v>4</v>
       </c>
       <c r="D925">
@@ -17110,8 +17112,8 @@
         <v>922</v>
       </c>
       <c r="C926">
-        <f t="array" ref="C926">SUM(IF(Connections!A926:B2900=Authors!A926, 1, 0))+1</f>
-        <v>4</v>
+        <f t="array" ref="C926">SUM(IF(Connections!$A$2:$B$1976=Authors!A926, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D926">
         <v>1</v>
@@ -17125,7 +17127,7 @@
         <v>923</v>
       </c>
       <c r="C927">
-        <f t="array" ref="C927">SUM(IF(Connections!A927:B2901=Authors!A927, 1, 0))+1</f>
+        <f t="array" ref="C927">SUM(IF(Connections!$A$2:$B$1976=Authors!A927, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D927">
@@ -17140,7 +17142,7 @@
         <v>924</v>
       </c>
       <c r="C928">
-        <f t="array" ref="C928">SUM(IF(Connections!A928:B2902=Authors!A928, 1, 0))+1</f>
+        <f t="array" ref="C928">SUM(IF(Connections!$A$2:$B$1976=Authors!A928, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D928">
@@ -17155,8 +17157,8 @@
         <v>925</v>
       </c>
       <c r="C929">
-        <f t="array" ref="C929">SUM(IF(Connections!A929:B2903=Authors!A929, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C929">SUM(IF(Connections!$A$2:$B$1976=Authors!A929, 1, 0))+1</f>
+        <v>7</v>
       </c>
       <c r="D929">
         <v>1</v>
@@ -17170,8 +17172,8 @@
         <v>778</v>
       </c>
       <c r="C930">
-        <f t="array" ref="C930">SUM(IF(Connections!A930:B2904=Authors!A930, 1, 0))+1</f>
-        <v>4</v>
+        <f t="array" ref="C930">SUM(IF(Connections!$A$2:$B$1976=Authors!A930, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D930">
         <v>1</v>
@@ -17185,8 +17187,8 @@
         <v>783</v>
       </c>
       <c r="C931">
-        <f t="array" ref="C931">SUM(IF(Connections!A931:B2905=Authors!A931, 1, 0))+1</f>
-        <v>12</v>
+        <f t="array" ref="C931">SUM(IF(Connections!$A$2:$B$1976=Authors!A931, 1, 0))+1</f>
+        <v>15</v>
       </c>
       <c r="D931">
         <v>1</v>
@@ -17200,8 +17202,8 @@
         <v>928</v>
       </c>
       <c r="C932">
-        <f t="array" ref="C932">SUM(IF(Connections!A932:B2906=Authors!A932, 1, 0))+1</f>
-        <v>2</v>
+        <f t="array" ref="C932">SUM(IF(Connections!$A$2:$B$1976=Authors!A932, 1, 0))+1</f>
+        <v>3</v>
       </c>
       <c r="D932">
         <v>1</v>
@@ -17215,7 +17217,7 @@
         <v>929</v>
       </c>
       <c r="C933">
-        <f t="array" ref="C933">SUM(IF(Connections!A933:B2907=Authors!A933, 1, 0))+1</f>
+        <f t="array" ref="C933">SUM(IF(Connections!$A$2:$B$1976=Authors!A933, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D933">
@@ -17230,8 +17232,8 @@
         <v>930</v>
       </c>
       <c r="C934">
-        <f t="array" ref="C934">SUM(IF(Connections!A934:B2908=Authors!A934, 1, 0))+1</f>
-        <v>4</v>
+        <f t="array" ref="C934">SUM(IF(Connections!$A$2:$B$1976=Authors!A934, 1, 0))+1</f>
+        <v>5</v>
       </c>
       <c r="D934">
         <v>1</v>
@@ -17245,7 +17247,7 @@
         <v>546</v>
       </c>
       <c r="C935">
-        <f t="array" ref="C935">SUM(IF(Connections!A935:B2909=Authors!A935, 1, 0))+1</f>
+        <f t="array" ref="C935">SUM(IF(Connections!$A$2:$B$1976=Authors!A935, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D935">
@@ -17260,7 +17262,7 @@
         <v>932</v>
       </c>
       <c r="C936">
-        <f t="array" ref="C936">SUM(IF(Connections!A936:B2910=Authors!A936, 1, 0))+1</f>
+        <f t="array" ref="C936">SUM(IF(Connections!$A$2:$B$1976=Authors!A936, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D936">
@@ -17275,8 +17277,8 @@
         <v>933</v>
       </c>
       <c r="C937">
-        <f t="array" ref="C937">SUM(IF(Connections!A937:B2911=Authors!A937, 1, 0))+1</f>
-        <v>15</v>
+        <f t="array" ref="C937">SUM(IF(Connections!$A$2:$B$1976=Authors!A937, 1, 0))+1</f>
+        <v>18</v>
       </c>
       <c r="D937">
         <v>1</v>
@@ -17290,7 +17292,7 @@
         <v>934</v>
       </c>
       <c r="C938">
-        <f t="array" ref="C938">SUM(IF(Connections!A938:B2912=Authors!A938, 1, 0))+1</f>
+        <f t="array" ref="C938">SUM(IF(Connections!$A$2:$B$1976=Authors!A938, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D938">
@@ -17305,8 +17307,8 @@
         <v>935</v>
       </c>
       <c r="C939">
-        <f t="array" ref="C939">SUM(IF(Connections!A939:B2913=Authors!A939, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C939">SUM(IF(Connections!$A$2:$B$1976=Authors!A939, 1, 0))+1</f>
+        <v>6</v>
       </c>
       <c r="D939">
         <v>1</v>
@@ -17320,8 +17322,8 @@
         <v>936</v>
       </c>
       <c r="C940">
-        <f t="array" ref="C940">SUM(IF(Connections!A940:B2914=Authors!A940, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C940">SUM(IF(Connections!$A$2:$B$1976=Authors!A940, 1, 0))+1</f>
+        <v>7</v>
       </c>
       <c r="D940">
         <v>1</v>
@@ -17335,7 +17337,7 @@
         <v>937</v>
       </c>
       <c r="C941">
-        <f t="array" ref="C941">SUM(IF(Connections!A941:B2915=Authors!A941, 1, 0))+1</f>
+        <f t="array" ref="C941">SUM(IF(Connections!$A$2:$B$1976=Authors!A941, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D941">
@@ -17350,7 +17352,7 @@
         <v>938</v>
       </c>
       <c r="C942">
-        <f t="array" ref="C942">SUM(IF(Connections!A942:B2916=Authors!A942, 1, 0))+1</f>
+        <f t="array" ref="C942">SUM(IF(Connections!$A$2:$B$1976=Authors!A942, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D942">
@@ -17365,7 +17367,7 @@
         <v>939</v>
       </c>
       <c r="C943">
-        <f t="array" ref="C943">SUM(IF(Connections!A943:B2917=Authors!A943, 1, 0))+1</f>
+        <f t="array" ref="C943">SUM(IF(Connections!$A$2:$B$1976=Authors!A943, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D943">
@@ -17380,7 +17382,7 @@
         <v>940</v>
       </c>
       <c r="C944">
-        <f t="array" ref="C944">SUM(IF(Connections!A944:B2918=Authors!A944, 1, 0))+1</f>
+        <f t="array" ref="C944">SUM(IF(Connections!$A$2:$B$1976=Authors!A944, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D944">
@@ -17395,7 +17397,7 @@
         <v>684</v>
       </c>
       <c r="C945">
-        <f t="array" ref="C945">SUM(IF(Connections!A945:B2919=Authors!A945, 1, 0))+1</f>
+        <f t="array" ref="C945">SUM(IF(Connections!$A$2:$B$1976=Authors!A945, 1, 0))+1</f>
         <v>2</v>
       </c>
       <c r="D945">
@@ -17410,7 +17412,7 @@
         <v>942</v>
       </c>
       <c r="C946">
-        <f t="array" ref="C946">SUM(IF(Connections!A946:B2920=Authors!A946, 1, 0))+1</f>
+        <f t="array" ref="C946">SUM(IF(Connections!$A$2:$B$1976=Authors!A946, 1, 0))+1</f>
         <v>6</v>
       </c>
       <c r="D946">
@@ -17425,8 +17427,8 @@
         <v>943</v>
       </c>
       <c r="C947">
-        <f t="array" ref="C947">SUM(IF(Connections!A947:B2921=Authors!A947, 1, 0))+1</f>
-        <v>7</v>
+        <f t="array" ref="C947">SUM(IF(Connections!$A$2:$B$1976=Authors!A947, 1, 0))+1</f>
+        <v>12</v>
       </c>
       <c r="D947">
         <v>1</v>
@@ -17440,7 +17442,7 @@
         <v>271</v>
       </c>
       <c r="C948">
-        <f t="array" ref="C948">SUM(IF(Connections!A948:B2922=Authors!A948, 1, 0))+1</f>
+        <f t="array" ref="C948">SUM(IF(Connections!$A$2:$B$1976=Authors!A948, 1, 0))+1</f>
         <v>1</v>
       </c>
       <c r="D948">
@@ -17455,8 +17457,8 @@
         <v>945</v>
       </c>
       <c r="C949">
-        <f t="array" ref="C949">SUM(IF(Connections!A949:B2923=Authors!A949, 1, 0))+1</f>
-        <v>10</v>
+        <f t="array" ref="C949">SUM(IF(Connections!$A$2:$B$1976=Authors!A949, 1, 0))+1</f>
+        <v>12</v>
       </c>
       <c r="D949">
         <v>1</v>
@@ -17470,8 +17472,8 @@
         <v>332</v>
       </c>
       <c r="C950">
-        <f t="array" ref="C950">SUM(IF(Connections!A950:B2924=Authors!A950, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C950">SUM(IF(Connections!$A$2:$B$1976=Authors!A950, 1, 0))+1</f>
+        <v>6</v>
       </c>
       <c r="D950">
         <v>1</v>
@@ -17485,8 +17487,8 @@
         <v>947</v>
       </c>
       <c r="C951">
-        <f t="array" ref="C951">SUM(IF(Connections!A951:B2925=Authors!A951, 1, 0))+1</f>
-        <v>15</v>
+        <f t="array" ref="C951">SUM(IF(Connections!$A$2:$B$1976=Authors!A951, 1, 0))+1</f>
+        <v>19</v>
       </c>
       <c r="D951">
         <v>1</v>
@@ -17500,8 +17502,8 @@
         <v>949</v>
       </c>
       <c r="C952">
-        <f t="array" ref="C952">SUM(IF(Connections!A952:B2926=Authors!A952, 1, 0))+1</f>
-        <v>5</v>
+        <f t="array" ref="C952">SUM(IF(Connections!$A$2:$B$1976=Authors!A952, 1, 0))+1</f>
+        <v>6</v>
       </c>
       <c r="D952">
         <v>1</v>
@@ -17515,8 +17517,8 @@
         <v>950</v>
       </c>
       <c r="C953">
-        <f t="array" ref="C953">SUM(IF(Connections!A953:B2927=Authors!A953, 1, 0))+1</f>
-        <v>13</v>
+        <f t="array" ref="C953">SUM(IF(Connections!$A$2:$B$1976=Authors!A953, 1, 0))+1</f>
+        <v>16</v>
       </c>
       <c r="D953">
         <v>1</v>
@@ -17530,7 +17532,7 @@
         <v>958</v>
       </c>
       <c r="C954">
-        <f t="array" ref="C954">SUM(IF(Connections!A954:B2928=Authors!A954, 1, 0))+1</f>
+        <f t="array" ref="C954">SUM(IF(Connections!$A$2:$B$1976=Authors!A954, 1, 0))+1</f>
         <v>3</v>
       </c>
       <c r="D954">
@@ -17549,8 +17551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1976"/>
   <sheetViews>
-    <sheetView topLeftCell="A1944" workbookViewId="0">
-      <selection activeCell="A1967" sqref="A1967"/>
+    <sheetView topLeftCell="A1949" workbookViewId="0">
+      <selection activeCell="A1977" sqref="A1977"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
